--- a/Power Rankings.xlsx
+++ b/Power Rankings.xlsx
@@ -3607,8 +3607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3777,7 +3777,9 @@
       <c r="I3" s="36">
         <v>90.7</v>
       </c>
-      <c r="J3" s="36"/>
+      <c r="J3" s="36">
+        <v>93.7</v>
+      </c>
       <c r="K3" s="36"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
@@ -3785,11 +3787,11 @@
       <c r="O3" s="8"/>
       <c r="P3" s="12">
         <f>SUM(C3:O3)</f>
-        <v>813.4</v>
+        <v>907.1</v>
       </c>
       <c r="Q3" s="12">
         <f>AVERAGE(C3:O3)</f>
-        <v>116.2</v>
+        <v>113.3875</v>
       </c>
       <c r="R3" s="13">
         <f>MAX(C3:O3)</f>
@@ -3801,7 +3803,7 @@
       </c>
       <c r="T3" s="13">
         <f>STDEV(C3:O3)</f>
-        <v>12.724517017684306</v>
+        <v>14.214925506060826</v>
       </c>
       <c r="W3" s="52">
         <f>IF(C3="","",RANK(C3,$C$3:$C$18,1))</f>
@@ -3831,9 +3833,9 @@
         <f>IF(I3="","",RANK(I3,$I$3:$I$18,1))</f>
         <v>7</v>
       </c>
-      <c r="AD3" s="53" t="str">
+      <c r="AD3" s="53">
         <f>IF(J3="","",RANK(J3,$J$3:$J$18,1))</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="AE3" s="53" t="str">
         <f>IF(K3="","",RANK(K3,$K$3:$K$18,1))</f>
@@ -3857,7 +3859,7 @@
       </c>
       <c r="AJ3" s="42">
         <f>SUM(W3:AI3)</f>
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3888,7 +3890,9 @@
       <c r="I4" s="34">
         <v>57.9</v>
       </c>
-      <c r="J4" s="34"/>
+      <c r="J4" s="34">
+        <v>81.5</v>
+      </c>
       <c r="K4" s="34"/>
       <c r="L4" s="34"/>
       <c r="M4" s="34"/>
@@ -3896,11 +3900,11 @@
       <c r="O4" s="9"/>
       <c r="P4" s="14">
         <f t="shared" ref="P4:P18" si="0">SUM(C4:O4)</f>
-        <v>623</v>
+        <v>704.5</v>
       </c>
       <c r="Q4" s="14">
         <f t="shared" ref="Q4:Q18" si="1">AVERAGE(C4:O4)</f>
-        <v>89</v>
+        <v>88.0625</v>
       </c>
       <c r="R4" s="15">
         <f t="shared" ref="R4:R18" si="2">MAX(C4:O4)</f>
@@ -3912,7 +3916,7 @@
       </c>
       <c r="T4" s="15">
         <f t="shared" ref="T4:T18" si="4">STDEV(C4:O4)</f>
-        <v>27.013268344772115</v>
+        <v>25.149605932726441</v>
       </c>
       <c r="W4" s="55">
         <f t="shared" ref="W4:W18" si="5">IF(C4="","",RANK(C4,$C$3:$C$18,1))</f>
@@ -3942,9 +3946,9 @@
         <f t="shared" ref="AC4:AC18" si="11">IF(I4="","",RANK(I4,$I$3:$I$18,1))</f>
         <v>1</v>
       </c>
-      <c r="AD4" s="56" t="str">
+      <c r="AD4" s="56">
         <f t="shared" ref="AD4:AD18" si="12">IF(J4="","",RANK(J4,$J$3:$J$18,1))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AE4" s="56" t="str">
         <f t="shared" ref="AE4:AE18" si="13">IF(K4="","",RANK(K4,$K$3:$K$18,1))</f>
@@ -3968,7 +3972,7 @@
       </c>
       <c r="AJ4" s="43">
         <f t="shared" ref="AJ4:AJ18" si="18">SUM(W4:AI4)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3999,7 +4003,9 @@
       <c r="I5" s="36">
         <v>58.1</v>
       </c>
-      <c r="J5" s="36"/>
+      <c r="J5" s="36">
+        <v>106.7</v>
+      </c>
       <c r="K5" s="36"/>
       <c r="L5" s="36"/>
       <c r="M5" s="36"/>
@@ -4007,15 +4013,15 @@
       <c r="O5" s="8"/>
       <c r="P5" s="16">
         <f t="shared" si="0"/>
-        <v>559.40000000000009</v>
+        <v>666.10000000000014</v>
       </c>
       <c r="Q5" s="16">
         <f t="shared" si="1"/>
-        <v>79.914285714285725</v>
+        <v>83.262500000000017</v>
       </c>
       <c r="R5" s="17">
         <f t="shared" si="2"/>
-        <v>101.2</v>
+        <v>106.7</v>
       </c>
       <c r="S5" s="17">
         <f t="shared" si="3"/>
@@ -4023,7 +4029,7 @@
       </c>
       <c r="T5" s="17">
         <f t="shared" si="4"/>
-        <v>15.205857267451005</v>
+        <v>16.966768991177918</v>
       </c>
       <c r="W5" s="55">
         <f t="shared" si="5"/>
@@ -4053,9 +4059,9 @@
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="AD5" s="56" t="str">
+      <c r="AD5" s="56">
         <f t="shared" si="12"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="AE5" s="56" t="str">
         <f t="shared" si="13"/>
@@ -4079,7 +4085,7 @@
       </c>
       <c r="AJ5" s="43">
         <f t="shared" si="18"/>
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4110,7 +4116,9 @@
       <c r="I6" s="35">
         <v>83.2</v>
       </c>
-      <c r="J6" s="36"/>
+      <c r="J6" s="36">
+        <v>119.2</v>
+      </c>
       <c r="K6" s="36"/>
       <c r="L6" s="34"/>
       <c r="M6" s="34"/>
@@ -4118,11 +4126,11 @@
       <c r="O6" s="9"/>
       <c r="P6" s="14">
         <f t="shared" si="0"/>
-        <v>662.1</v>
+        <v>781.30000000000007</v>
       </c>
       <c r="Q6" s="14">
         <f t="shared" si="1"/>
-        <v>94.585714285714289</v>
+        <v>97.662500000000009</v>
       </c>
       <c r="R6" s="15">
         <f t="shared" si="2"/>
@@ -4134,7 +4142,7 @@
       </c>
       <c r="T6" s="15">
         <f t="shared" si="4"/>
-        <v>16.225641083526625</v>
+        <v>17.360705836539488</v>
       </c>
       <c r="W6" s="55">
         <f t="shared" si="5"/>
@@ -4164,9 +4172,9 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="AD6" s="56" t="str">
+      <c r="AD6" s="56">
         <f t="shared" si="12"/>
-        <v/>
+        <v>14</v>
       </c>
       <c r="AE6" s="56" t="str">
         <f t="shared" si="13"/>
@@ -4190,7 +4198,7 @@
       </c>
       <c r="AJ6" s="43">
         <f t="shared" si="18"/>
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4221,7 +4229,9 @@
       <c r="I7" s="33">
         <v>66.099999999999994</v>
       </c>
-      <c r="J7" s="34"/>
+      <c r="J7" s="34">
+        <v>117.6</v>
+      </c>
       <c r="K7" s="34"/>
       <c r="L7" s="36"/>
       <c r="M7" s="36"/>
@@ -4229,11 +4239,11 @@
       <c r="O7" s="8"/>
       <c r="P7" s="16">
         <f t="shared" si="0"/>
-        <v>650.00000000000011</v>
+        <v>767.60000000000014</v>
       </c>
       <c r="Q7" s="16">
         <f t="shared" si="1"/>
-        <v>92.857142857142875</v>
+        <v>95.950000000000017</v>
       </c>
       <c r="R7" s="17">
         <f t="shared" si="2"/>
@@ -4245,7 +4255,7 @@
       </c>
       <c r="T7" s="17">
         <f t="shared" si="4"/>
-        <v>24.237220491278556</v>
+        <v>24.084197545871582</v>
       </c>
       <c r="W7" s="55">
         <f t="shared" si="5"/>
@@ -4275,9 +4285,9 @@
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="AD7" s="56" t="str">
+      <c r="AD7" s="56">
         <f t="shared" si="12"/>
-        <v/>
+        <v>12</v>
       </c>
       <c r="AE7" s="56" t="str">
         <f t="shared" si="13"/>
@@ -4301,7 +4311,7 @@
       </c>
       <c r="AJ7" s="43">
         <f t="shared" si="18"/>
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4332,7 +4342,9 @@
       <c r="I8" s="35">
         <v>105.3</v>
       </c>
-      <c r="J8" s="36"/>
+      <c r="J8" s="36">
+        <v>118.2</v>
+      </c>
       <c r="K8" s="36"/>
       <c r="L8" s="34"/>
       <c r="M8" s="34"/>
@@ -4340,11 +4352,11 @@
       <c r="O8" s="9"/>
       <c r="P8" s="14">
         <f t="shared" si="0"/>
-        <v>687.09999999999991</v>
+        <v>805.3</v>
       </c>
       <c r="Q8" s="14">
         <f t="shared" si="1"/>
-        <v>98.157142857142844</v>
+        <v>100.66249999999999</v>
       </c>
       <c r="R8" s="15">
         <f t="shared" si="2"/>
@@ -4356,7 +4368,7 @@
       </c>
       <c r="T8" s="15">
         <f t="shared" si="4"/>
-        <v>23.779743280283604</v>
+        <v>23.12808666658664</v>
       </c>
       <c r="W8" s="55">
         <f t="shared" si="5"/>
@@ -4386,9 +4398,9 @@
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="AD8" s="56" t="str">
+      <c r="AD8" s="56">
         <f t="shared" si="12"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="AE8" s="56" t="str">
         <f t="shared" si="13"/>
@@ -4412,7 +4424,7 @@
       </c>
       <c r="AJ8" s="43">
         <f t="shared" si="18"/>
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4443,7 +4455,9 @@
       <c r="I9" s="36">
         <v>137.9</v>
       </c>
-      <c r="J9" s="36"/>
+      <c r="J9" s="36">
+        <v>93.4</v>
+      </c>
       <c r="K9" s="36"/>
       <c r="L9" s="36"/>
       <c r="M9" s="36"/>
@@ -4451,11 +4465,11 @@
       <c r="O9" s="8"/>
       <c r="P9" s="16">
         <f t="shared" si="0"/>
-        <v>782.30000000000007</v>
+        <v>875.7</v>
       </c>
       <c r="Q9" s="16">
         <f t="shared" si="1"/>
-        <v>111.75714285714287</v>
+        <v>109.46250000000001</v>
       </c>
       <c r="R9" s="17">
         <f t="shared" si="2"/>
@@ -4467,7 +4481,7 @@
       </c>
       <c r="T9" s="17">
         <f t="shared" si="4"/>
-        <v>29.520267452653389</v>
+        <v>28.090513777531967</v>
       </c>
       <c r="W9" s="55">
         <f t="shared" si="5"/>
@@ -4497,9 +4511,9 @@
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
-      <c r="AD9" s="56" t="str">
+      <c r="AD9" s="56">
         <f t="shared" si="12"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="AE9" s="56" t="str">
         <f t="shared" si="13"/>
@@ -4523,7 +4537,7 @@
       </c>
       <c r="AJ9" s="43">
         <f t="shared" si="18"/>
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4554,7 +4568,9 @@
       <c r="I10" s="34">
         <v>111.4</v>
       </c>
-      <c r="J10" s="34"/>
+      <c r="J10" s="34">
+        <v>94.3</v>
+      </c>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
       <c r="M10" s="34"/>
@@ -4562,11 +4578,11 @@
       <c r="O10" s="9"/>
       <c r="P10" s="14">
         <f t="shared" si="0"/>
-        <v>734</v>
+        <v>828.3</v>
       </c>
       <c r="Q10" s="14">
         <f t="shared" si="1"/>
-        <v>104.85714285714286</v>
+        <v>103.53749999999999</v>
       </c>
       <c r="R10" s="15">
         <f t="shared" si="2"/>
@@ -4578,7 +4594,7 @@
       </c>
       <c r="T10" s="15">
         <f t="shared" si="4"/>
-        <v>15.998005828108463</v>
+        <v>15.274342398751235</v>
       </c>
       <c r="W10" s="55">
         <f t="shared" si="5"/>
@@ -4608,9 +4624,9 @@
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="AD10" s="56" t="str">
+      <c r="AD10" s="56">
         <f t="shared" si="12"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="AE10" s="56" t="str">
         <f t="shared" si="13"/>
@@ -4634,7 +4650,7 @@
       </c>
       <c r="AJ10" s="43">
         <f t="shared" si="18"/>
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4665,7 +4681,9 @@
       <c r="I11" s="36">
         <v>124</v>
       </c>
-      <c r="J11" s="36"/>
+      <c r="J11" s="36">
+        <v>99</v>
+      </c>
       <c r="K11" s="36"/>
       <c r="L11" s="36"/>
       <c r="M11" s="36"/>
@@ -4673,11 +4691,11 @@
       <c r="O11" s="8"/>
       <c r="P11" s="16">
         <f t="shared" si="0"/>
-        <v>721.3</v>
+        <v>820.3</v>
       </c>
       <c r="Q11" s="16">
         <f t="shared" si="1"/>
-        <v>103.04285714285713</v>
+        <v>102.53749999999999</v>
       </c>
       <c r="R11" s="17">
         <f t="shared" si="2"/>
@@ -4689,7 +4707,7 @@
       </c>
       <c r="T11" s="17">
         <f t="shared" si="4"/>
-        <v>31.484538911602172</v>
+        <v>29.18404346311771</v>
       </c>
       <c r="W11" s="55">
         <f t="shared" si="5"/>
@@ -4719,9 +4737,9 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="AD11" s="56" t="str">
+      <c r="AD11" s="56">
         <f t="shared" si="12"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="AE11" s="56" t="str">
         <f t="shared" si="13"/>
@@ -4745,7 +4763,7 @@
       </c>
       <c r="AJ11" s="43">
         <f t="shared" si="18"/>
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4776,7 +4794,9 @@
       <c r="I12" s="34">
         <v>69.099999999999994</v>
       </c>
-      <c r="J12" s="34"/>
+      <c r="J12" s="34">
+        <v>92.8</v>
+      </c>
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
       <c r="M12" s="34"/>
@@ -4784,11 +4804,11 @@
       <c r="O12" s="9"/>
       <c r="P12" s="14">
         <f t="shared" ref="P12:P17" si="19">SUM(C12:O12)</f>
-        <v>730.2</v>
+        <v>823</v>
       </c>
       <c r="Q12" s="14">
         <f t="shared" ref="Q12:Q17" si="20">AVERAGE(C12:O12)</f>
-        <v>104.31428571428572</v>
+        <v>102.875</v>
       </c>
       <c r="R12" s="15">
         <f t="shared" ref="R12:R17" si="21">MAX(C12:O12)</f>
@@ -4800,7 +4820,7 @@
       </c>
       <c r="T12" s="15">
         <f t="shared" ref="T12:T17" si="23">STDEV(C12:O12)</f>
-        <v>24.421945634437648</v>
+        <v>22.973882686961861</v>
       </c>
       <c r="W12" s="55">
         <f t="shared" si="5"/>
@@ -4830,9 +4850,9 @@
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="AD12" s="56" t="str">
+      <c r="AD12" s="56">
         <f t="shared" si="12"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="AE12" s="56" t="str">
         <f t="shared" si="13"/>
@@ -4856,7 +4876,7 @@
       </c>
       <c r="AJ12" s="43">
         <f t="shared" si="18"/>
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4887,7 +4907,9 @@
       <c r="I13" s="36">
         <v>79.7</v>
       </c>
-      <c r="J13" s="36"/>
+      <c r="J13" s="36">
+        <v>97.7</v>
+      </c>
       <c r="K13" s="36"/>
       <c r="L13" s="36"/>
       <c r="M13" s="36"/>
@@ -4895,11 +4917,11 @@
       <c r="O13" s="8"/>
       <c r="P13" s="16">
         <f t="shared" si="19"/>
-        <v>707.90000000000009</v>
+        <v>805.60000000000014</v>
       </c>
       <c r="Q13" s="16">
         <f t="shared" si="20"/>
-        <v>101.12857142857145</v>
+        <v>100.70000000000002</v>
       </c>
       <c r="R13" s="17">
         <f t="shared" si="21"/>
@@ -4911,7 +4933,7 @@
       </c>
       <c r="T13" s="17">
         <f t="shared" si="23"/>
-        <v>18.926939732007497</v>
+        <v>17.564818733560884</v>
       </c>
       <c r="W13" s="55">
         <f t="shared" si="5"/>
@@ -4941,9 +4963,9 @@
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="AD13" s="56" t="str">
+      <c r="AD13" s="56">
         <f t="shared" si="12"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="AE13" s="56" t="str">
         <f t="shared" si="13"/>
@@ -4967,7 +4989,7 @@
       </c>
       <c r="AJ13" s="43">
         <f t="shared" si="18"/>
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4998,7 +5020,9 @@
       <c r="I14" s="34">
         <v>126.5</v>
       </c>
-      <c r="J14" s="34"/>
+      <c r="J14" s="34">
+        <v>115.5</v>
+      </c>
       <c r="K14" s="34"/>
       <c r="L14" s="34"/>
       <c r="M14" s="34"/>
@@ -5006,11 +5030,11 @@
       <c r="O14" s="9"/>
       <c r="P14" s="14">
         <f t="shared" si="19"/>
-        <v>715.3</v>
+        <v>830.8</v>
       </c>
       <c r="Q14" s="14">
         <f t="shared" si="20"/>
-        <v>102.18571428571428</v>
+        <v>103.85</v>
       </c>
       <c r="R14" s="15">
         <f t="shared" si="21"/>
@@ -5022,7 +5046,7 @@
       </c>
       <c r="T14" s="15">
         <f t="shared" si="23"/>
-        <v>15.967616036990801</v>
+        <v>15.514509338035905</v>
       </c>
       <c r="W14" s="55">
         <f t="shared" si="5"/>
@@ -5052,9 +5076,9 @@
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="AD14" s="56" t="str">
+      <c r="AD14" s="56">
         <f t="shared" si="12"/>
-        <v/>
+        <v>11</v>
       </c>
       <c r="AE14" s="56" t="str">
         <f t="shared" si="13"/>
@@ -5078,7 +5102,7 @@
       </c>
       <c r="AJ14" s="43">
         <f t="shared" si="18"/>
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5109,7 +5133,9 @@
       <c r="I15" s="36">
         <v>115.1</v>
       </c>
-      <c r="J15" s="36"/>
+      <c r="J15" s="36">
+        <v>82.7</v>
+      </c>
       <c r="K15" s="36"/>
       <c r="L15" s="36"/>
       <c r="M15" s="36"/>
@@ -5117,11 +5143,11 @@
       <c r="O15" s="8"/>
       <c r="P15" s="16">
         <f t="shared" si="19"/>
-        <v>687.50000000000011</v>
+        <v>770.20000000000016</v>
       </c>
       <c r="Q15" s="16">
         <f t="shared" si="20"/>
-        <v>98.214285714285737</v>
+        <v>96.27500000000002</v>
       </c>
       <c r="R15" s="17">
         <f t="shared" si="21"/>
@@ -5133,7 +5159,7 @@
       </c>
       <c r="T15" s="17">
         <f t="shared" si="23"/>
-        <v>13.336469869175408</v>
+        <v>13.510710037384444</v>
       </c>
       <c r="W15" s="55">
         <f t="shared" si="5"/>
@@ -5163,9 +5189,9 @@
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="AD15" s="56" t="str">
+      <c r="AD15" s="56">
         <f t="shared" si="12"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AE15" s="56" t="str">
         <f t="shared" si="13"/>
@@ -5189,7 +5215,7 @@
       </c>
       <c r="AJ15" s="43">
         <f t="shared" si="18"/>
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5220,7 +5246,9 @@
       <c r="I16" s="34">
         <v>120.4</v>
       </c>
-      <c r="J16" s="34"/>
+      <c r="J16" s="34">
+        <v>107.2</v>
+      </c>
       <c r="K16" s="34"/>
       <c r="L16" s="34"/>
       <c r="M16" s="34"/>
@@ -5228,11 +5256,11 @@
       <c r="O16" s="9"/>
       <c r="P16" s="14">
         <f t="shared" si="19"/>
-        <v>672.09999999999991</v>
+        <v>779.3</v>
       </c>
       <c r="Q16" s="14">
         <f t="shared" si="20"/>
-        <v>96.014285714285705</v>
+        <v>97.412499999999994</v>
       </c>
       <c r="R16" s="15">
         <f t="shared" si="21"/>
@@ -5244,7 +5272,7 @@
       </c>
       <c r="T16" s="15">
         <f t="shared" si="23"/>
-        <v>20.662883678343789</v>
+        <v>19.534616709830853</v>
       </c>
       <c r="W16" s="55">
         <f t="shared" si="5"/>
@@ -5274,9 +5302,9 @@
         <f t="shared" si="11"/>
         <v>11</v>
       </c>
-      <c r="AD16" s="56" t="str">
+      <c r="AD16" s="56">
         <f t="shared" si="12"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="AE16" s="56" t="str">
         <f t="shared" si="13"/>
@@ -5300,7 +5328,7 @@
       </c>
       <c r="AJ16" s="43">
         <f t="shared" si="18"/>
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:41" ht="24" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5496,11 +5524,11 @@
     <row r="19" spans="1:41" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P19" s="11">
         <f>SUM(C3:O18)</f>
-        <v>9745.6000000000022</v>
+        <v>11165.100000000002</v>
       </c>
       <c r="Q19" s="11">
         <f>AVERAGE(C3:O18)</f>
-        <v>99.444897959183692</v>
+        <v>99.688392857142873</v>
       </c>
       <c r="R19" s="18">
         <f>MAX(C3:O18)</f>
@@ -5512,7 +5540,7 @@
       </c>
       <c r="T19" s="18">
         <f>STDEV(C3:O18)</f>
-        <v>21.871372441246123</v>
+        <v>20.920694291683386</v>
       </c>
     </row>
     <row r="20" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -5567,23 +5595,21 @@
         <v>Spos Before Hos</v>
       </c>
       <c r="C22" s="21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D22" s="46">
         <f>AJ3</f>
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E22" s="49">
         <f t="shared" ref="E22:E31" si="24">IF(D3="",-99,IF(T3=0,1,(Q3-$Q$19)/T3))</f>
-        <v>1.3167574075723558</v>
+        <v>0.96371290422986977</v>
       </c>
       <c r="F22" s="28">
         <f>IF(C3="",0,Q3)</f>
-        <v>116.2</v>
-      </c>
-      <c r="G22" s="39">
-        <v>100</v>
-      </c>
+        <v>113.3875</v>
+      </c>
+      <c r="G22" s="39"/>
       <c r="H22" s="22">
         <f>IF(C22="",16,RANK(C22,$C$22:$C$37,0))</f>
         <v>1</v>
@@ -5602,7 +5628,7 @@
       </c>
       <c r="L22" s="22">
         <f t="shared" ref="L22" si="25">IF(G22="",16,RANK(G22,$G$22:$G$37,0))</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="N22" s="104"/>
       <c r="O22" s="104"/>
@@ -5624,22 +5650,20 @@
       </c>
       <c r="D23" s="47">
         <f t="shared" ref="D23:D37" si="26">AJ4</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E23" s="50">
         <f t="shared" si="24"/>
-        <v>-0.38665806098968752</v>
+        <v>-0.46226938458763051</v>
       </c>
       <c r="F23" s="28">
         <f t="shared" ref="F23:F37" si="27">IF(C4="",0,Q4)</f>
-        <v>89</v>
-      </c>
-      <c r="G23" s="40">
-        <v>78</v>
-      </c>
+        <v>88.0625</v>
+      </c>
+      <c r="G23" s="40"/>
       <c r="H23" s="24">
         <f t="shared" ref="H23:H37" si="28">IF(C23="",16,RANK(C23,$C$22:$C$37,0))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I23" s="24">
         <f t="shared" ref="I23:I37" si="29">IF(C23="",16,RANK(D23,$D$22:$D$37,0))</f>
@@ -5655,7 +5679,7 @@
       </c>
       <c r="L23" s="24">
         <f t="shared" ref="L23:L37" si="31">IF(G23="",16,RANK(G23,$G$22:$G$37,0))</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N23" s="30"/>
       <c r="O23" s="30"/>
@@ -5669,30 +5693,28 @@
         <v>SUPERMAX LOCO</v>
       </c>
       <c r="C24" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="47">
         <f t="shared" si="26"/>
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E24" s="50">
         <f t="shared" si="24"/>
-        <v>-1.2844137559218278</v>
+        <v>-0.9681214417243319</v>
       </c>
       <c r="F24" s="28">
         <f t="shared" si="27"/>
-        <v>79.914285714285725</v>
-      </c>
-      <c r="G24" s="40">
-        <v>81.599999999999994</v>
-      </c>
+        <v>83.262500000000017</v>
+      </c>
+      <c r="G24" s="40"/>
       <c r="H24" s="24">
         <f t="shared" si="28"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I24" s="24">
         <f t="shared" si="29"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J24" s="24">
         <f>RANK(E24,$E$22:$E39,0)</f>
@@ -5704,7 +5726,7 @@
       </c>
       <c r="L24" s="24">
         <f t="shared" si="31"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N24" s="104" t="s">
         <v>44</v>
@@ -5730,42 +5752,40 @@
         <v>Team Thomas</v>
       </c>
       <c r="C25" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" s="47">
         <f t="shared" si="26"/>
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E25" s="50">
         <f t="shared" si="24"/>
-        <v>-0.29947560459739103</v>
+        <v>-0.11669415265817819</v>
       </c>
       <c r="F25" s="28">
         <f t="shared" si="27"/>
-        <v>94.585714285714289</v>
-      </c>
-      <c r="G25" s="40">
-        <v>94.4</v>
-      </c>
+        <v>97.662500000000009</v>
+      </c>
+      <c r="G25" s="40"/>
       <c r="H25" s="24">
         <f t="shared" si="28"/>
         <v>7</v>
       </c>
       <c r="I25" s="24">
         <f t="shared" si="29"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J25" s="24">
         <f>RANK(E25,$E$22:$E40,0)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K25" s="24">
         <f t="shared" si="30"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L25" s="24">
         <f t="shared" si="31"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N25" s="104"/>
       <c r="O25" s="104"/>
@@ -5793,26 +5813,24 @@
       </c>
       <c r="D26" s="47">
         <f t="shared" si="26"/>
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E26" s="50">
         <f t="shared" si="24"/>
-        <v>-0.27180324181196158</v>
+        <v>-0.15522181505207244</v>
       </c>
       <c r="F26" s="28">
         <f t="shared" si="27"/>
-        <v>92.857142857142875</v>
-      </c>
-      <c r="G26" s="40">
-        <v>92.6</v>
-      </c>
+        <v>95.950000000000017</v>
+      </c>
+      <c r="G26" s="40"/>
       <c r="H26" s="24">
         <f t="shared" si="28"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I26" s="24">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J26" s="24">
         <f>RANK(E26,$E$22:$E41,0)</f>
@@ -5824,7 +5842,7 @@
       </c>
       <c r="L26" s="24">
         <f t="shared" si="31"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N26" s="30"/>
       <c r="O26" s="30"/>
@@ -5838,30 +5856,28 @@
         <v>Deflate Deez Nutz</v>
       </c>
       <c r="C27" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" s="47">
         <f t="shared" si="26"/>
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E27" s="50">
         <f t="shared" si="24"/>
-        <v>-5.4153448456634869E-2</v>
+        <v>4.2117930328600131E-2</v>
       </c>
       <c r="F27" s="28">
         <f t="shared" si="27"/>
-        <v>98.157142857142844</v>
-      </c>
-      <c r="G27" s="40">
-        <v>89</v>
-      </c>
+        <v>100.66249999999999</v>
+      </c>
+      <c r="G27" s="40"/>
       <c r="H27" s="24">
         <f t="shared" si="28"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I27" s="24">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J27" s="24">
         <f>RANK(E27,$E$22:$E42,0)</f>
@@ -5869,11 +5885,11 @@
       </c>
       <c r="K27" s="24">
         <f t="shared" si="30"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L27" s="24">
         <f t="shared" si="31"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N27" s="100" t="s">
         <v>45</v>
@@ -5897,26 +5913,24 @@
       </c>
       <c r="D28" s="47">
         <f t="shared" si="26"/>
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E28" s="50">
         <f t="shared" si="24"/>
-        <v>0.41707768798864681</v>
+        <v>0.34795045830293414</v>
       </c>
       <c r="F28" s="28">
         <f t="shared" si="27"/>
-        <v>111.75714285714287</v>
-      </c>
-      <c r="G28" s="40">
-        <v>87.6</v>
-      </c>
+        <v>109.46250000000001</v>
+      </c>
+      <c r="G28" s="40"/>
       <c r="H28" s="24">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I28" s="24">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J28" s="24">
         <f>RANK(E28,$E$22:$E43,0)</f>
@@ -5928,7 +5942,7 @@
       </c>
       <c r="L28" s="24">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N28" s="100"/>
       <c r="O28" s="100"/>
@@ -5946,42 +5960,37 @@
         <v>Team Wasserman</v>
       </c>
       <c r="C29" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="47">
         <f t="shared" si="26"/>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E29" s="50">
         <f t="shared" si="24"/>
-        <v>0.33830747132557398</v>
+        <v>0.25199822305749858</v>
       </c>
       <c r="F29" s="28">
         <f t="shared" si="27"/>
-        <v>104.85714285714286</v>
-      </c>
-      <c r="G29" s="40">
-        <v>95.3</v>
-      </c>
+        <v>103.53749999999999</v>
+      </c>
+      <c r="G29" s="40"/>
       <c r="H29" s="24">
         <f t="shared" si="28"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I29" s="24">
         <f t="shared" si="29"/>
         <v>4</v>
       </c>
-      <c r="J29" s="24">
-        <f>RANK(E29,$E$22:$E44,0)</f>
-        <v>3</v>
-      </c>
+      <c r="J29" s="24"/>
       <c r="K29" s="24">
         <f t="shared" si="30"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L29" s="24">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="N29" s="100"/>
       <c r="O29" s="100"/>
@@ -6003,26 +6012,24 @@
       </c>
       <c r="D30" s="47">
         <f t="shared" si="26"/>
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E30" s="50">
         <f t="shared" si="24"/>
-        <v>0.11427701684865955</v>
+        <v>9.762551054509544E-2</v>
       </c>
       <c r="F30" s="28">
         <f t="shared" si="27"/>
-        <v>103.04285714285713</v>
-      </c>
-      <c r="G30" s="40">
-        <v>93.9</v>
-      </c>
+        <v>102.53749999999999</v>
+      </c>
+      <c r="G30" s="40"/>
       <c r="H30" s="24">
         <f t="shared" si="28"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I30" s="24">
         <f t="shared" si="29"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J30" s="24">
         <f>RANK(E30,$E$22:$E45,0)</f>
@@ -6030,11 +6037,11 @@
       </c>
       <c r="K30" s="24">
         <f t="shared" si="30"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L30" s="24">
         <f t="shared" si="31"/>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N30" s="100"/>
       <c r="O30" s="100"/>
@@ -6056,38 +6063,36 @@
       </c>
       <c r="D31" s="47">
         <f t="shared" si="26"/>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E31" s="50">
         <f t="shared" si="24"/>
-        <v>0.19938574215133986</v>
+        <v>0.13870564180540501</v>
       </c>
       <c r="F31" s="28">
         <f t="shared" si="27"/>
-        <v>104.31428571428572</v>
-      </c>
-      <c r="G31" s="40">
-        <v>95.1</v>
-      </c>
+        <v>102.875</v>
+      </c>
+      <c r="G31" s="40"/>
       <c r="H31" s="24">
         <f t="shared" si="28"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I31" s="24">
         <f t="shared" si="29"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J31" s="24">
         <f>RANK(E31,$E$22:$E46,0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K31" s="24">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L31" s="24">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="N31" s="100"/>
       <c r="O31" s="100"/>
@@ -6109,22 +6114,20 @@
       </c>
       <c r="D32" s="47">
         <f t="shared" si="26"/>
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E32" s="50">
         <f>IF(D13="",-99,IF(T13=0,1,(Q13-$Q$19)/T13))</f>
-        <v>8.8956455360846454E-2</v>
+        <v>5.7592802875003721E-2</v>
       </c>
       <c r="F32" s="28">
         <f t="shared" si="27"/>
-        <v>101.12857142857145</v>
-      </c>
-      <c r="G32" s="40">
-        <v>85.2</v>
-      </c>
+        <v>100.70000000000002</v>
+      </c>
+      <c r="G32" s="40"/>
       <c r="H32" s="24">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I32" s="24">
         <f t="shared" si="29"/>
@@ -6140,7 +6143,7 @@
       </c>
       <c r="L32" s="24">
         <f t="shared" si="31"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N32" s="77"/>
       <c r="O32" s="77"/>
@@ -6158,42 +6161,40 @@
         <v>Cool Hand Lou</v>
       </c>
       <c r="C33" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D33" s="47">
         <f t="shared" si="26"/>
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E33" s="50">
         <f t="shared" ref="E33:E37" si="32">IF(D14="",-99,IF(T14=0,1,(Q14-$Q$19)/T14))</f>
-        <v>0.17164843644669175</v>
+        <v>0.26823968790649294</v>
       </c>
       <c r="F33" s="28">
         <f t="shared" si="27"/>
-        <v>102.18571428571428</v>
-      </c>
-      <c r="G33" s="40">
-        <v>96.4</v>
-      </c>
+        <v>103.85</v>
+      </c>
+      <c r="G33" s="40"/>
       <c r="H33" s="24">
         <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="I33" s="24">
         <f t="shared" si="29"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J33" s="24">
         <f>RANK(E33,$E$22:$E48,0)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K33" s="24">
         <f t="shared" si="30"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L33" s="24">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="N33" s="100" t="s">
         <v>47</v>
@@ -6217,38 +6218,36 @@
       </c>
       <c r="D34" s="47">
         <f t="shared" si="26"/>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E34" s="50">
         <f t="shared" si="32"/>
-        <v>-9.2274211764409253E-2</v>
+        <v>-0.25264348414686694</v>
       </c>
       <c r="F34" s="28">
         <f t="shared" si="27"/>
-        <v>98.214285714285737</v>
-      </c>
-      <c r="G34" s="40">
-        <v>99</v>
-      </c>
+        <v>96.27500000000002</v>
+      </c>
+      <c r="G34" s="40"/>
       <c r="H34" s="24">
         <f t="shared" si="28"/>
         <v>12</v>
       </c>
       <c r="I34" s="24">
         <f t="shared" si="29"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J34" s="24">
         <f>RANK(E34,$E$22:$E49,0)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K34" s="24">
         <f t="shared" si="30"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L34" s="24">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="N34" s="100"/>
       <c r="O34" s="100"/>
@@ -6266,23 +6265,21 @@
         <v>Team Force</v>
       </c>
       <c r="C35" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D35" s="47">
         <f t="shared" si="26"/>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E35" s="50">
         <f t="shared" si="32"/>
-        <v>-0.16602775770806466</v>
+        <v>-0.11650563156417236</v>
       </c>
       <c r="F35" s="28">
         <f t="shared" si="27"/>
-        <v>96.014285714285705</v>
-      </c>
-      <c r="G35" s="40">
-        <v>89.8</v>
-      </c>
+        <v>97.412499999999994</v>
+      </c>
+      <c r="G35" s="40"/>
       <c r="H35" s="24">
         <f t="shared" si="28"/>
         <v>2</v>
@@ -6293,7 +6290,7 @@
       </c>
       <c r="J35" s="24">
         <f>RANK(E35,$E$22:$E50,0)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K35" s="24">
         <f t="shared" si="30"/>
@@ -6301,7 +6298,7 @@
       </c>
       <c r="L35" s="24">
         <f t="shared" si="31"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N35" s="100"/>
       <c r="O35" s="100"/>
@@ -6562,7 +6559,7 @@
       </c>
       <c r="D3" s="82">
         <f t="shared" ref="D3:D18" si="1">AVERAGE(3*E3,F3,G3,H3,I3)</f>
-        <v>1.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E3" s="83">
         <f>POINTS!H22</f>
@@ -6582,7 +6579,7 @@
       </c>
       <c r="I3" s="84">
         <f>POINTS!L22</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J3" s="78"/>
     </row>
@@ -6593,15 +6590,15 @@
       </c>
       <c r="C4" s="71">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="85">
         <f t="shared" si="1"/>
-        <v>14.8</v>
+        <v>15.8</v>
       </c>
       <c r="E4" s="86">
         <f>POINTS!H23</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="86">
         <f>POINTS!I23</f>
@@ -6617,7 +6614,7 @@
       </c>
       <c r="I4" s="87">
         <f>POINTS!L23</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J4" s="79"/>
     </row>
@@ -6632,15 +6629,15 @@
       </c>
       <c r="D5" s="85">
         <f t="shared" si="1"/>
-        <v>18.8</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E5" s="86">
         <f>POINTS!H24</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="86">
         <f>POINTS!I24</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="86">
         <f>POINTS!J24</f>
@@ -6652,7 +6649,7 @@
       </c>
       <c r="I5" s="87">
         <f>POINTS!L24</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J5" s="79"/>
     </row>
@@ -6667,7 +6664,7 @@
       </c>
       <c r="D6" s="85">
         <f t="shared" si="1"/>
-        <v>12.2</v>
+        <v>13</v>
       </c>
       <c r="E6" s="86">
         <f>POINTS!H25</f>
@@ -6675,19 +6672,19 @@
       </c>
       <c r="F6" s="86">
         <f>POINTS!I25</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G6" s="86">
         <f>POINTS!J25</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H6" s="86">
         <f>POINTS!K25</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I6" s="87">
         <f>POINTS!L25</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J6" s="79"/>
     </row>
@@ -6702,15 +6699,15 @@
       </c>
       <c r="D7" s="85">
         <f t="shared" si="1"/>
-        <v>12.8</v>
+        <v>14.8</v>
       </c>
       <c r="E7" s="86">
         <f>POINTS!H26</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="86">
         <f>POINTS!I26</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="86">
         <f>POINTS!J26</f>
@@ -6722,7 +6719,7 @@
       </c>
       <c r="I7" s="87">
         <f>POINTS!L26</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J7" s="79"/>
     </row>
@@ -6733,19 +6730,19 @@
       </c>
       <c r="C8" s="71">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D8" s="85">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E8" s="86">
         <f>POINTS!H27</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F8" s="86">
         <f>POINTS!I27</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G8" s="86">
         <f>POINTS!J27</f>
@@ -6753,11 +6750,11 @@
       </c>
       <c r="H8" s="86">
         <f>POINTS!K27</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I8" s="87">
         <f>POINTS!L27</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J8" s="79"/>
     </row>
@@ -6768,19 +6765,19 @@
       </c>
       <c r="C9" s="71">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="85">
         <f t="shared" si="1"/>
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
       <c r="E9" s="86">
         <f>POINTS!H28</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" s="86">
         <f>POINTS!I28</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" s="86">
         <f>POINTS!J28</f>
@@ -6792,7 +6789,7 @@
       </c>
       <c r="I9" s="87">
         <f>POINTS!L28</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J9" s="79"/>
     </row>
@@ -6807,11 +6804,11 @@
       </c>
       <c r="D10" s="85">
         <f t="shared" si="1"/>
-        <v>10.6</v>
+        <v>12</v>
       </c>
       <c r="E10" s="86">
         <f>POINTS!H29</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="86">
         <f>POINTS!I29</f>
@@ -6819,15 +6816,15 @@
       </c>
       <c r="G10" s="86">
         <f>POINTS!J29</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H10" s="86">
         <f>POINTS!K29</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" s="87">
         <f>POINTS!L29</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J10" s="79"/>
     </row>
@@ -6838,19 +6835,19 @@
       </c>
       <c r="C11" s="71">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11" s="85">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11.8</v>
       </c>
       <c r="E11" s="86">
         <f>POINTS!H30</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="86">
         <f>POINTS!I30</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G11" s="86">
         <f>POINTS!J30</f>
@@ -6858,11 +6855,11 @@
       </c>
       <c r="H11" s="86">
         <f>POINTS!K30</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I11" s="87">
         <f>POINTS!L30</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J11" s="79"/>
     </row>
@@ -6873,31 +6870,31 @@
       </c>
       <c r="C12" s="71">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D12" s="85">
         <f t="shared" si="1"/>
-        <v>7.4</v>
+        <v>11</v>
       </c>
       <c r="E12" s="86">
         <f>POINTS!H31</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F12" s="86">
         <f>POINTS!I31</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G12" s="86">
         <f>POINTS!J31</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12" s="86">
         <f>POINTS!K31</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I12" s="87">
         <f>POINTS!L31</f>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J12" s="79"/>
     </row>
@@ -6912,11 +6909,11 @@
       </c>
       <c r="D13" s="85">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E13" s="86">
         <f>POINTS!H32</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" s="86">
         <f>POINTS!I32</f>
@@ -6932,7 +6929,7 @@
       </c>
       <c r="I13" s="87">
         <f>POINTS!L32</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J13" s="79"/>
     </row>
@@ -6943,11 +6940,11 @@
       </c>
       <c r="C14" s="71">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="85">
         <f t="shared" si="1"/>
-        <v>5.2</v>
+        <v>6.6</v>
       </c>
       <c r="E14" s="86">
         <f>POINTS!H33</f>
@@ -6955,19 +6952,19 @@
       </c>
       <c r="F14" s="86">
         <f>POINTS!I33</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G14" s="86">
         <f>POINTS!J33</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H14" s="86">
         <f>POINTS!K33</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I14" s="87">
         <f>POINTS!L33</f>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J14" s="79"/>
     </row>
@@ -6978,11 +6975,11 @@
       </c>
       <c r="C15" s="71">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D15" s="85">
         <f t="shared" si="1"/>
-        <v>12.8</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E15" s="86">
         <f>POINTS!H34</f>
@@ -6990,19 +6987,19 @@
       </c>
       <c r="F15" s="86">
         <f>POINTS!I34</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G15" s="86">
         <f>POINTS!J34</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H15" s="86">
         <f>POINTS!K34</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I15" s="87">
         <f>POINTS!L34</f>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J15" s="79"/>
     </row>
@@ -7017,7 +7014,7 @@
       </c>
       <c r="D16" s="85">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="E16" s="86">
         <f>POINTS!H35</f>
@@ -7029,7 +7026,7 @@
       </c>
       <c r="G16" s="86">
         <f>POINTS!J35</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H16" s="86">
         <f>POINTS!K35</f>
@@ -7037,7 +7034,7 @@
       </c>
       <c r="I16" s="87">
         <f>POINTS!L35</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J16" s="79"/>
     </row>
@@ -7129,7 +7126,7 @@
   <dimension ref="B2:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I16"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -7182,7 +7179,7 @@
       </c>
       <c r="D3" s="82">
         <f>AVERAGE(3*E3,F3,G3,H3,I3)</f>
-        <v>1.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E3" s="83">
         <f>POINTS!H22</f>
@@ -7202,14 +7199,14 @@
       </c>
       <c r="I3" s="84">
         <f>POINTS!L22</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J3" s="78"/>
     </row>
     <row r="4" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="92" t="str">
-        <f>POINTS!B9</f>
-        <v>Team Gregory</v>
+        <f>POINTS!B14</f>
+        <v>Cool Hand Lou</v>
       </c>
       <c r="C4" s="71">
         <f>RANK(D4,$D$3:$D$16,1)</f>
@@ -7217,34 +7214,34 @@
       </c>
       <c r="D4" s="85">
         <f>AVERAGE(3*E4,F4,G4,H4,I4)</f>
-        <v>4.5999999999999996</v>
+        <v>6.6</v>
       </c>
       <c r="E4" s="86">
-        <f>POINTS!H28</f>
+        <f>POINTS!H33</f>
         <v>2</v>
       </c>
       <c r="F4" s="86">
-        <f>POINTS!I28</f>
-        <v>2</v>
+        <f>POINTS!I33</f>
+        <v>5</v>
       </c>
       <c r="G4" s="86">
-        <f>POINTS!J28</f>
-        <v>2</v>
+        <f>POINTS!J33</f>
+        <v>3</v>
       </c>
       <c r="H4" s="86">
-        <f>POINTS!K28</f>
-        <v>2</v>
+        <f>POINTS!K33</f>
+        <v>3</v>
       </c>
       <c r="I4" s="87">
-        <f>POINTS!L28</f>
-        <v>11</v>
+        <f>POINTS!L33</f>
+        <v>16</v>
       </c>
       <c r="J4" s="79"/>
     </row>
     <row r="5" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B5" s="92" t="str">
-        <f>POINTS!B14</f>
-        <v>Cool Hand Lou</v>
+        <f>POINTS!B9</f>
+        <v>Team Gregory</v>
       </c>
       <c r="C5" s="71">
         <f>RANK(D5,$D$3:$D$16,1)</f>
@@ -7252,34 +7249,34 @@
       </c>
       <c r="D5" s="85">
         <f>AVERAGE(3*E5,F5,G5,H5,I5)</f>
-        <v>5.2</v>
+        <v>7</v>
       </c>
       <c r="E5" s="86">
-        <f>POINTS!H33</f>
+        <f>POINTS!H28</f>
+        <v>4</v>
+      </c>
+      <c r="F5" s="86">
+        <f>POINTS!I28</f>
+        <v>3</v>
+      </c>
+      <c r="G5" s="86">
+        <f>POINTS!J28</f>
         <v>2</v>
       </c>
-      <c r="F5" s="86">
-        <f>POINTS!I33</f>
-        <v>6</v>
-      </c>
-      <c r="G5" s="86">
-        <f>POINTS!J33</f>
-        <v>5</v>
-      </c>
       <c r="H5" s="86">
-        <f>POINTS!K33</f>
-        <v>6</v>
+        <f>POINTS!K28</f>
+        <v>2</v>
       </c>
       <c r="I5" s="87">
-        <f>POINTS!L33</f>
-        <v>3</v>
+        <f>POINTS!L28</f>
+        <v>16</v>
       </c>
       <c r="J5" s="79"/>
     </row>
     <row r="6" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B6" s="92" t="str">
-        <f>POINTS!B12</f>
-        <v>Team Frisch</v>
+        <f>POINTS!B8</f>
+        <v>Deflate Deez Nutz</v>
       </c>
       <c r="C6" s="71">
         <f>RANK(D6,$D$3:$D$16,1)</f>
@@ -7287,69 +7284,69 @@
       </c>
       <c r="D6" s="85">
         <f>AVERAGE(3*E6,F6,G6,H6,I6)</f>
-        <v>7.4</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E6" s="86">
-        <f>POINTS!H31</f>
-        <v>7</v>
+        <f>POINTS!H27</f>
+        <v>4</v>
       </c>
       <c r="F6" s="86">
-        <f>POINTS!I31</f>
-        <v>3</v>
+        <f>POINTS!I27</f>
+        <v>2</v>
       </c>
       <c r="G6" s="86">
-        <f>POINTS!J31</f>
-        <v>4</v>
+        <f>POINTS!J27</f>
+        <v>8</v>
       </c>
       <c r="H6" s="86">
-        <f>POINTS!K31</f>
-        <v>4</v>
+        <f>POINTS!K27</f>
+        <v>8</v>
       </c>
       <c r="I6" s="87">
-        <f>POINTS!L31</f>
-        <v>5</v>
+        <f>POINTS!L27</f>
+        <v>16</v>
       </c>
       <c r="J6" s="79"/>
     </row>
     <row r="7" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="92" t="str">
-        <f>POINTS!B13</f>
-        <v>OhNo Romo</v>
+        <f>POINTS!B12</f>
+        <v>Team Frisch</v>
       </c>
       <c r="C7" s="71">
         <f>RANK(D7,$D$3:$D$16,1)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" s="85">
         <f>AVERAGE(3*E7,F7,G7,H7,I7)</f>
+        <v>11</v>
+      </c>
+      <c r="E7" s="86">
+        <f>POINTS!H31</f>
         <v>8</v>
       </c>
-      <c r="E7" s="86">
-        <f>POINTS!H32</f>
-        <v>2</v>
-      </c>
       <c r="F7" s="86">
-        <f>POINTS!I32</f>
-        <v>8</v>
+        <f>POINTS!I31</f>
+        <v>5</v>
       </c>
       <c r="G7" s="86">
-        <f>POINTS!J32</f>
-        <v>7</v>
+        <f>POINTS!J31</f>
+        <v>5</v>
       </c>
       <c r="H7" s="86">
-        <f>POINTS!K32</f>
-        <v>7</v>
+        <f>POINTS!K31</f>
+        <v>5</v>
       </c>
       <c r="I7" s="87">
-        <f>POINTS!L32</f>
-        <v>12</v>
+        <f>POINTS!L31</f>
+        <v>16</v>
       </c>
       <c r="J7" s="79"/>
     </row>
     <row r="8" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B8" s="92" t="str">
-        <f>POINTS!B11</f>
-        <v>SFV Aguilar</v>
+        <f>POINTS!B16</f>
+        <v>Team Force</v>
       </c>
       <c r="C8" s="71">
         <f>RANK(D8,$D$3:$D$16,1)</f>
@@ -7357,132 +7354,132 @@
       </c>
       <c r="D8" s="85">
         <f>AVERAGE(3*E8,F8,G8,H8,I8)</f>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E8" s="86">
+        <f>POINTS!H35</f>
+        <v>2</v>
+      </c>
+      <c r="F8" s="86">
+        <f>POINTS!I35</f>
+        <v>10</v>
+      </c>
+      <c r="G8" s="86">
+        <f>POINTS!J35</f>
         <v>9</v>
       </c>
-      <c r="E8" s="86">
+      <c r="H8" s="86">
+        <f>POINTS!K35</f>
+        <v>10</v>
+      </c>
+      <c r="I8" s="87">
+        <f>POINTS!L35</f>
+        <v>16</v>
+      </c>
+      <c r="J8" s="79"/>
+    </row>
+    <row r="9" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="92" t="str">
+        <f>POINTS!B13</f>
+        <v>OhNo Romo</v>
+      </c>
+      <c r="C9" s="71">
+        <f>RANK(D9,$D$3:$D$16,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D9" s="85">
+        <f>AVERAGE(3*E9,F9,G9,H9,I9)</f>
+        <v>10</v>
+      </c>
+      <c r="E9" s="86">
+        <f>POINTS!H32</f>
+        <v>4</v>
+      </c>
+      <c r="F9" s="86">
+        <f>POINTS!I32</f>
+        <v>8</v>
+      </c>
+      <c r="G9" s="86">
+        <f>POINTS!J32</f>
+        <v>7</v>
+      </c>
+      <c r="H9" s="86">
+        <f>POINTS!K32</f>
+        <v>7</v>
+      </c>
+      <c r="I9" s="87">
+        <f>POINTS!L32</f>
+        <v>16</v>
+      </c>
+      <c r="J9" s="79"/>
+    </row>
+    <row r="10" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="92" t="str">
+        <f>POINTS!B10</f>
+        <v>Team Wasserman</v>
+      </c>
+      <c r="C10" s="71">
+        <f>RANK(D10,$D$3:$D$16,1)</f>
+        <v>9</v>
+      </c>
+      <c r="D10" s="85">
+        <f>AVERAGE(3*E10,F10,G10,H10,I10)</f>
+        <v>12</v>
+      </c>
+      <c r="E10" s="86">
+        <f>POINTS!H29</f>
+        <v>12</v>
+      </c>
+      <c r="F10" s="86">
+        <f>POINTS!I29</f>
+        <v>4</v>
+      </c>
+      <c r="G10" s="86">
+        <f>POINTS!J29</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="86">
+        <f>POINTS!K29</f>
+        <v>4</v>
+      </c>
+      <c r="I10" s="87">
+        <f>POINTS!L29</f>
+        <v>16</v>
+      </c>
+      <c r="J10" s="79"/>
+    </row>
+    <row r="11" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="92" t="str">
+        <f>POINTS!B11</f>
+        <v>SFV Aguilar</v>
+      </c>
+      <c r="C11" s="71">
+        <f>RANK(D11,$D$3:$D$16,1)</f>
+        <v>8</v>
+      </c>
+      <c r="D11" s="85">
+        <f>AVERAGE(3*E11,F11,G11,H11,I11)</f>
+        <v>11.8</v>
+      </c>
+      <c r="E11" s="86">
         <f>POINTS!H30</f>
+        <v>8</v>
+      </c>
+      <c r="F11" s="86">
+        <f>POINTS!I30</f>
         <v>7</v>
       </c>
-      <c r="F8" s="86">
-        <f>POINTS!I30</f>
-        <v>6</v>
-      </c>
-      <c r="G8" s="86">
+      <c r="G11" s="86">
         <f>POINTS!J30</f>
         <v>6</v>
       </c>
-      <c r="H8" s="86">
+      <c r="H11" s="86">
         <f>POINTS!K30</f>
-        <v>5</v>
-      </c>
-      <c r="I8" s="87">
+        <v>6</v>
+      </c>
+      <c r="I11" s="87">
         <f>POINTS!L30</f>
-        <v>7</v>
-      </c>
-      <c r="J8" s="79"/>
-    </row>
-    <row r="9" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="92" t="str">
-        <f>POINTS!B16</f>
-        <v>Team Force</v>
-      </c>
-      <c r="C9" s="71">
-        <f>RANK(D9,$D$3:$D$16,1)</f>
-        <v>6</v>
-      </c>
-      <c r="D9" s="85">
-        <f>AVERAGE(3*E9,F9,G9,H9,I9)</f>
-        <v>9</v>
-      </c>
-      <c r="E9" s="86">
-        <f>POINTS!H35</f>
-        <v>2</v>
-      </c>
-      <c r="F9" s="86">
-        <f>POINTS!I35</f>
-        <v>10</v>
-      </c>
-      <c r="G9" s="86">
-        <f>POINTS!J35</f>
-        <v>10</v>
-      </c>
-      <c r="H9" s="86">
-        <f>POINTS!K35</f>
-        <v>10</v>
-      </c>
-      <c r="I9" s="87">
-        <f>POINTS!L35</f>
-        <v>9</v>
-      </c>
-      <c r="J9" s="79"/>
-    </row>
-    <row r="10" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="92" t="str">
-        <f>POINTS!B8</f>
-        <v>Deflate Deez Nutz</v>
-      </c>
-      <c r="C10" s="71">
-        <f>RANK(D10,$D$3:$D$16,1)</f>
-        <v>8</v>
-      </c>
-      <c r="D10" s="85">
-        <f>AVERAGE(3*E10,F10,G10,H10,I10)</f>
-        <v>10</v>
-      </c>
-      <c r="E10" s="86">
-        <f>POINTS!H27</f>
-        <v>6</v>
-      </c>
-      <c r="F10" s="86">
-        <f>POINTS!I27</f>
-        <v>5</v>
-      </c>
-      <c r="G10" s="86">
-        <f>POINTS!J27</f>
-        <v>8</v>
-      </c>
-      <c r="H10" s="86">
-        <f>POINTS!K27</f>
-        <v>9</v>
-      </c>
-      <c r="I10" s="87">
-        <f>POINTS!L27</f>
-        <v>10</v>
-      </c>
-      <c r="J10" s="79"/>
-    </row>
-    <row r="11" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B11" s="92" t="str">
-        <f>POINTS!B10</f>
-        <v>Team Wasserman</v>
-      </c>
-      <c r="C11" s="71">
-        <f>RANK(D11,$D$3:$D$16,1)</f>
-        <v>9</v>
-      </c>
-      <c r="D11" s="85">
-        <f>AVERAGE(3*E11,F11,G11,H11,I11)</f>
-        <v>10.6</v>
-      </c>
-      <c r="E11" s="86">
-        <f>POINTS!H29</f>
-        <v>13</v>
-      </c>
-      <c r="F11" s="86">
-        <f>POINTS!I29</f>
-        <v>4</v>
-      </c>
-      <c r="G11" s="86">
-        <f>POINTS!J29</f>
-        <v>3</v>
-      </c>
-      <c r="H11" s="86">
-        <f>POINTS!K29</f>
-        <v>3</v>
-      </c>
-      <c r="I11" s="87">
-        <f>POINTS!L29</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J11" s="79"/>
     </row>
@@ -7497,7 +7494,7 @@
       </c>
       <c r="D12" s="85">
         <f>AVERAGE(3*E12,F12,G12,H12,I12)</f>
-        <v>12.2</v>
+        <v>13</v>
       </c>
       <c r="E12" s="86">
         <f>POINTS!H25</f>
@@ -7505,19 +7502,19 @@
       </c>
       <c r="F12" s="86">
         <f>POINTS!I25</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G12" s="86">
         <f>POINTS!J25</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H12" s="86">
         <f>POINTS!K25</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I12" s="87">
         <f>POINTS!L25</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J12" s="79"/>
     </row>
@@ -7532,15 +7529,15 @@
       </c>
       <c r="D13" s="85">
         <f>AVERAGE(3*E13,F13,G13,H13,I13)</f>
-        <v>12.8</v>
+        <v>14.8</v>
       </c>
       <c r="E13" s="86">
         <f>POINTS!H26</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F13" s="86">
         <f>POINTS!I26</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" s="86">
         <f>POINTS!J26</f>
@@ -7552,7 +7549,7 @@
       </c>
       <c r="I13" s="87">
         <f>POINTS!L26</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J13" s="79"/>
     </row>
@@ -7563,11 +7560,11 @@
       </c>
       <c r="C14" s="71">
         <f>RANK(D14,$D$3:$D$16,1)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D14" s="85">
         <f>AVERAGE(3*E14,F14,G14,H14,I14)</f>
-        <v>12.8</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E14" s="86">
         <f>POINTS!H34</f>
@@ -7575,19 +7572,19 @@
       </c>
       <c r="F14" s="86">
         <f>POINTS!I34</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G14" s="86">
         <f>POINTS!J34</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H14" s="86">
         <f>POINTS!K34</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I14" s="87">
         <f>POINTS!L34</f>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J14" s="79"/>
     </row>
@@ -7598,15 +7595,15 @@
       </c>
       <c r="C15" s="71">
         <f>RANK(D15,$D$3:$D$16,1)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="85">
         <f>AVERAGE(3*E15,F15,G15,H15,I15)</f>
-        <v>14.8</v>
+        <v>15.8</v>
       </c>
       <c r="E15" s="86">
         <f>POINTS!H23</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F15" s="86">
         <f>POINTS!I23</f>
@@ -7622,7 +7619,7 @@
       </c>
       <c r="I15" s="87">
         <f>POINTS!L23</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J15" s="79"/>
     </row>
@@ -7637,15 +7634,15 @@
       </c>
       <c r="D16" s="88">
         <f>AVERAGE(3*E16,F16,G16,H16,I16)</f>
-        <v>18.8</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E16" s="89">
         <f>POINTS!H24</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="89">
         <f>POINTS!I24</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" s="89">
         <f>POINTS!J24</f>
@@ -7657,7 +7654,7 @@
       </c>
       <c r="I16" s="90">
         <f>POINTS!L24</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J16" s="80"/>
     </row>
@@ -7729,7 +7726,7 @@
       </c>
       <c r="D3" s="82">
         <f t="shared" ref="D3:D14" si="1">AVERAGE(3*E3,F3,G3,H3,I3)</f>
-        <v>1.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E3" s="83">
         <f>POINTS!H22</f>
@@ -7749,7 +7746,7 @@
       </c>
       <c r="I3" s="84">
         <f>POINTS!L22</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J3" s="78"/>
     </row>
@@ -7764,11 +7761,11 @@
       </c>
       <c r="D4" s="85">
         <f t="shared" si="1"/>
-        <v>14.8</v>
+        <v>15.8</v>
       </c>
       <c r="E4" s="86">
         <f>POINTS!H23</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="86">
         <f>POINTS!I23</f>
@@ -7784,7 +7781,7 @@
       </c>
       <c r="I4" s="87">
         <f>POINTS!L23</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J4" s="79"/>
     </row>
@@ -7799,15 +7796,15 @@
       </c>
       <c r="D5" s="85">
         <f t="shared" si="1"/>
-        <v>18.8</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E5" s="86">
         <f>POINTS!H24</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="86">
         <f>POINTS!I24</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="86">
         <f>POINTS!J24</f>
@@ -7819,7 +7816,7 @@
       </c>
       <c r="I5" s="87">
         <f>POINTS!L24</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J5" s="79"/>
     </row>
@@ -7834,7 +7831,7 @@
       </c>
       <c r="D6" s="85">
         <f t="shared" si="1"/>
-        <v>12.2</v>
+        <v>13</v>
       </c>
       <c r="E6" s="86">
         <f>POINTS!H25</f>
@@ -7842,19 +7839,19 @@
       </c>
       <c r="F6" s="86">
         <f>POINTS!I25</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G6" s="86">
         <f>POINTS!J25</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H6" s="86">
         <f>POINTS!K25</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I6" s="87">
         <f>POINTS!L25</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J6" s="79"/>
     </row>
@@ -7869,15 +7866,15 @@
       </c>
       <c r="D7" s="85">
         <f t="shared" si="1"/>
-        <v>12.8</v>
+        <v>14.8</v>
       </c>
       <c r="E7" s="86">
         <f>POINTS!H26</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="86">
         <f>POINTS!I26</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="86">
         <f>POINTS!J26</f>
@@ -7889,7 +7886,7 @@
       </c>
       <c r="I7" s="87">
         <f>POINTS!L26</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J7" s="79"/>
     </row>
@@ -7900,19 +7897,19 @@
       </c>
       <c r="C8" s="71">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8" s="85">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E8" s="86">
         <f>POINTS!H27</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F8" s="86">
         <f>POINTS!I27</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G8" s="86">
         <f>POINTS!J27</f>
@@ -7920,11 +7917,11 @@
       </c>
       <c r="H8" s="86">
         <f>POINTS!K27</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I8" s="87">
         <f>POINTS!L27</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J8" s="79"/>
     </row>
@@ -7935,19 +7932,19 @@
       </c>
       <c r="C9" s="71">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="85">
         <f t="shared" si="1"/>
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
       <c r="E9" s="86">
         <f>POINTS!H28</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" s="86">
         <f>POINTS!I28</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" s="86">
         <f>POINTS!J28</f>
@@ -7959,7 +7956,7 @@
       </c>
       <c r="I9" s="87">
         <f>POINTS!L28</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J9" s="79"/>
     </row>
@@ -7974,11 +7971,11 @@
       </c>
       <c r="D10" s="85">
         <f t="shared" si="1"/>
-        <v>10.6</v>
+        <v>12</v>
       </c>
       <c r="E10" s="86">
         <f>POINTS!H29</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="86">
         <f>POINTS!I29</f>
@@ -7986,15 +7983,15 @@
       </c>
       <c r="G10" s="86">
         <f>POINTS!J29</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H10" s="86">
         <f>POINTS!K29</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" s="87">
         <f>POINTS!L29</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J10" s="79"/>
     </row>
@@ -8005,19 +8002,19 @@
       </c>
       <c r="C11" s="71">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" s="85">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11.8</v>
       </c>
       <c r="E11" s="86">
         <f>POINTS!H30</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="86">
         <f>POINTS!I30</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G11" s="86">
         <f>POINTS!J30</f>
@@ -8025,11 +8022,11 @@
       </c>
       <c r="H11" s="86">
         <f>POINTS!K30</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I11" s="87">
         <f>POINTS!L30</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J11" s="79"/>
     </row>
@@ -8040,31 +8037,31 @@
       </c>
       <c r="C12" s="71">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D12" s="85">
         <f t="shared" si="1"/>
-        <v>7.4</v>
+        <v>11</v>
       </c>
       <c r="E12" s="86">
         <f>POINTS!H31</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F12" s="86">
         <f>POINTS!I31</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G12" s="86">
         <f>POINTS!J31</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12" s="86">
         <f>POINTS!K31</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I12" s="87">
         <f>POINTS!L31</f>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J12" s="79"/>
     </row>
@@ -8079,11 +8076,11 @@
       </c>
       <c r="D13" s="85">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E13" s="86">
         <f>POINTS!H32</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" s="86">
         <f>POINTS!I32</f>
@@ -8099,7 +8096,7 @@
       </c>
       <c r="I13" s="87">
         <f>POINTS!L32</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J13" s="79"/>
     </row>
@@ -8110,11 +8107,11 @@
       </c>
       <c r="C14" s="72">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="88">
         <f t="shared" si="1"/>
-        <v>5.2</v>
+        <v>6.6</v>
       </c>
       <c r="E14" s="89">
         <f>POINTS!H33</f>
@@ -8122,19 +8119,19 @@
       </c>
       <c r="F14" s="89">
         <f>POINTS!I33</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G14" s="89">
         <f>POINTS!J33</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H14" s="89">
         <f>POINTS!K33</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I14" s="90">
         <f>POINTS!L33</f>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J14" s="80"/>
     </row>
@@ -8206,7 +8203,7 @@
       </c>
       <c r="D3" s="83">
         <f t="shared" ref="D3:D12" si="1">AVERAGE(3*E3,F3,G3,H3,I3)</f>
-        <v>1.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E3" s="83">
         <f>POINTS!H22</f>
@@ -8226,7 +8223,7 @@
       </c>
       <c r="I3" s="83">
         <f>POINTS!L22</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J3" s="73"/>
     </row>
@@ -8241,11 +8238,11 @@
       </c>
       <c r="D4" s="86">
         <f t="shared" si="1"/>
-        <v>14.8</v>
+        <v>15.8</v>
       </c>
       <c r="E4" s="86">
         <f>POINTS!H23</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="86">
         <f>POINTS!I23</f>
@@ -8261,7 +8258,7 @@
       </c>
       <c r="I4" s="86">
         <f>POINTS!L23</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J4" s="74"/>
     </row>
@@ -8276,15 +8273,15 @@
       </c>
       <c r="D5" s="86">
         <f t="shared" si="1"/>
-        <v>18.8</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E5" s="86">
         <f>POINTS!H24</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="86">
         <f>POINTS!I24</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="86">
         <f>POINTS!J24</f>
@@ -8296,7 +8293,7 @@
       </c>
       <c r="I5" s="86">
         <f>POINTS!L24</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J5" s="74"/>
     </row>
@@ -8311,7 +8308,7 @@
       </c>
       <c r="D6" s="86">
         <f t="shared" si="1"/>
-        <v>12.2</v>
+        <v>13</v>
       </c>
       <c r="E6" s="86">
         <f>POINTS!H25</f>
@@ -8319,19 +8316,19 @@
       </c>
       <c r="F6" s="86">
         <f>POINTS!I25</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G6" s="86">
         <f>POINTS!J25</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H6" s="86">
         <f>POINTS!K25</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I6" s="86">
         <f>POINTS!L25</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J6" s="74"/>
     </row>
@@ -8346,15 +8343,15 @@
       </c>
       <c r="D7" s="86">
         <f t="shared" si="1"/>
-        <v>12.8</v>
+        <v>14.8</v>
       </c>
       <c r="E7" s="86">
         <f>POINTS!H26</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="86">
         <f>POINTS!I26</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="86">
         <f>POINTS!J26</f>
@@ -8366,7 +8363,7 @@
       </c>
       <c r="I7" s="86">
         <f>POINTS!L26</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J7" s="74"/>
     </row>
@@ -8377,19 +8374,19 @@
       </c>
       <c r="C8" s="97">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" s="86">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E8" s="86">
         <f>POINTS!H27</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F8" s="86">
         <f>POINTS!I27</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G8" s="86">
         <f>POINTS!J27</f>
@@ -8397,11 +8394,11 @@
       </c>
       <c r="H8" s="86">
         <f>POINTS!K27</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I8" s="86">
         <f>POINTS!L27</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J8" s="74"/>
     </row>
@@ -8416,15 +8413,15 @@
       </c>
       <c r="D9" s="86">
         <f t="shared" si="1"/>
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
       <c r="E9" s="86">
         <f>POINTS!H28</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" s="86">
         <f>POINTS!I28</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" s="86">
         <f>POINTS!J28</f>
@@ -8436,7 +8433,7 @@
       </c>
       <c r="I9" s="86">
         <f>POINTS!L28</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J9" s="74"/>
     </row>
@@ -8451,11 +8448,11 @@
       </c>
       <c r="D10" s="86">
         <f t="shared" si="1"/>
-        <v>10.6</v>
+        <v>12</v>
       </c>
       <c r="E10" s="86">
         <f>POINTS!H29</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="86">
         <f>POINTS!I29</f>
@@ -8463,15 +8460,15 @@
       </c>
       <c r="G10" s="86">
         <f>POINTS!J29</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H10" s="86">
         <f>POINTS!K29</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" s="86">
         <f>POINTS!L29</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J10" s="74"/>
     </row>
@@ -8482,19 +8479,19 @@
       </c>
       <c r="C11" s="97">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="86">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11.8</v>
       </c>
       <c r="E11" s="86">
         <f>POINTS!H30</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="86">
         <f>POINTS!I30</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G11" s="86">
         <f>POINTS!J30</f>
@@ -8502,11 +8499,11 @@
       </c>
       <c r="H11" s="86">
         <f>POINTS!K30</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I11" s="86">
         <f>POINTS!L30</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J11" s="74"/>
     </row>
@@ -8517,31 +8514,31 @@
       </c>
       <c r="C12" s="99">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="89">
         <f t="shared" si="1"/>
-        <v>7.4</v>
+        <v>11</v>
       </c>
       <c r="E12" s="89">
         <f>POINTS!H31</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F12" s="89">
         <f>POINTS!I31</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G12" s="89">
         <f>POINTS!J31</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12" s="89">
         <f>POINTS!K31</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I12" s="89">
         <f>POINTS!L31</f>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J12" s="75"/>
     </row>
@@ -8613,7 +8610,7 @@
       </c>
       <c r="D3" s="82">
         <f t="shared" ref="D3:D10" si="1">AVERAGE(3*E3,F3,G3,H3,I3)</f>
-        <v>1.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E3" s="83">
         <f>POINTS!H22</f>
@@ -8633,7 +8630,7 @@
       </c>
       <c r="I3" s="84">
         <f>POINTS!L22</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J3" s="78"/>
     </row>
@@ -8648,11 +8645,11 @@
       </c>
       <c r="D4" s="85">
         <f t="shared" si="1"/>
-        <v>14.8</v>
+        <v>15.8</v>
       </c>
       <c r="E4" s="86">
         <f>POINTS!H23</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="86">
         <f>POINTS!I23</f>
@@ -8668,7 +8665,7 @@
       </c>
       <c r="I4" s="87">
         <f>POINTS!L23</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J4" s="79"/>
     </row>
@@ -8683,15 +8680,15 @@
       </c>
       <c r="D5" s="85">
         <f t="shared" si="1"/>
-        <v>18.8</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E5" s="86">
         <f>POINTS!H24</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="86">
         <f>POINTS!I24</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="86">
         <f>POINTS!J24</f>
@@ -8703,7 +8700,7 @@
       </c>
       <c r="I5" s="87">
         <f>POINTS!L24</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J5" s="79"/>
     </row>
@@ -8718,7 +8715,7 @@
       </c>
       <c r="D6" s="85">
         <f t="shared" si="1"/>
-        <v>12.2</v>
+        <v>13</v>
       </c>
       <c r="E6" s="86">
         <f>POINTS!H25</f>
@@ -8726,19 +8723,19 @@
       </c>
       <c r="F6" s="86">
         <f>POINTS!I25</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G6" s="86">
         <f>POINTS!J25</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H6" s="86">
         <f>POINTS!K25</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I6" s="87">
         <f>POINTS!L25</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J6" s="79"/>
     </row>
@@ -8753,15 +8750,15 @@
       </c>
       <c r="D7" s="85">
         <f t="shared" si="1"/>
-        <v>12.8</v>
+        <v>14.8</v>
       </c>
       <c r="E7" s="86">
         <f>POINTS!H26</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="86">
         <f>POINTS!I26</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="86">
         <f>POINTS!J26</f>
@@ -8773,7 +8770,7 @@
       </c>
       <c r="I7" s="87">
         <f>POINTS!L26</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J7" s="79"/>
     </row>
@@ -8788,15 +8785,15 @@
       </c>
       <c r="D8" s="85">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E8" s="86">
         <f>POINTS!H27</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F8" s="86">
         <f>POINTS!I27</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G8" s="86">
         <f>POINTS!J27</f>
@@ -8804,11 +8801,11 @@
       </c>
       <c r="H8" s="86">
         <f>POINTS!K27</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I8" s="87">
         <f>POINTS!L27</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J8" s="79"/>
     </row>
@@ -8823,15 +8820,15 @@
       </c>
       <c r="D9" s="85">
         <f t="shared" si="1"/>
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
       <c r="E9" s="86">
         <f>POINTS!H28</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" s="86">
         <f>POINTS!I28</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" s="86">
         <f>POINTS!J28</f>
@@ -8843,7 +8840,7 @@
       </c>
       <c r="I9" s="87">
         <f>POINTS!L28</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J9" s="79"/>
     </row>
@@ -8858,11 +8855,11 @@
       </c>
       <c r="D10" s="88">
         <f t="shared" si="1"/>
-        <v>10.6</v>
+        <v>12</v>
       </c>
       <c r="E10" s="89">
         <f>POINTS!H29</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="89">
         <f>POINTS!I29</f>
@@ -8870,15 +8867,15 @@
       </c>
       <c r="G10" s="89">
         <f>POINTS!J29</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H10" s="89">
         <f>POINTS!K29</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" s="90">
         <f>POINTS!L29</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J10" s="80"/>
     </row>

--- a/Power Rankings.xlsx
+++ b/Power Rankings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="225" windowWidth="15300" windowHeight="5955" tabRatio="632" activeTab="2"/>
+    <workbookView xWindow="315" yWindow="225" windowWidth="15300" windowHeight="5955" tabRatio="632"/>
   </bookViews>
   <sheets>
     <sheet name="POINTS" sheetId="2" r:id="rId1"/>
@@ -3174,7 +3174,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="rankings3" displayName="rankings3" ref="B2:J16" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="B2:J16"/>
   <sortState ref="B3:J16">
-    <sortCondition ref="C2:C16"/>
+    <sortCondition ref="D2:D16"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" name="TEAM NAME" dataDxfId="41">
@@ -3607,8 +3607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3616,7 +3616,8 @@
     <col min="1" max="1" width="7.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" style="2" customWidth="1"/>
     <col min="3" max="15" width="5.7109375" style="2" customWidth="1"/>
-    <col min="16" max="17" width="8.7109375" style="2"/>
+    <col min="16" max="16" width="11.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" style="2"/>
     <col min="18" max="19" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="8.7109375" style="2"/>
@@ -3780,18 +3781,20 @@
       <c r="J3" s="36">
         <v>93.7</v>
       </c>
-      <c r="K3" s="36"/>
+      <c r="K3" s="36">
+        <v>128.30000000000001</v>
+      </c>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="7"/>
       <c r="O3" s="8"/>
       <c r="P3" s="12">
         <f>SUM(C3:O3)</f>
-        <v>907.1</v>
+        <v>1035.4000000000001</v>
       </c>
       <c r="Q3" s="12">
         <f>AVERAGE(C3:O3)</f>
-        <v>113.3875</v>
+        <v>115.04444444444445</v>
       </c>
       <c r="R3" s="13">
         <f>MAX(C3:O3)</f>
@@ -3803,7 +3806,7 @@
       </c>
       <c r="T3" s="13">
         <f>STDEV(C3:O3)</f>
-        <v>14.214925506060826</v>
+        <v>14.195607693148492</v>
       </c>
       <c r="W3" s="52">
         <f>IF(C3="","",RANK(C3,$C$3:$C$18,1))</f>
@@ -3837,9 +3840,9 @@
         <f>IF(J3="","",RANK(J3,$J$3:$J$18,1))</f>
         <v>5</v>
       </c>
-      <c r="AE3" s="53" t="str">
+      <c r="AE3" s="53">
         <f>IF(K3="","",RANK(K3,$K$3:$K$18,1))</f>
-        <v/>
+        <v>12</v>
       </c>
       <c r="AF3" s="53" t="str">
         <f>IF(L3="","",RANK(L3,$L$3:$L$18,1))</f>
@@ -3859,7 +3862,7 @@
       </c>
       <c r="AJ3" s="42">
         <f>SUM(W3:AI3)</f>
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3893,18 +3896,20 @@
       <c r="J4" s="34">
         <v>81.5</v>
       </c>
-      <c r="K4" s="34"/>
+      <c r="K4" s="34">
+        <v>105.4</v>
+      </c>
       <c r="L4" s="34"/>
       <c r="M4" s="34"/>
       <c r="N4" s="34"/>
       <c r="O4" s="9"/>
       <c r="P4" s="14">
         <f t="shared" ref="P4:P18" si="0">SUM(C4:O4)</f>
-        <v>704.5</v>
+        <v>809.9</v>
       </c>
       <c r="Q4" s="14">
         <f t="shared" ref="Q4:Q18" si="1">AVERAGE(C4:O4)</f>
-        <v>88.0625</v>
+        <v>89.98888888888888</v>
       </c>
       <c r="R4" s="15">
         <f t="shared" ref="R4:R18" si="2">MAX(C4:O4)</f>
@@ -3916,7 +3921,7 @@
       </c>
       <c r="T4" s="15">
         <f t="shared" ref="T4:T18" si="4">STDEV(C4:O4)</f>
-        <v>25.149605932726441</v>
+        <v>24.224752034047988</v>
       </c>
       <c r="W4" s="55">
         <f t="shared" ref="W4:W18" si="5">IF(C4="","",RANK(C4,$C$3:$C$18,1))</f>
@@ -3950,9 +3955,9 @@
         <f t="shared" ref="AD4:AD18" si="12">IF(J4="","",RANK(J4,$J$3:$J$18,1))</f>
         <v>1</v>
       </c>
-      <c r="AE4" s="56" t="str">
+      <c r="AE4" s="56">
         <f t="shared" ref="AE4:AE18" si="13">IF(K4="","",RANK(K4,$K$3:$K$18,1))</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="AF4" s="56" t="str">
         <f t="shared" ref="AF4:AF18" si="14">IF(L4="","",RANK(L4,$L$3:$L$18,1))</f>
@@ -3972,7 +3977,7 @@
       </c>
       <c r="AJ4" s="43">
         <f t="shared" ref="AJ4:AJ18" si="18">SUM(W4:AI4)</f>
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4006,18 +4011,20 @@
       <c r="J5" s="36">
         <v>106.7</v>
       </c>
-      <c r="K5" s="36"/>
+      <c r="K5" s="36">
+        <v>76.2</v>
+      </c>
       <c r="L5" s="36"/>
       <c r="M5" s="36"/>
       <c r="N5" s="36"/>
       <c r="O5" s="8"/>
       <c r="P5" s="16">
         <f t="shared" si="0"/>
-        <v>666.10000000000014</v>
+        <v>742.30000000000018</v>
       </c>
       <c r="Q5" s="16">
         <f t="shared" si="1"/>
-        <v>83.262500000000017</v>
+        <v>82.477777777777803</v>
       </c>
       <c r="R5" s="17">
         <f t="shared" si="2"/>
@@ -4029,7 +4036,7 @@
       </c>
       <c r="T5" s="17">
         <f t="shared" si="4"/>
-        <v>16.966768991177918</v>
+        <v>16.044607955460965</v>
       </c>
       <c r="W5" s="55">
         <f t="shared" si="5"/>
@@ -4063,9 +4070,9 @@
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
-      <c r="AE5" s="56" t="str">
+      <c r="AE5" s="56">
         <f t="shared" si="13"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="AF5" s="56" t="str">
         <f t="shared" si="14"/>
@@ -4085,7 +4092,7 @@
       </c>
       <c r="AJ5" s="43">
         <f t="shared" si="18"/>
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4119,18 +4126,20 @@
       <c r="J6" s="36">
         <v>119.2</v>
       </c>
-      <c r="K6" s="36"/>
+      <c r="K6" s="36">
+        <v>101.2</v>
+      </c>
       <c r="L6" s="34"/>
       <c r="M6" s="34"/>
       <c r="N6" s="34"/>
       <c r="O6" s="9"/>
       <c r="P6" s="14">
         <f t="shared" si="0"/>
-        <v>781.30000000000007</v>
+        <v>882.50000000000011</v>
       </c>
       <c r="Q6" s="14">
         <f t="shared" si="1"/>
-        <v>97.662500000000009</v>
+        <v>98.055555555555571</v>
       </c>
       <c r="R6" s="15">
         <f t="shared" si="2"/>
@@ -4142,7 +4151,7 @@
       </c>
       <c r="T6" s="15">
         <f t="shared" si="4"/>
-        <v>17.360705836539488</v>
+        <v>16.28220739880727</v>
       </c>
       <c r="W6" s="55">
         <f t="shared" si="5"/>
@@ -4176,9 +4185,9 @@
         <f t="shared" si="12"/>
         <v>14</v>
       </c>
-      <c r="AE6" s="56" t="str">
+      <c r="AE6" s="56">
         <f t="shared" si="13"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="AF6" s="56" t="str">
         <f t="shared" si="14"/>
@@ -4198,7 +4207,7 @@
       </c>
       <c r="AJ6" s="43">
         <f t="shared" si="18"/>
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4232,18 +4241,20 @@
       <c r="J7" s="34">
         <v>117.6</v>
       </c>
-      <c r="K7" s="34"/>
+      <c r="K7" s="34">
+        <v>93.6</v>
+      </c>
       <c r="L7" s="36"/>
       <c r="M7" s="36"/>
       <c r="N7" s="36"/>
       <c r="O7" s="8"/>
       <c r="P7" s="16">
         <f t="shared" si="0"/>
-        <v>767.60000000000014</v>
+        <v>861.20000000000016</v>
       </c>
       <c r="Q7" s="16">
         <f t="shared" si="1"/>
-        <v>95.950000000000017</v>
+        <v>95.688888888888911</v>
       </c>
       <c r="R7" s="17">
         <f t="shared" si="2"/>
@@ -4255,7 +4266,7 @@
       </c>
       <c r="T7" s="17">
         <f t="shared" si="4"/>
-        <v>24.084197545871582</v>
+        <v>22.542318228414441</v>
       </c>
       <c r="W7" s="55">
         <f t="shared" si="5"/>
@@ -4289,9 +4300,9 @@
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
-      <c r="AE7" s="56" t="str">
+      <c r="AE7" s="56">
         <f t="shared" si="13"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="AF7" s="56" t="str">
         <f t="shared" si="14"/>
@@ -4311,7 +4322,7 @@
       </c>
       <c r="AJ7" s="43">
         <f t="shared" si="18"/>
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4345,22 +4356,24 @@
       <c r="J8" s="36">
         <v>118.2</v>
       </c>
-      <c r="K8" s="36"/>
+      <c r="K8" s="36">
+        <v>135.5</v>
+      </c>
       <c r="L8" s="34"/>
       <c r="M8" s="34"/>
       <c r="N8" s="34"/>
       <c r="O8" s="9"/>
       <c r="P8" s="14">
         <f t="shared" si="0"/>
-        <v>805.3</v>
+        <v>940.8</v>
       </c>
       <c r="Q8" s="14">
         <f t="shared" si="1"/>
-        <v>100.66249999999999</v>
+        <v>104.53333333333333</v>
       </c>
       <c r="R8" s="15">
         <f t="shared" si="2"/>
-        <v>124.9</v>
+        <v>135.5</v>
       </c>
       <c r="S8" s="15">
         <f t="shared" si="3"/>
@@ -4368,7 +4381,7 @@
       </c>
       <c r="T8" s="15">
         <f t="shared" si="4"/>
-        <v>23.12808666658664</v>
+        <v>24.553920257262391</v>
       </c>
       <c r="W8" s="55">
         <f t="shared" si="5"/>
@@ -4402,9 +4415,9 @@
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="AE8" s="56" t="str">
+      <c r="AE8" s="56">
         <f t="shared" si="13"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="AF8" s="56" t="str">
         <f t="shared" si="14"/>
@@ -4424,7 +4437,7 @@
       </c>
       <c r="AJ8" s="43">
         <f t="shared" si="18"/>
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4458,18 +4471,20 @@
       <c r="J9" s="36">
         <v>93.4</v>
       </c>
-      <c r="K9" s="36"/>
+      <c r="K9" s="36">
+        <v>124.2</v>
+      </c>
       <c r="L9" s="36"/>
       <c r="M9" s="36"/>
       <c r="N9" s="36"/>
       <c r="O9" s="8"/>
       <c r="P9" s="16">
         <f t="shared" si="0"/>
-        <v>875.7</v>
+        <v>999.90000000000009</v>
       </c>
       <c r="Q9" s="16">
         <f t="shared" si="1"/>
-        <v>109.46250000000001</v>
+        <v>111.10000000000001</v>
       </c>
       <c r="R9" s="17">
         <f t="shared" si="2"/>
@@ -4481,7 +4496,7 @@
       </c>
       <c r="T9" s="17">
         <f t="shared" si="4"/>
-        <v>28.090513777531967</v>
+        <v>26.731535683533014</v>
       </c>
       <c r="W9" s="55">
         <f t="shared" si="5"/>
@@ -4515,9 +4530,9 @@
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="AE9" s="56" t="str">
+      <c r="AE9" s="56">
         <f t="shared" si="13"/>
-        <v/>
+        <v>11</v>
       </c>
       <c r="AF9" s="56" t="str">
         <f t="shared" si="14"/>
@@ -4537,7 +4552,7 @@
       </c>
       <c r="AJ9" s="43">
         <f t="shared" si="18"/>
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4571,18 +4586,20 @@
       <c r="J10" s="34">
         <v>94.3</v>
       </c>
-      <c r="K10" s="34"/>
+      <c r="K10" s="34">
+        <v>73.2</v>
+      </c>
       <c r="L10" s="34"/>
       <c r="M10" s="34"/>
       <c r="N10" s="34"/>
       <c r="O10" s="9"/>
       <c r="P10" s="14">
         <f t="shared" si="0"/>
-        <v>828.3</v>
+        <v>901.5</v>
       </c>
       <c r="Q10" s="14">
         <f t="shared" si="1"/>
-        <v>103.53749999999999</v>
+        <v>100.16666666666667</v>
       </c>
       <c r="R10" s="15">
         <f t="shared" si="2"/>
@@ -4590,11 +4607,11 @@
       </c>
       <c r="S10" s="15">
         <f t="shared" si="3"/>
-        <v>83.9</v>
+        <v>73.2</v>
       </c>
       <c r="T10" s="15">
         <f t="shared" si="4"/>
-        <v>15.274342398751235</v>
+        <v>17.504428011220547</v>
       </c>
       <c r="W10" s="55">
         <f t="shared" si="5"/>
@@ -4628,9 +4645,9 @@
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="AE10" s="56" t="str">
+      <c r="AE10" s="56">
         <f t="shared" si="13"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AF10" s="56" t="str">
         <f t="shared" si="14"/>
@@ -4650,7 +4667,7 @@
       </c>
       <c r="AJ10" s="43">
         <f t="shared" si="18"/>
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4684,18 +4701,20 @@
       <c r="J11" s="36">
         <v>99</v>
       </c>
-      <c r="K11" s="36"/>
+      <c r="K11" s="36">
+        <v>81.099999999999994</v>
+      </c>
       <c r="L11" s="36"/>
       <c r="M11" s="36"/>
       <c r="N11" s="36"/>
       <c r="O11" s="8"/>
       <c r="P11" s="16">
         <f t="shared" si="0"/>
-        <v>820.3</v>
+        <v>901.4</v>
       </c>
       <c r="Q11" s="16">
         <f t="shared" si="1"/>
-        <v>102.53749999999999</v>
+        <v>100.15555555555555</v>
       </c>
       <c r="R11" s="17">
         <f t="shared" si="2"/>
@@ -4707,7 +4726,7 @@
       </c>
       <c r="T11" s="17">
         <f t="shared" si="4"/>
-        <v>29.18404346311771</v>
+        <v>28.218925879235339</v>
       </c>
       <c r="W11" s="55">
         <f t="shared" si="5"/>
@@ -4741,9 +4760,9 @@
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="AE11" s="56" t="str">
+      <c r="AE11" s="56">
         <f t="shared" si="13"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="AF11" s="56" t="str">
         <f t="shared" si="14"/>
@@ -4763,7 +4782,7 @@
       </c>
       <c r="AJ11" s="43">
         <f t="shared" si="18"/>
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4797,18 +4816,20 @@
       <c r="J12" s="34">
         <v>92.8</v>
       </c>
-      <c r="K12" s="34"/>
+      <c r="K12" s="34">
+        <v>80.099999999999994</v>
+      </c>
       <c r="L12" s="34"/>
       <c r="M12" s="34"/>
       <c r="N12" s="34"/>
       <c r="O12" s="9"/>
       <c r="P12" s="14">
         <f t="shared" ref="P12:P17" si="19">SUM(C12:O12)</f>
-        <v>823</v>
+        <v>903.1</v>
       </c>
       <c r="Q12" s="14">
         <f t="shared" ref="Q12:Q17" si="20">AVERAGE(C12:O12)</f>
-        <v>102.875</v>
+        <v>100.34444444444445</v>
       </c>
       <c r="R12" s="15">
         <f t="shared" ref="R12:R17" si="21">MAX(C12:O12)</f>
@@ -4820,7 +4841,7 @@
       </c>
       <c r="T12" s="15">
         <f t="shared" ref="T12:T17" si="23">STDEV(C12:O12)</f>
-        <v>22.973882686961861</v>
+        <v>22.791616392388182</v>
       </c>
       <c r="W12" s="55">
         <f t="shared" si="5"/>
@@ -4854,9 +4875,9 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="AE12" s="56" t="str">
+      <c r="AE12" s="56">
         <f t="shared" si="13"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="AF12" s="56" t="str">
         <f t="shared" si="14"/>
@@ -4876,7 +4897,7 @@
       </c>
       <c r="AJ12" s="43">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4910,18 +4931,20 @@
       <c r="J13" s="36">
         <v>97.7</v>
       </c>
-      <c r="K13" s="36"/>
+      <c r="K13" s="36">
+        <v>70.8</v>
+      </c>
       <c r="L13" s="36"/>
       <c r="M13" s="36"/>
       <c r="N13" s="36"/>
       <c r="O13" s="8"/>
       <c r="P13" s="16">
         <f t="shared" si="19"/>
-        <v>805.60000000000014</v>
+        <v>876.40000000000009</v>
       </c>
       <c r="Q13" s="16">
         <f t="shared" si="20"/>
-        <v>100.70000000000002</v>
+        <v>97.377777777777794</v>
       </c>
       <c r="R13" s="17">
         <f t="shared" si="21"/>
@@ -4929,11 +4952,11 @@
       </c>
       <c r="S13" s="17">
         <f t="shared" si="22"/>
-        <v>79.7</v>
+        <v>70.8</v>
       </c>
       <c r="T13" s="17">
         <f t="shared" si="23"/>
-        <v>17.564818733560884</v>
+        <v>19.216970220210044</v>
       </c>
       <c r="W13" s="55">
         <f t="shared" si="5"/>
@@ -4967,9 +4990,9 @@
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="AE13" s="56" t="str">
+      <c r="AE13" s="56">
         <f t="shared" si="13"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AF13" s="56" t="str">
         <f t="shared" si="14"/>
@@ -4989,7 +5012,7 @@
       </c>
       <c r="AJ13" s="43">
         <f t="shared" si="18"/>
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5023,22 +5046,24 @@
       <c r="J14" s="34">
         <v>115.5</v>
       </c>
-      <c r="K14" s="34"/>
+      <c r="K14" s="34">
+        <v>136.5</v>
+      </c>
       <c r="L14" s="34"/>
       <c r="M14" s="34"/>
       <c r="N14" s="34"/>
       <c r="O14" s="9"/>
       <c r="P14" s="14">
         <f t="shared" si="19"/>
-        <v>830.8</v>
+        <v>967.3</v>
       </c>
       <c r="Q14" s="14">
         <f t="shared" si="20"/>
-        <v>103.85</v>
+        <v>107.47777777777777</v>
       </c>
       <c r="R14" s="15">
         <f t="shared" si="21"/>
-        <v>126.5</v>
+        <v>136.5</v>
       </c>
       <c r="S14" s="15">
         <f t="shared" si="22"/>
@@ -5046,7 +5071,7 @@
       </c>
       <c r="T14" s="15">
         <f t="shared" si="23"/>
-        <v>15.514509338035905</v>
+        <v>18.139995712360211</v>
       </c>
       <c r="W14" s="55">
         <f t="shared" si="5"/>
@@ -5080,9 +5105,9 @@
         <f t="shared" si="12"/>
         <v>11</v>
       </c>
-      <c r="AE14" s="56" t="str">
+      <c r="AE14" s="56">
         <f t="shared" si="13"/>
-        <v/>
+        <v>14</v>
       </c>
       <c r="AF14" s="56" t="str">
         <f t="shared" si="14"/>
@@ -5102,7 +5127,7 @@
       </c>
       <c r="AJ14" s="43">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5136,18 +5161,20 @@
       <c r="J15" s="36">
         <v>82.7</v>
       </c>
-      <c r="K15" s="36"/>
+      <c r="K15" s="36">
+        <v>95.8</v>
+      </c>
       <c r="L15" s="36"/>
       <c r="M15" s="36"/>
       <c r="N15" s="36"/>
       <c r="O15" s="8"/>
       <c r="P15" s="16">
         <f t="shared" si="19"/>
-        <v>770.20000000000016</v>
+        <v>866.00000000000011</v>
       </c>
       <c r="Q15" s="16">
         <f t="shared" si="20"/>
-        <v>96.27500000000002</v>
+        <v>96.222222222222229</v>
       </c>
       <c r="R15" s="17">
         <f t="shared" si="21"/>
@@ -5159,7 +5186,7 @@
       </c>
       <c r="T15" s="17">
         <f t="shared" si="23"/>
-        <v>13.510710037384444</v>
+        <v>12.639103783276779</v>
       </c>
       <c r="W15" s="55">
         <f t="shared" si="5"/>
@@ -5193,9 +5220,9 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="AE15" s="56" t="str">
+      <c r="AE15" s="56">
         <f t="shared" si="13"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="AF15" s="56" t="str">
         <f t="shared" si="14"/>
@@ -5215,7 +5242,7 @@
       </c>
       <c r="AJ15" s="43">
         <f t="shared" si="18"/>
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5249,18 +5276,20 @@
       <c r="J16" s="34">
         <v>107.2</v>
       </c>
-      <c r="K16" s="34"/>
+      <c r="K16" s="34">
+        <v>102.4</v>
+      </c>
       <c r="L16" s="34"/>
       <c r="M16" s="34"/>
       <c r="N16" s="34"/>
       <c r="O16" s="9"/>
       <c r="P16" s="14">
         <f t="shared" si="19"/>
-        <v>779.3</v>
+        <v>881.69999999999993</v>
       </c>
       <c r="Q16" s="14">
         <f t="shared" si="20"/>
-        <v>97.412499999999994</v>
+        <v>97.966666666666654</v>
       </c>
       <c r="R16" s="15">
         <f t="shared" si="21"/>
@@ -5272,7 +5301,7 @@
       </c>
       <c r="T16" s="15">
         <f t="shared" si="23"/>
-        <v>19.534616709830853</v>
+        <v>18.348433175614776</v>
       </c>
       <c r="W16" s="55">
         <f t="shared" si="5"/>
@@ -5306,9 +5335,9 @@
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="AE16" s="56" t="str">
+      <c r="AE16" s="56">
         <f t="shared" si="13"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="AF16" s="56" t="str">
         <f t="shared" si="14"/>
@@ -5328,7 +5357,7 @@
       </c>
       <c r="AJ16" s="43">
         <f t="shared" si="18"/>
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:41" ht="24" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5524,11 +5553,11 @@
     <row r="19" spans="1:41" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P19" s="11">
         <f>SUM(C3:O18)</f>
-        <v>11165.100000000002</v>
+        <v>12569.399999999998</v>
       </c>
       <c r="Q19" s="11">
         <f>AVERAGE(C3:O18)</f>
-        <v>99.688392857142873</v>
+        <v>99.757142857142838</v>
       </c>
       <c r="R19" s="18">
         <f>MAX(C3:O18)</f>
@@ -5540,7 +5569,7 @@
       </c>
       <c r="T19" s="18">
         <f>STDEV(C3:O18)</f>
-        <v>20.920694291683386</v>
+        <v>21.080787190506694</v>
       </c>
     </row>
     <row r="20" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -5595,21 +5624,23 @@
         <v>Spos Before Hos</v>
       </c>
       <c r="C22" s="21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22" s="46">
         <f>AJ3</f>
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E22" s="49">
         <f t="shared" ref="E22:E31" si="24">IF(D3="",-99,IF(T3=0,1,(Q3-$Q$19)/T3))</f>
-        <v>0.96371290422986977</v>
+        <v>1.0769036393334557</v>
       </c>
       <c r="F22" s="28">
         <f>IF(C3="",0,Q3)</f>
-        <v>113.3875</v>
-      </c>
-      <c r="G22" s="39"/>
+        <v>115.04444444444445</v>
+      </c>
+      <c r="G22" s="39">
+        <v>100</v>
+      </c>
       <c r="H22" s="22">
         <f>IF(C22="",16,RANK(C22,$C$22:$C$37,0))</f>
         <v>1</v>
@@ -5628,7 +5659,7 @@
       </c>
       <c r="L22" s="22">
         <f t="shared" ref="L22" si="25">IF(G22="",16,RANK(G22,$G$22:$G$37,0))</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N22" s="104"/>
       <c r="O22" s="104"/>
@@ -5646,24 +5677,26 @@
         <v>Little Miss Moffet</v>
       </c>
       <c r="C23" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" s="47">
         <f t="shared" ref="D23:D37" si="26">AJ4</f>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E23" s="50">
         <f t="shared" si="24"/>
-        <v>-0.46226938458763051</v>
+        <v>-0.40323442545560995</v>
       </c>
       <c r="F23" s="28">
         <f t="shared" ref="F23:F37" si="27">IF(C4="",0,Q4)</f>
-        <v>88.0625</v>
-      </c>
-      <c r="G23" s="40"/>
+        <v>89.98888888888888</v>
+      </c>
+      <c r="G23" s="40">
+        <v>85</v>
+      </c>
       <c r="H23" s="24">
         <f t="shared" ref="H23:H37" si="28">IF(C23="",16,RANK(C23,$C$22:$C$37,0))</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I23" s="24">
         <f t="shared" ref="I23:I37" si="29">IF(C23="",16,RANK(D23,$D$22:$D$37,0))</f>
@@ -5679,7 +5712,7 @@
       </c>
       <c r="L23" s="24">
         <f t="shared" ref="L23:L37" si="31">IF(G23="",16,RANK(G23,$G$22:$G$37,0))</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N23" s="30"/>
       <c r="O23" s="30"/>
@@ -5697,24 +5730,26 @@
       </c>
       <c r="D24" s="47">
         <f t="shared" si="26"/>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E24" s="50">
         <f t="shared" si="24"/>
-        <v>-0.9681214417243319</v>
+        <v>-1.0769577622171695</v>
       </c>
       <c r="F24" s="28">
         <f t="shared" si="27"/>
-        <v>83.262500000000017</v>
-      </c>
-      <c r="G24" s="40"/>
+        <v>82.477777777777803</v>
+      </c>
+      <c r="G24" s="40">
+        <v>85</v>
+      </c>
       <c r="H24" s="24">
         <f t="shared" si="28"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I24" s="24">
         <f t="shared" si="29"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J24" s="24">
         <f>RANK(E24,$E$22:$E39,0)</f>
@@ -5726,7 +5761,7 @@
       </c>
       <c r="L24" s="24">
         <f t="shared" si="31"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N24" s="104" t="s">
         <v>44</v>
@@ -5756,36 +5791,38 @@
       </c>
       <c r="D25" s="47">
         <f t="shared" si="26"/>
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E25" s="50">
         <f t="shared" si="24"/>
-        <v>-0.11669415265817819</v>
+        <v>-0.10450593460146654</v>
       </c>
       <c r="F25" s="28">
         <f t="shared" si="27"/>
-        <v>97.662500000000009</v>
-      </c>
-      <c r="G25" s="40"/>
+        <v>98.055555555555571</v>
+      </c>
+      <c r="G25" s="40">
+        <v>86</v>
+      </c>
       <c r="H25" s="24">
         <f t="shared" si="28"/>
         <v>7</v>
       </c>
       <c r="I25" s="24">
         <f t="shared" si="29"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J25" s="24">
         <f>RANK(E25,$E$22:$E40,0)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K25" s="24">
         <f t="shared" si="30"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L25" s="24">
         <f t="shared" si="31"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="N25" s="104"/>
       <c r="O25" s="104"/>
@@ -5813,24 +5850,26 @@
       </c>
       <c r="D26" s="47">
         <f t="shared" si="26"/>
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E26" s="50">
         <f t="shared" si="24"/>
-        <v>-0.15522181505207244</v>
+        <v>-0.1804718541825002</v>
       </c>
       <c r="F26" s="28">
         <f t="shared" si="27"/>
-        <v>95.950000000000017</v>
-      </c>
-      <c r="G26" s="40"/>
+        <v>95.688888888888911</v>
+      </c>
+      <c r="G26" s="40">
+        <v>95</v>
+      </c>
       <c r="H26" s="24">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I26" s="24">
         <f t="shared" si="29"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J26" s="24">
         <f>RANK(E26,$E$22:$E41,0)</f>
@@ -5842,7 +5881,7 @@
       </c>
       <c r="L26" s="24">
         <f t="shared" si="31"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="N26" s="30"/>
       <c r="O26" s="30"/>
@@ -5856,24 +5895,26 @@
         <v>Deflate Deez Nutz</v>
       </c>
       <c r="C27" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D27" s="47">
         <f t="shared" si="26"/>
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E27" s="50">
         <f t="shared" si="24"/>
-        <v>4.2117930328600131E-2</v>
+        <v>0.19451844862849646</v>
       </c>
       <c r="F27" s="28">
         <f t="shared" si="27"/>
-        <v>100.66249999999999</v>
-      </c>
-      <c r="G27" s="40"/>
+        <v>104.53333333333333</v>
+      </c>
+      <c r="G27" s="40">
+        <v>69</v>
+      </c>
       <c r="H27" s="24">
         <f t="shared" si="28"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I27" s="24">
         <f t="shared" si="29"/>
@@ -5881,15 +5922,15 @@
       </c>
       <c r="J27" s="24">
         <f>RANK(E27,$E$22:$E42,0)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K27" s="24">
         <f t="shared" si="30"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L27" s="24">
         <f t="shared" si="31"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N27" s="100" t="s">
         <v>45</v>
@@ -5909,32 +5950,34 @@
         <v>Team Gregory</v>
       </c>
       <c r="C28" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D28" s="47">
         <f t="shared" si="26"/>
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E28" s="50">
         <f t="shared" si="24"/>
-        <v>0.34795045830293414</v>
+        <v>0.42432493505580837</v>
       </c>
       <c r="F28" s="28">
         <f t="shared" si="27"/>
-        <v>109.46250000000001</v>
-      </c>
-      <c r="G28" s="40"/>
+        <v>111.10000000000001</v>
+      </c>
+      <c r="G28" s="40">
+        <v>98</v>
+      </c>
       <c r="H28" s="24">
         <f t="shared" si="28"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I28" s="24">
         <f t="shared" si="29"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J28" s="24">
         <f>RANK(E28,$E$22:$E43,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K28" s="24">
         <f t="shared" si="30"/>
@@ -5942,7 +5985,7 @@
       </c>
       <c r="L28" s="24">
         <f t="shared" si="31"/>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N28" s="100"/>
       <c r="O28" s="100"/>
@@ -5964,33 +6007,35 @@
       </c>
       <c r="D29" s="47">
         <f t="shared" si="26"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E29" s="50">
         <f t="shared" si="24"/>
-        <v>0.25199822305749858</v>
+        <v>2.3395440814251302E-2</v>
       </c>
       <c r="F29" s="28">
         <f t="shared" si="27"/>
-        <v>103.53749999999999</v>
-      </c>
-      <c r="G29" s="40"/>
+        <v>100.16666666666667</v>
+      </c>
+      <c r="G29" s="40">
+        <v>96</v>
+      </c>
       <c r="H29" s="24">
         <f t="shared" si="28"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I29" s="24">
         <f t="shared" si="29"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J29" s="24"/>
       <c r="K29" s="24">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L29" s="24">
         <f t="shared" si="31"/>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="N29" s="100"/>
       <c r="O29" s="100"/>
@@ -6008,24 +6053,26 @@
         <v>SFV Aguilar</v>
       </c>
       <c r="C30" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" s="47">
         <f t="shared" si="26"/>
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E30" s="50">
         <f t="shared" si="24"/>
-        <v>9.762551054509544E-2</v>
+        <v>1.4118634427041804E-2</v>
       </c>
       <c r="F30" s="28">
         <f t="shared" si="27"/>
-        <v>102.53749999999999</v>
-      </c>
-      <c r="G30" s="40"/>
+        <v>100.15555555555555</v>
+      </c>
+      <c r="G30" s="40">
+        <v>81</v>
+      </c>
       <c r="H30" s="24">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I30" s="24">
         <f t="shared" si="29"/>
@@ -6033,15 +6080,15 @@
       </c>
       <c r="J30" s="24">
         <f>RANK(E30,$E$22:$E45,0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K30" s="24">
         <f t="shared" si="30"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L30" s="24">
         <f t="shared" si="31"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N30" s="100"/>
       <c r="O30" s="100"/>
@@ -6063,20 +6110,22 @@
       </c>
       <c r="D31" s="47">
         <f t="shared" si="26"/>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E31" s="50">
         <f t="shared" si="24"/>
-        <v>0.13870564180540501</v>
+        <v>2.5768316612144886E-2</v>
       </c>
       <c r="F31" s="28">
         <f t="shared" si="27"/>
-        <v>102.875</v>
-      </c>
-      <c r="G31" s="40"/>
+        <v>100.34444444444445</v>
+      </c>
+      <c r="G31" s="40">
+        <v>68</v>
+      </c>
       <c r="H31" s="24">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I31" s="24">
         <f t="shared" si="29"/>
@@ -6092,7 +6141,7 @@
       </c>
       <c r="L31" s="24">
         <f t="shared" si="31"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N31" s="100"/>
       <c r="O31" s="100"/>
@@ -6114,36 +6163,38 @@
       </c>
       <c r="D32" s="47">
         <f t="shared" si="26"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E32" s="50">
         <f>IF(D13="",-99,IF(T13=0,1,(Q13-$Q$19)/T13))</f>
-        <v>5.7592802875003721E-2</v>
+        <v>-0.12381582799471276</v>
       </c>
       <c r="F32" s="28">
         <f t="shared" si="27"/>
-        <v>100.70000000000002</v>
-      </c>
-      <c r="G32" s="40"/>
+        <v>97.377777777777794</v>
+      </c>
+      <c r="G32" s="40">
+        <v>88</v>
+      </c>
       <c r="H32" s="24">
         <f t="shared" si="28"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I32" s="24">
         <f t="shared" si="29"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J32" s="24">
         <f>RANK(E32,$E$22:$E47,0)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K32" s="24">
         <f t="shared" si="30"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L32" s="24">
         <f t="shared" si="31"/>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="N32" s="77"/>
       <c r="O32" s="77"/>
@@ -6161,32 +6212,34 @@
         <v>Cool Hand Lou</v>
       </c>
       <c r="C33" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D33" s="47">
         <f t="shared" si="26"/>
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E33" s="50">
         <f t="shared" ref="E33:E37" si="32">IF(D14="",-99,IF(T14=0,1,(Q14-$Q$19)/T14))</f>
-        <v>0.26823968790649294</v>
+        <v>0.42561393304929274</v>
       </c>
       <c r="F33" s="28">
         <f t="shared" si="27"/>
-        <v>103.85</v>
-      </c>
-      <c r="G33" s="40"/>
+        <v>107.47777777777777</v>
+      </c>
+      <c r="G33" s="40">
+        <v>94</v>
+      </c>
       <c r="H33" s="24">
         <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="I33" s="24">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J33" s="24">
         <f>RANK(E33,$E$22:$E48,0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K33" s="24">
         <f t="shared" si="30"/>
@@ -6194,7 +6247,7 @@
       </c>
       <c r="L33" s="24">
         <f t="shared" si="31"/>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N33" s="100" t="s">
         <v>47</v>
@@ -6214,24 +6267,26 @@
         <v>Hebrew Wolves</v>
       </c>
       <c r="C34" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" s="47">
         <f t="shared" si="26"/>
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E34" s="50">
         <f t="shared" si="32"/>
-        <v>-0.25264348414686694</v>
+        <v>-0.27968127293944539</v>
       </c>
       <c r="F34" s="28">
         <f t="shared" si="27"/>
-        <v>96.27500000000002</v>
-      </c>
-      <c r="G34" s="40"/>
+        <v>96.222222222222229</v>
+      </c>
+      <c r="G34" s="40">
+        <v>87</v>
+      </c>
       <c r="H34" s="24">
         <f t="shared" si="28"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I34" s="24">
         <f t="shared" si="29"/>
@@ -6247,7 +6302,7 @@
       </c>
       <c r="L34" s="24">
         <f t="shared" si="31"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N34" s="100"/>
       <c r="O34" s="100"/>
@@ -6269,36 +6324,38 @@
       </c>
       <c r="D35" s="47">
         <f t="shared" si="26"/>
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E35" s="50">
         <f t="shared" si="32"/>
-        <v>-0.11650563156417236</v>
+        <v>-9.7581966445818499E-2</v>
       </c>
       <c r="F35" s="28">
         <f t="shared" si="27"/>
-        <v>97.412499999999994</v>
-      </c>
-      <c r="G35" s="40"/>
+        <v>97.966666666666654</v>
+      </c>
+      <c r="G35" s="40">
+        <v>94</v>
+      </c>
       <c r="H35" s="24">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I35" s="24">
         <f t="shared" si="29"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J35" s="24">
         <f>RANK(E35,$E$22:$E50,0)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K35" s="24">
         <f t="shared" si="30"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L35" s="24">
         <f t="shared" si="31"/>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N35" s="100"/>
       <c r="O35" s="100"/>
@@ -6559,7 +6616,7 @@
       </c>
       <c r="D3" s="82">
         <f t="shared" ref="D3:D18" si="1">AVERAGE(3*E3,F3,G3,H3,I3)</f>
-        <v>4.4000000000000004</v>
+        <v>1.4</v>
       </c>
       <c r="E3" s="83">
         <f>POINTS!H22</f>
@@ -6579,7 +6636,7 @@
       </c>
       <c r="I3" s="84">
         <f>POINTS!L22</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J3" s="78"/>
     </row>
@@ -6594,11 +6651,11 @@
       </c>
       <c r="D4" s="85">
         <f t="shared" si="1"/>
-        <v>15.8</v>
+        <v>14</v>
       </c>
       <c r="E4" s="86">
         <f>POINTS!H23</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="86">
         <f>POINTS!I23</f>
@@ -6614,7 +6671,7 @@
       </c>
       <c r="I4" s="87">
         <f>POINTS!L23</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J4" s="79"/>
     </row>
@@ -6629,15 +6686,15 @@
       </c>
       <c r="D5" s="85">
         <f t="shared" si="1"/>
-        <v>18.600000000000001</v>
+        <v>18.2</v>
       </c>
       <c r="E5" s="86">
         <f>POINTS!H24</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="86">
         <f>POINTS!I24</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" s="86">
         <f>POINTS!J24</f>
@@ -6649,7 +6706,7 @@
       </c>
       <c r="I5" s="87">
         <f>POINTS!L24</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J5" s="79"/>
     </row>
@@ -6660,11 +6717,11 @@
       </c>
       <c r="C6" s="71">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6" s="85">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>10.8</v>
       </c>
       <c r="E6" s="86">
         <f>POINTS!H25</f>
@@ -6672,19 +6729,19 @@
       </c>
       <c r="F6" s="86">
         <f>POINTS!I25</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G6" s="86">
         <f>POINTS!J25</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="86">
         <f>POINTS!K25</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I6" s="87">
         <f>POINTS!L25</f>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J6" s="79"/>
     </row>
@@ -6699,15 +6756,15 @@
       </c>
       <c r="D7" s="85">
         <f t="shared" si="1"/>
-        <v>14.8</v>
+        <v>13.4</v>
       </c>
       <c r="E7" s="86">
         <f>POINTS!H26</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F7" s="86">
         <f>POINTS!I26</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="86">
         <f>POINTS!J26</f>
@@ -6719,7 +6776,7 @@
       </c>
       <c r="I7" s="87">
         <f>POINTS!L26</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J7" s="79"/>
     </row>
@@ -6734,11 +6791,11 @@
       </c>
       <c r="D8" s="85">
         <f t="shared" si="1"/>
-        <v>9.1999999999999993</v>
+        <v>6.4</v>
       </c>
       <c r="E8" s="86">
         <f>POINTS!H27</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" s="86">
         <f>POINTS!I27</f>
@@ -6746,15 +6803,15 @@
       </c>
       <c r="G8" s="86">
         <f>POINTS!J27</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H8" s="86">
         <f>POINTS!K27</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I8" s="87">
         <f>POINTS!L27</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J8" s="79"/>
     </row>
@@ -6769,19 +6826,19 @@
       </c>
       <c r="D9" s="85">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E9" s="86">
         <f>POINTS!H28</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" s="86">
         <f>POINTS!I28</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" s="86">
         <f>POINTS!J28</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" s="86">
         <f>POINTS!K28</f>
@@ -6789,7 +6846,7 @@
       </c>
       <c r="I9" s="87">
         <f>POINTS!L28</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J9" s="79"/>
     </row>
@@ -6800,19 +6857,19 @@
       </c>
       <c r="C10" s="71">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" s="85">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>10.8</v>
       </c>
       <c r="E10" s="86">
         <f>POINTS!H29</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" s="86">
         <f>POINTS!I29</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G10" s="86">
         <f>POINTS!J29</f>
@@ -6820,11 +6877,11 @@
       </c>
       <c r="H10" s="86">
         <f>POINTS!K29</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I10" s="87">
         <f>POINTS!L29</f>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J10" s="79"/>
     </row>
@@ -6835,15 +6892,15 @@
       </c>
       <c r="C11" s="71">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11" s="85">
         <f t="shared" si="1"/>
-        <v>11.8</v>
+        <v>10.8</v>
       </c>
       <c r="E11" s="86">
         <f>POINTS!H30</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="86">
         <f>POINTS!I30</f>
@@ -6851,15 +6908,15 @@
       </c>
       <c r="G11" s="86">
         <f>POINTS!J30</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H11" s="86">
         <f>POINTS!K30</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I11" s="87">
         <f>POINTS!L30</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J11" s="79"/>
     </row>
@@ -6870,15 +6927,15 @@
       </c>
       <c r="C12" s="71">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D12" s="85">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>11.8</v>
       </c>
       <c r="E12" s="86">
         <f>POINTS!H31</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F12" s="86">
         <f>POINTS!I31</f>
@@ -6894,7 +6951,7 @@
       </c>
       <c r="I12" s="87">
         <f>POINTS!L31</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J12" s="79"/>
     </row>
@@ -6905,31 +6962,31 @@
       </c>
       <c r="C13" s="71">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D13" s="85">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" s="86">
         <f>POINTS!H32</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F13" s="86">
         <f>POINTS!I32</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G13" s="86">
         <f>POINTS!J32</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H13" s="86">
         <f>POINTS!K32</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I13" s="87">
         <f>POINTS!L32</f>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J13" s="79"/>
     </row>
@@ -6944,7 +7001,7 @@
       </c>
       <c r="D14" s="85">
         <f t="shared" si="1"/>
-        <v>6.6</v>
+        <v>3.8</v>
       </c>
       <c r="E14" s="86">
         <f>POINTS!H33</f>
@@ -6952,11 +7009,11 @@
       </c>
       <c r="F14" s="86">
         <f>POINTS!I33</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G14" s="86">
         <f>POINTS!J33</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" s="86">
         <f>POINTS!K33</f>
@@ -6964,7 +7021,7 @@
       </c>
       <c r="I14" s="87">
         <f>POINTS!L33</f>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J14" s="79"/>
     </row>
@@ -6979,11 +7036,11 @@
       </c>
       <c r="D15" s="85">
         <f t="shared" si="1"/>
-        <v>17.399999999999999</v>
+        <v>14.6</v>
       </c>
       <c r="E15" s="86">
         <f>POINTS!H34</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F15" s="86">
         <f>POINTS!I34</f>
@@ -6999,7 +7056,7 @@
       </c>
       <c r="I15" s="87">
         <f>POINTS!L34</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J15" s="79"/>
     </row>
@@ -7010,31 +7067,31 @@
       </c>
       <c r="C16" s="71">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="85">
         <f t="shared" si="1"/>
-        <v>10.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="E16" s="86">
         <f>POINTS!H35</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" s="86">
         <f>POINTS!I35</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G16" s="86">
         <f>POINTS!J35</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H16" s="86">
         <f>POINTS!K35</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I16" s="87">
         <f>POINTS!L35</f>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J16" s="79"/>
     </row>
@@ -7125,8 +7182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -7174,12 +7231,12 @@
         <v>Spos Before Hos</v>
       </c>
       <c r="C3" s="70">
-        <f>RANK(D3,$D$3:$D$16,1)</f>
+        <f t="shared" ref="C3:C16" si="0">RANK(D3,$D$3:$D$16,1)</f>
         <v>1</v>
       </c>
       <c r="D3" s="82">
-        <f>AVERAGE(3*E3,F3,G3,H3,I3)</f>
-        <v>4.4000000000000004</v>
+        <f t="shared" ref="D3:D16" si="1">AVERAGE(3*E3,F3,G3,H3,I3)</f>
+        <v>1.4</v>
       </c>
       <c r="E3" s="83">
         <f>POINTS!H22</f>
@@ -7199,7 +7256,7 @@
       </c>
       <c r="I3" s="84">
         <f>POINTS!L22</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J3" s="78"/>
     </row>
@@ -7209,12 +7266,12 @@
         <v>Cool Hand Lou</v>
       </c>
       <c r="C4" s="71">
-        <f>RANK(D4,$D$3:$D$16,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D4" s="85">
-        <f>AVERAGE(3*E4,F4,G4,H4,I4)</f>
-        <v>6.6</v>
+        <f t="shared" si="1"/>
+        <v>3.8</v>
       </c>
       <c r="E4" s="86">
         <f>POINTS!H33</f>
@@ -7222,11 +7279,11 @@
       </c>
       <c r="F4" s="86">
         <f>POINTS!I33</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G4" s="86">
         <f>POINTS!J33</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" s="86">
         <f>POINTS!K33</f>
@@ -7234,7 +7291,7 @@
       </c>
       <c r="I4" s="87">
         <f>POINTS!L33</f>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J4" s="79"/>
     </row>
@@ -7244,24 +7301,24 @@
         <v>Team Gregory</v>
       </c>
       <c r="C5" s="71">
-        <f>RANK(D5,$D$3:$D$16,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D5" s="85">
-        <f>AVERAGE(3*E5,F5,G5,H5,I5)</f>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="E5" s="86">
         <f>POINTS!H28</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" s="86">
         <f>POINTS!I28</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" s="86">
         <f>POINTS!J28</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" s="86">
         <f>POINTS!K28</f>
@@ -7269,7 +7326,7 @@
       </c>
       <c r="I5" s="87">
         <f>POINTS!L28</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J5" s="79"/>
     </row>
@@ -7279,16 +7336,16 @@
         <v>Deflate Deez Nutz</v>
       </c>
       <c r="C6" s="71">
-        <f>RANK(D6,$D$3:$D$16,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D6" s="85">
-        <f>AVERAGE(3*E6,F6,G6,H6,I6)</f>
-        <v>9.1999999999999993</v>
+        <f t="shared" si="1"/>
+        <v>6.4</v>
       </c>
       <c r="E6" s="86">
         <f>POINTS!H27</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" s="86">
         <f>POINTS!I27</f>
@@ -7296,120 +7353,120 @@
       </c>
       <c r="G6" s="86">
         <f>POINTS!J27</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H6" s="86">
         <f>POINTS!K27</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I6" s="87">
         <f>POINTS!L27</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J6" s="79"/>
     </row>
     <row r="7" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="92" t="str">
-        <f>POINTS!B12</f>
-        <v>Team Frisch</v>
+        <f>POINTS!B16</f>
+        <v>Team Force</v>
       </c>
       <c r="C7" s="71">
-        <f>RANK(D7,$D$3:$D$16,1)</f>
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D7" s="85">
+        <f t="shared" si="1"/>
+        <v>7.6</v>
+      </c>
+      <c r="E7" s="86">
+        <f>POINTS!H35</f>
+        <v>3</v>
+      </c>
+      <c r="F7" s="86">
+        <f>POINTS!I35</f>
         <v>7</v>
       </c>
-      <c r="D7" s="85">
-        <f>AVERAGE(3*E7,F7,G7,H7,I7)</f>
-        <v>11</v>
-      </c>
-      <c r="E7" s="86">
-        <f>POINTS!H31</f>
+      <c r="G7" s="86">
+        <f>POINTS!J35</f>
         <v>8</v>
       </c>
-      <c r="F7" s="86">
-        <f>POINTS!I31</f>
+      <c r="H7" s="86">
+        <f>POINTS!K35</f>
+        <v>9</v>
+      </c>
+      <c r="I7" s="87">
+        <f>POINTS!L35</f>
         <v>5</v>
-      </c>
-      <c r="G7" s="86">
-        <f>POINTS!J31</f>
-        <v>5</v>
-      </c>
-      <c r="H7" s="86">
-        <f>POINTS!K31</f>
-        <v>5</v>
-      </c>
-      <c r="I7" s="87">
-        <f>POINTS!L31</f>
-        <v>16</v>
       </c>
       <c r="J7" s="79"/>
     </row>
     <row r="8" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B8" s="92" t="str">
-        <f>POINTS!B16</f>
-        <v>Team Force</v>
+        <f>POINTS!B6</f>
+        <v>Team Thomas</v>
       </c>
       <c r="C8" s="71">
-        <f>RANK(D8,$D$3:$D$16,1)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D8" s="85">
-        <f>AVERAGE(3*E8,F8,G8,H8,I8)</f>
-        <v>10.199999999999999</v>
+        <f t="shared" si="1"/>
+        <v>10.8</v>
       </c>
       <c r="E8" s="86">
-        <f>POINTS!H35</f>
-        <v>2</v>
+        <f>POINTS!H25</f>
+        <v>7</v>
       </c>
       <c r="F8" s="86">
-        <f>POINTS!I35</f>
-        <v>10</v>
+        <f>POINTS!I25</f>
+        <v>7</v>
       </c>
       <c r="G8" s="86">
-        <f>POINTS!J35</f>
+        <f>POINTS!J25</f>
         <v>9</v>
       </c>
       <c r="H8" s="86">
-        <f>POINTS!K35</f>
-        <v>10</v>
+        <f>POINTS!K25</f>
+        <v>8</v>
       </c>
       <c r="I8" s="87">
-        <f>POINTS!L35</f>
-        <v>16</v>
+        <f>POINTS!L25</f>
+        <v>9</v>
       </c>
       <c r="J8" s="79"/>
     </row>
     <row r="9" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B9" s="92" t="str">
-        <f>POINTS!B13</f>
-        <v>OhNo Romo</v>
+        <f>POINTS!B11</f>
+        <v>SFV Aguilar</v>
       </c>
       <c r="C9" s="71">
-        <f>RANK(D9,$D$3:$D$16,1)</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="D9" s="85">
-        <f>AVERAGE(3*E9,F9,G9,H9,I9)</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>10.8</v>
       </c>
       <c r="E9" s="86">
-        <f>POINTS!H32</f>
-        <v>4</v>
+        <f>POINTS!H30</f>
+        <v>7</v>
       </c>
       <c r="F9" s="86">
-        <f>POINTS!I32</f>
-        <v>8</v>
+        <f>POINTS!I30</f>
+        <v>7</v>
       </c>
       <c r="G9" s="86">
-        <f>POINTS!J32</f>
+        <f>POINTS!J30</f>
         <v>7</v>
       </c>
       <c r="H9" s="86">
-        <f>POINTS!K32</f>
+        <f>POINTS!K30</f>
         <v>7</v>
       </c>
       <c r="I9" s="87">
-        <f>POINTS!L32</f>
-        <v>16</v>
+        <f>POINTS!L30</f>
+        <v>12</v>
       </c>
       <c r="J9" s="79"/>
     </row>
@@ -7419,20 +7476,20 @@
         <v>Team Wasserman</v>
       </c>
       <c r="C10" s="71">
-        <f>RANK(D10,$D$3:$D$16,1)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="D10" s="85">
-        <f>AVERAGE(3*E10,F10,G10,H10,I10)</f>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>10.8</v>
       </c>
       <c r="E10" s="86">
         <f>POINTS!H29</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" s="86">
         <f>POINTS!I29</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G10" s="86">
         <f>POINTS!J29</f>
@@ -7440,81 +7497,81 @@
       </c>
       <c r="H10" s="86">
         <f>POINTS!K29</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I10" s="87">
         <f>POINTS!L29</f>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J10" s="79"/>
     </row>
     <row r="11" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B11" s="92" t="str">
-        <f>POINTS!B11</f>
-        <v>SFV Aguilar</v>
+        <f>POINTS!B13</f>
+        <v>OhNo Romo</v>
       </c>
       <c r="C11" s="71">
-        <f>RANK(D11,$D$3:$D$16,1)</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="D11" s="85">
-        <f>AVERAGE(3*E11,F11,G11,H11,I11)</f>
-        <v>11.8</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="E11" s="86">
-        <f>POINTS!H30</f>
-        <v>8</v>
+        <f>POINTS!H32</f>
+        <v>6</v>
       </c>
       <c r="F11" s="86">
-        <f>POINTS!I30</f>
+        <f>POINTS!I32</f>
+        <v>10</v>
+      </c>
+      <c r="G11" s="86">
+        <f>POINTS!J32</f>
+        <v>10</v>
+      </c>
+      <c r="H11" s="86">
+        <f>POINTS!K32</f>
+        <v>10</v>
+      </c>
+      <c r="I11" s="87">
+        <f>POINTS!L32</f>
         <v>7</v>
-      </c>
-      <c r="G11" s="86">
-        <f>POINTS!J30</f>
-        <v>6</v>
-      </c>
-      <c r="H11" s="86">
-        <f>POINTS!K30</f>
-        <v>6</v>
-      </c>
-      <c r="I11" s="87">
-        <f>POINTS!L30</f>
-        <v>16</v>
       </c>
       <c r="J11" s="79"/>
     </row>
     <row r="12" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B12" s="92" t="str">
-        <f>POINTS!B6</f>
-        <v>Team Thomas</v>
+        <f>POINTS!B12</f>
+        <v>Team Frisch</v>
       </c>
       <c r="C12" s="71">
-        <f>RANK(D12,$D$3:$D$16,1)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D12" s="85">
-        <f>AVERAGE(3*E12,F12,G12,H12,I12)</f>
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>11.8</v>
       </c>
       <c r="E12" s="86">
-        <f>POINTS!H25</f>
-        <v>7</v>
+        <f>POINTS!H31</f>
+        <v>10</v>
       </c>
       <c r="F12" s="86">
-        <f>POINTS!I25</f>
-        <v>9</v>
+        <f>POINTS!I31</f>
+        <v>5</v>
       </c>
       <c r="G12" s="86">
-        <f>POINTS!J25</f>
-        <v>10</v>
+        <f>POINTS!J31</f>
+        <v>5</v>
       </c>
       <c r="H12" s="86">
-        <f>POINTS!K25</f>
-        <v>9</v>
+        <f>POINTS!K31</f>
+        <v>5</v>
       </c>
       <c r="I12" s="87">
-        <f>POINTS!L25</f>
-        <v>16</v>
+        <f>POINTS!L31</f>
+        <v>14</v>
       </c>
       <c r="J12" s="79"/>
     </row>
@@ -7524,20 +7581,20 @@
         <v>Gurley Gone Wild</v>
       </c>
       <c r="C13" s="71">
-        <f>RANK(D13,$D$3:$D$16,1)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D13" s="85">
-        <f>AVERAGE(3*E13,F13,G13,H13,I13)</f>
-        <v>14.8</v>
+        <f t="shared" si="1"/>
+        <v>13.4</v>
       </c>
       <c r="E13" s="86">
         <f>POINTS!H26</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F13" s="86">
         <f>POINTS!I26</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" s="86">
         <f>POINTS!J26</f>
@@ -7549,77 +7606,77 @@
       </c>
       <c r="I13" s="87">
         <f>POINTS!L26</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J13" s="79"/>
     </row>
     <row r="14" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="92" t="str">
+        <f>POINTS!B4</f>
+        <v>Little Miss Moffet</v>
+      </c>
+      <c r="C14" s="71">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D14" s="85">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E14" s="86">
+        <f>POINTS!H23</f>
+        <v>7</v>
+      </c>
+      <c r="F14" s="86">
+        <f>POINTS!I23</f>
+        <v>13</v>
+      </c>
+      <c r="G14" s="86">
+        <f>POINTS!J23</f>
+        <v>13</v>
+      </c>
+      <c r="H14" s="86">
+        <f>POINTS!K23</f>
+        <v>13</v>
+      </c>
+      <c r="I14" s="87">
+        <f>POINTS!L23</f>
+        <v>10</v>
+      </c>
+      <c r="J14" s="79"/>
+    </row>
+    <row r="15" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="92" t="str">
         <f>POINTS!B15</f>
         <v>Hebrew Wolves</v>
       </c>
-      <c r="C14" s="71">
-        <f>RANK(D14,$D$3:$D$16,1)</f>
+      <c r="C15" s="71">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D14" s="85">
-        <f>AVERAGE(3*E14,F14,G14,H14,I14)</f>
-        <v>17.399999999999999</v>
-      </c>
-      <c r="E14" s="86">
+      <c r="D15" s="85">
+        <f t="shared" si="1"/>
+        <v>14.6</v>
+      </c>
+      <c r="E15" s="86">
         <f>POINTS!H34</f>
-        <v>12</v>
-      </c>
-      <c r="F14" s="86">
+        <v>10</v>
+      </c>
+      <c r="F15" s="86">
         <f>POINTS!I34</f>
         <v>12</v>
       </c>
-      <c r="G14" s="86">
+      <c r="G15" s="86">
         <f>POINTS!J34</f>
         <v>12</v>
       </c>
-      <c r="H14" s="86">
+      <c r="H15" s="86">
         <f>POINTS!K34</f>
         <v>11</v>
       </c>
-      <c r="I14" s="87">
+      <c r="I15" s="87">
         <f>POINTS!L34</f>
-        <v>16</v>
-      </c>
-      <c r="J14" s="79"/>
-    </row>
-    <row r="15" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="92" t="str">
-        <f>POINTS!B4</f>
-        <v>Little Miss Moffet</v>
-      </c>
-      <c r="C15" s="71">
-        <f>RANK(D15,$D$3:$D$16,1)</f>
-        <v>12</v>
-      </c>
-      <c r="D15" s="85">
-        <f>AVERAGE(3*E15,F15,G15,H15,I15)</f>
-        <v>15.8</v>
-      </c>
-      <c r="E15" s="86">
-        <f>POINTS!H23</f>
         <v>8</v>
-      </c>
-      <c r="F15" s="86">
-        <f>POINTS!I23</f>
-        <v>13</v>
-      </c>
-      <c r="G15" s="86">
-        <f>POINTS!J23</f>
-        <v>13</v>
-      </c>
-      <c r="H15" s="86">
-        <f>POINTS!K23</f>
-        <v>13</v>
-      </c>
-      <c r="I15" s="87">
-        <f>POINTS!L23</f>
-        <v>16</v>
       </c>
       <c r="J15" s="79"/>
     </row>
@@ -7629,20 +7686,20 @@
         <v>SUPERMAX LOCO</v>
       </c>
       <c r="C16" s="72">
-        <f>RANK(D16,$D$3:$D$16,1)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D16" s="88">
-        <f>AVERAGE(3*E16,F16,G16,H16,I16)</f>
-        <v>18.600000000000001</v>
+        <f t="shared" si="1"/>
+        <v>18.2</v>
       </c>
       <c r="E16" s="89">
         <f>POINTS!H24</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16" s="89">
         <f>POINTS!I24</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G16" s="89">
         <f>POINTS!J24</f>
@@ -7654,7 +7711,7 @@
       </c>
       <c r="I16" s="90">
         <f>POINTS!L24</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J16" s="80"/>
     </row>
@@ -7726,7 +7783,7 @@
       </c>
       <c r="D3" s="82">
         <f t="shared" ref="D3:D14" si="1">AVERAGE(3*E3,F3,G3,H3,I3)</f>
-        <v>4.4000000000000004</v>
+        <v>1.4</v>
       </c>
       <c r="E3" s="83">
         <f>POINTS!H22</f>
@@ -7746,7 +7803,7 @@
       </c>
       <c r="I3" s="84">
         <f>POINTS!L22</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J3" s="78"/>
     </row>
@@ -7761,11 +7818,11 @@
       </c>
       <c r="D4" s="85">
         <f t="shared" si="1"/>
-        <v>15.8</v>
+        <v>14</v>
       </c>
       <c r="E4" s="86">
         <f>POINTS!H23</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="86">
         <f>POINTS!I23</f>
@@ -7781,7 +7838,7 @@
       </c>
       <c r="I4" s="87">
         <f>POINTS!L23</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J4" s="79"/>
     </row>
@@ -7796,15 +7853,15 @@
       </c>
       <c r="D5" s="85">
         <f t="shared" si="1"/>
-        <v>18.600000000000001</v>
+        <v>18.2</v>
       </c>
       <c r="E5" s="86">
         <f>POINTS!H24</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="86">
         <f>POINTS!I24</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" s="86">
         <f>POINTS!J24</f>
@@ -7816,7 +7873,7 @@
       </c>
       <c r="I5" s="87">
         <f>POINTS!L24</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J5" s="79"/>
     </row>
@@ -7827,11 +7884,11 @@
       </c>
       <c r="C6" s="71">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D6" s="85">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>10.8</v>
       </c>
       <c r="E6" s="86">
         <f>POINTS!H25</f>
@@ -7839,19 +7896,19 @@
       </c>
       <c r="F6" s="86">
         <f>POINTS!I25</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G6" s="86">
         <f>POINTS!J25</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="86">
         <f>POINTS!K25</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I6" s="87">
         <f>POINTS!L25</f>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J6" s="79"/>
     </row>
@@ -7866,15 +7923,15 @@
       </c>
       <c r="D7" s="85">
         <f t="shared" si="1"/>
-        <v>14.8</v>
+        <v>13.4</v>
       </c>
       <c r="E7" s="86">
         <f>POINTS!H26</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F7" s="86">
         <f>POINTS!I26</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="86">
         <f>POINTS!J26</f>
@@ -7886,7 +7943,7 @@
       </c>
       <c r="I7" s="87">
         <f>POINTS!L26</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J7" s="79"/>
     </row>
@@ -7901,11 +7958,11 @@
       </c>
       <c r="D8" s="85">
         <f t="shared" si="1"/>
-        <v>9.1999999999999993</v>
+        <v>6.4</v>
       </c>
       <c r="E8" s="86">
         <f>POINTS!H27</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" s="86">
         <f>POINTS!I27</f>
@@ -7913,15 +7970,15 @@
       </c>
       <c r="G8" s="86">
         <f>POINTS!J27</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H8" s="86">
         <f>POINTS!K27</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I8" s="87">
         <f>POINTS!L27</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J8" s="79"/>
     </row>
@@ -7936,19 +7993,19 @@
       </c>
       <c r="D9" s="85">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E9" s="86">
         <f>POINTS!H28</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" s="86">
         <f>POINTS!I28</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" s="86">
         <f>POINTS!J28</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" s="86">
         <f>POINTS!K28</f>
@@ -7956,7 +8013,7 @@
       </c>
       <c r="I9" s="87">
         <f>POINTS!L28</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J9" s="79"/>
     </row>
@@ -7967,19 +8024,19 @@
       </c>
       <c r="C10" s="71">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D10" s="85">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>10.8</v>
       </c>
       <c r="E10" s="86">
         <f>POINTS!H29</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" s="86">
         <f>POINTS!I29</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G10" s="86">
         <f>POINTS!J29</f>
@@ -7987,11 +8044,11 @@
       </c>
       <c r="H10" s="86">
         <f>POINTS!K29</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I10" s="87">
         <f>POINTS!L29</f>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J10" s="79"/>
     </row>
@@ -8002,15 +8059,15 @@
       </c>
       <c r="C11" s="71">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11" s="85">
         <f t="shared" si="1"/>
-        <v>11.8</v>
+        <v>10.8</v>
       </c>
       <c r="E11" s="86">
         <f>POINTS!H30</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="86">
         <f>POINTS!I30</f>
@@ -8018,15 +8075,15 @@
       </c>
       <c r="G11" s="86">
         <f>POINTS!J30</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H11" s="86">
         <f>POINTS!K30</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I11" s="87">
         <f>POINTS!L30</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J11" s="79"/>
     </row>
@@ -8037,15 +8094,15 @@
       </c>
       <c r="C12" s="71">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D12" s="85">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>11.8</v>
       </c>
       <c r="E12" s="86">
         <f>POINTS!H31</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F12" s="86">
         <f>POINTS!I31</f>
@@ -8061,7 +8118,7 @@
       </c>
       <c r="I12" s="87">
         <f>POINTS!L31</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J12" s="79"/>
     </row>
@@ -8072,31 +8129,31 @@
       </c>
       <c r="C13" s="71">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D13" s="85">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" s="86">
         <f>POINTS!H32</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F13" s="86">
         <f>POINTS!I32</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G13" s="86">
         <f>POINTS!J32</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H13" s="86">
         <f>POINTS!K32</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I13" s="87">
         <f>POINTS!L32</f>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J13" s="79"/>
     </row>
@@ -8111,7 +8168,7 @@
       </c>
       <c r="D14" s="88">
         <f t="shared" si="1"/>
-        <v>6.6</v>
+        <v>3.8</v>
       </c>
       <c r="E14" s="89">
         <f>POINTS!H33</f>
@@ -8119,11 +8176,11 @@
       </c>
       <c r="F14" s="89">
         <f>POINTS!I33</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G14" s="89">
         <f>POINTS!J33</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" s="89">
         <f>POINTS!K33</f>
@@ -8131,7 +8188,7 @@
       </c>
       <c r="I14" s="90">
         <f>POINTS!L33</f>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J14" s="80"/>
     </row>
@@ -8203,7 +8260,7 @@
       </c>
       <c r="D3" s="83">
         <f t="shared" ref="D3:D12" si="1">AVERAGE(3*E3,F3,G3,H3,I3)</f>
-        <v>4.4000000000000004</v>
+        <v>1.4</v>
       </c>
       <c r="E3" s="83">
         <f>POINTS!H22</f>
@@ -8223,7 +8280,7 @@
       </c>
       <c r="I3" s="83">
         <f>POINTS!L22</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J3" s="73"/>
     </row>
@@ -8238,11 +8295,11 @@
       </c>
       <c r="D4" s="86">
         <f t="shared" si="1"/>
-        <v>15.8</v>
+        <v>14</v>
       </c>
       <c r="E4" s="86">
         <f>POINTS!H23</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="86">
         <f>POINTS!I23</f>
@@ -8258,7 +8315,7 @@
       </c>
       <c r="I4" s="86">
         <f>POINTS!L23</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J4" s="74"/>
     </row>
@@ -8273,15 +8330,15 @@
       </c>
       <c r="D5" s="86">
         <f t="shared" si="1"/>
-        <v>18.600000000000001</v>
+        <v>18.2</v>
       </c>
       <c r="E5" s="86">
         <f>POINTS!H24</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="86">
         <f>POINTS!I24</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" s="86">
         <f>POINTS!J24</f>
@@ -8293,7 +8350,7 @@
       </c>
       <c r="I5" s="86">
         <f>POINTS!L24</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J5" s="74"/>
     </row>
@@ -8304,11 +8361,11 @@
       </c>
       <c r="C6" s="97">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D6" s="86">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>10.8</v>
       </c>
       <c r="E6" s="86">
         <f>POINTS!H25</f>
@@ -8316,19 +8373,19 @@
       </c>
       <c r="F6" s="86">
         <f>POINTS!I25</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G6" s="86">
         <f>POINTS!J25</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="86">
         <f>POINTS!K25</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I6" s="86">
         <f>POINTS!L25</f>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J6" s="74"/>
     </row>
@@ -8343,15 +8400,15 @@
       </c>
       <c r="D7" s="86">
         <f t="shared" si="1"/>
-        <v>14.8</v>
+        <v>13.4</v>
       </c>
       <c r="E7" s="86">
         <f>POINTS!H26</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F7" s="86">
         <f>POINTS!I26</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="86">
         <f>POINTS!J26</f>
@@ -8363,7 +8420,7 @@
       </c>
       <c r="I7" s="86">
         <f>POINTS!L26</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J7" s="74"/>
     </row>
@@ -8378,11 +8435,11 @@
       </c>
       <c r="D8" s="86">
         <f t="shared" si="1"/>
-        <v>9.1999999999999993</v>
+        <v>6.4</v>
       </c>
       <c r="E8" s="86">
         <f>POINTS!H27</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" s="86">
         <f>POINTS!I27</f>
@@ -8390,15 +8447,15 @@
       </c>
       <c r="G8" s="86">
         <f>POINTS!J27</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H8" s="86">
         <f>POINTS!K27</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I8" s="86">
         <f>POINTS!L27</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J8" s="74"/>
     </row>
@@ -8413,19 +8470,19 @@
       </c>
       <c r="D9" s="86">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E9" s="86">
         <f>POINTS!H28</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" s="86">
         <f>POINTS!I28</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" s="86">
         <f>POINTS!J28</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" s="86">
         <f>POINTS!K28</f>
@@ -8433,7 +8490,7 @@
       </c>
       <c r="I9" s="86">
         <f>POINTS!L28</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J9" s="74"/>
     </row>
@@ -8444,19 +8501,19 @@
       </c>
       <c r="C10" s="97">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10" s="86">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>10.8</v>
       </c>
       <c r="E10" s="86">
         <f>POINTS!H29</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" s="86">
         <f>POINTS!I29</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G10" s="86">
         <f>POINTS!J29</f>
@@ -8464,11 +8521,11 @@
       </c>
       <c r="H10" s="86">
         <f>POINTS!K29</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I10" s="86">
         <f>POINTS!L29</f>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J10" s="74"/>
     </row>
@@ -8479,15 +8536,15 @@
       </c>
       <c r="C11" s="97">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="86">
         <f t="shared" si="1"/>
-        <v>11.8</v>
+        <v>10.8</v>
       </c>
       <c r="E11" s="86">
         <f>POINTS!H30</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="86">
         <f>POINTS!I30</f>
@@ -8495,15 +8552,15 @@
       </c>
       <c r="G11" s="86">
         <f>POINTS!J30</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H11" s="86">
         <f>POINTS!K30</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I11" s="86">
         <f>POINTS!L30</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J11" s="74"/>
     </row>
@@ -8514,15 +8571,15 @@
       </c>
       <c r="C12" s="99">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D12" s="89">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>11.8</v>
       </c>
       <c r="E12" s="89">
         <f>POINTS!H31</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F12" s="89">
         <f>POINTS!I31</f>
@@ -8538,7 +8595,7 @@
       </c>
       <c r="I12" s="89">
         <f>POINTS!L31</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J12" s="75"/>
     </row>
@@ -8610,7 +8667,7 @@
       </c>
       <c r="D3" s="82">
         <f t="shared" ref="D3:D10" si="1">AVERAGE(3*E3,F3,G3,H3,I3)</f>
-        <v>4.4000000000000004</v>
+        <v>1.4</v>
       </c>
       <c r="E3" s="83">
         <f>POINTS!H22</f>
@@ -8630,7 +8687,7 @@
       </c>
       <c r="I3" s="84">
         <f>POINTS!L22</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J3" s="78"/>
     </row>
@@ -8645,11 +8702,11 @@
       </c>
       <c r="D4" s="85">
         <f t="shared" si="1"/>
-        <v>15.8</v>
+        <v>14</v>
       </c>
       <c r="E4" s="86">
         <f>POINTS!H23</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="86">
         <f>POINTS!I23</f>
@@ -8665,7 +8722,7 @@
       </c>
       <c r="I4" s="87">
         <f>POINTS!L23</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J4" s="79"/>
     </row>
@@ -8680,15 +8737,15 @@
       </c>
       <c r="D5" s="85">
         <f t="shared" si="1"/>
-        <v>18.600000000000001</v>
+        <v>18.2</v>
       </c>
       <c r="E5" s="86">
         <f>POINTS!H24</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="86">
         <f>POINTS!I24</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" s="86">
         <f>POINTS!J24</f>
@@ -8700,7 +8757,7 @@
       </c>
       <c r="I5" s="87">
         <f>POINTS!L24</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J5" s="79"/>
     </row>
@@ -8711,11 +8768,11 @@
       </c>
       <c r="C6" s="71">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="85">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>10.8</v>
       </c>
       <c r="E6" s="86">
         <f>POINTS!H25</f>
@@ -8723,19 +8780,19 @@
       </c>
       <c r="F6" s="86">
         <f>POINTS!I25</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G6" s="86">
         <f>POINTS!J25</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="86">
         <f>POINTS!K25</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I6" s="87">
         <f>POINTS!L25</f>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J6" s="79"/>
     </row>
@@ -8750,15 +8807,15 @@
       </c>
       <c r="D7" s="85">
         <f t="shared" si="1"/>
-        <v>14.8</v>
+        <v>13.4</v>
       </c>
       <c r="E7" s="86">
         <f>POINTS!H26</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F7" s="86">
         <f>POINTS!I26</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="86">
         <f>POINTS!J26</f>
@@ -8770,7 +8827,7 @@
       </c>
       <c r="I7" s="87">
         <f>POINTS!L26</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J7" s="79"/>
     </row>
@@ -8785,11 +8842,11 @@
       </c>
       <c r="D8" s="85">
         <f t="shared" si="1"/>
-        <v>9.1999999999999993</v>
+        <v>6.4</v>
       </c>
       <c r="E8" s="86">
         <f>POINTS!H27</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" s="86">
         <f>POINTS!I27</f>
@@ -8797,15 +8854,15 @@
       </c>
       <c r="G8" s="86">
         <f>POINTS!J27</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H8" s="86">
         <f>POINTS!K27</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I8" s="87">
         <f>POINTS!L27</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J8" s="79"/>
     </row>
@@ -8820,19 +8877,19 @@
       </c>
       <c r="D9" s="85">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E9" s="86">
         <f>POINTS!H28</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" s="86">
         <f>POINTS!I28</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" s="86">
         <f>POINTS!J28</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" s="86">
         <f>POINTS!K28</f>
@@ -8840,7 +8897,7 @@
       </c>
       <c r="I9" s="87">
         <f>POINTS!L28</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J9" s="79"/>
     </row>
@@ -8855,15 +8912,15 @@
       </c>
       <c r="D10" s="88">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>10.8</v>
       </c>
       <c r="E10" s="89">
         <f>POINTS!H29</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" s="89">
         <f>POINTS!I29</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G10" s="89">
         <f>POINTS!J29</f>
@@ -8871,11 +8928,11 @@
       </c>
       <c r="H10" s="89">
         <f>POINTS!K29</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I10" s="90">
         <f>POINTS!L29</f>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J10" s="80"/>
     </row>

--- a/Power Rankings.xlsx
+++ b/Power Rankings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="225" windowWidth="15300" windowHeight="5955" tabRatio="632"/>
+    <workbookView xWindow="315" yWindow="285" windowWidth="15300" windowHeight="5895" tabRatio="632"/>
   </bookViews>
   <sheets>
     <sheet name="POINTS" sheetId="2" r:id="rId1"/>
@@ -1750,7 +1750,17 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="57">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3134,185 +3144,185 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="rankings" displayName="rankings" ref="B2:J18" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="rankings" displayName="rankings" ref="B2:J18" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <autoFilter ref="B2:J18"/>
   <sortState ref="B3:I18">
     <sortCondition ref="B2:B18"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="TEAM NAME" dataDxfId="52">
+    <tableColumn id="1" name="TEAM NAME" dataDxfId="53">
       <calculatedColumnFormula>POINTS!B3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="POWER RANK" dataDxfId="51">
+    <tableColumn id="2" name="POWER RANK" dataDxfId="52">
       <calculatedColumnFormula>RANK(D3,$D$3:$D$18,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="FINAL" dataDxfId="50">
+    <tableColumn id="3" name="FINAL" dataDxfId="51">
       <calculatedColumnFormula>AVERAGE(3*E3,F3,G3,H3,I3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="RECORD" dataDxfId="49">
+    <tableColumn id="4" name="RECORD" dataDxfId="50">
       <calculatedColumnFormula>POINTS!H22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="OVERALL WINS" dataDxfId="48">
+    <tableColumn id="5" name="OVERALL WINS" dataDxfId="49">
       <calculatedColumnFormula>POINTS!I22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="CONS" dataDxfId="47">
+    <tableColumn id="6" name="CONS" dataDxfId="48">
       <calculatedColumnFormula>POINTS!J22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="POINTS FOR" dataDxfId="46">
+    <tableColumn id="7" name="POINTS FOR" dataDxfId="47">
       <calculatedColumnFormula>POINTS!K22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="ROSTER" dataDxfId="45">
+    <tableColumn id="8" name="ROSTER" dataDxfId="46">
       <calculatedColumnFormula>POINTS!L22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="COMMENTS" dataDxfId="44"/>
+    <tableColumn id="9" name="COMMENTS" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="rankings3" displayName="rankings3" ref="B2:J16" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="rankings3" displayName="rankings3" ref="B2:J16" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
   <autoFilter ref="B2:J16"/>
-  <sortState ref="B3:J16">
-    <sortCondition ref="D2:D16"/>
+  <sortState ref="B3:I18">
+    <sortCondition ref="B2:B18"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="TEAM NAME" dataDxfId="41">
+    <tableColumn id="1" name="TEAM NAME" dataDxfId="42">
       <calculatedColumnFormula>POINTS!B3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="POWER RANK" dataDxfId="40">
+    <tableColumn id="2" name="POWER RANK" dataDxfId="41">
       <calculatedColumnFormula>RANK(D3,$D$3:$D$16,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="FINAL" dataDxfId="39">
+    <tableColumn id="3" name="FINAL" dataDxfId="40">
       <calculatedColumnFormula>AVERAGE(3*E3,F3,G3,H3,I3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="RECORD" dataDxfId="38">
+    <tableColumn id="4" name="RECORD" dataDxfId="39">
       <calculatedColumnFormula>POINTS!H22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="OVERALL WINS" dataDxfId="37">
+    <tableColumn id="5" name="OVERALL WINS" dataDxfId="38">
       <calculatedColumnFormula>POINTS!I22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="CONS" dataDxfId="36">
+    <tableColumn id="6" name="CONS" dataDxfId="37">
       <calculatedColumnFormula>POINTS!J22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="POINTS FOR" dataDxfId="35">
+    <tableColumn id="7" name="POINTS FOR" dataDxfId="36">
       <calculatedColumnFormula>POINTS!K22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="ROSTER" dataDxfId="34">
+    <tableColumn id="8" name="ROSTER" dataDxfId="35">
       <calculatedColumnFormula>POINTS!L22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="COMMENTS" dataDxfId="33"/>
+    <tableColumn id="9" name="COMMENTS" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="rankings34" displayName="rankings34" ref="B2:J14" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="rankings34" displayName="rankings34" ref="B2:J14" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="B2:J14"/>
   <sortState ref="B3:I18">
     <sortCondition ref="B2:B18"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="TEAM NAME" dataDxfId="30">
+    <tableColumn id="1" name="TEAM NAME" dataDxfId="31">
       <calculatedColumnFormula>POINTS!B3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="POWER RANK" dataDxfId="29">
+    <tableColumn id="2" name="POWER RANK" dataDxfId="30">
       <calculatedColumnFormula>RANK(D3,$D$3:$D$14,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="FINAL" dataDxfId="28">
+    <tableColumn id="3" name="FINAL" dataDxfId="29">
       <calculatedColumnFormula>AVERAGE(3*E3,F3,G3,H3,I3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="RECORD" dataDxfId="27">
+    <tableColumn id="4" name="RECORD" dataDxfId="28">
       <calculatedColumnFormula>POINTS!H22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="OVERALL WINS" dataDxfId="26">
+    <tableColumn id="5" name="OVERALL WINS" dataDxfId="27">
       <calculatedColumnFormula>POINTS!I22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="CONS" dataDxfId="25">
+    <tableColumn id="6" name="CONS" dataDxfId="26">
       <calculatedColumnFormula>POINTS!J22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="POINTS FOR" dataDxfId="24">
+    <tableColumn id="7" name="POINTS FOR" dataDxfId="25">
       <calculatedColumnFormula>POINTS!K22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="ROSTER" dataDxfId="23">
+    <tableColumn id="8" name="ROSTER" dataDxfId="24">
       <calculatedColumnFormula>POINTS!L22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="COMMENTS" dataDxfId="22"/>
+    <tableColumn id="9" name="COMMENTS" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="rankings345" displayName="rankings345" ref="B2:J12" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="rankings345" displayName="rankings345" ref="B2:J12" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="B2:J12"/>
   <sortState ref="B3:I18">
     <sortCondition ref="B2:B18"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="TEAM NAME" dataDxfId="19">
+    <tableColumn id="1" name="TEAM NAME" dataDxfId="20">
       <calculatedColumnFormula>POINTS!B3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="POWER RANK" dataDxfId="18">
+    <tableColumn id="2" name="POWER RANK" dataDxfId="19">
       <calculatedColumnFormula>RANK(D3,$D$3:$D$12,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="FINAL" dataDxfId="17">
+    <tableColumn id="3" name="FINAL" dataDxfId="18">
       <calculatedColumnFormula>AVERAGE(3*E3,F3,G3,H3,I3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="RECORD" dataDxfId="16">
+    <tableColumn id="4" name="RECORD" dataDxfId="17">
       <calculatedColumnFormula>POINTS!H22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="OVERALL WINS" dataDxfId="15">
+    <tableColumn id="5" name="OVERALL WINS" dataDxfId="16">
       <calculatedColumnFormula>POINTS!I22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="CONS" dataDxfId="14">
+    <tableColumn id="6" name="CONS" dataDxfId="15">
       <calculatedColumnFormula>POINTS!J22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="POINTS FOR" dataDxfId="13">
+    <tableColumn id="7" name="POINTS FOR" dataDxfId="14">
       <calculatedColumnFormula>POINTS!K22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="ROSTER" dataDxfId="12">
+    <tableColumn id="8" name="ROSTER" dataDxfId="13">
       <calculatedColumnFormula>POINTS!L22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="COMMENTS" dataDxfId="11"/>
+    <tableColumn id="9" name="COMMENTS" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="rankings3456" displayName="rankings3456" ref="B2:J10" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="rankings3456" displayName="rankings3456" ref="B2:J10" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="B2:J10"/>
   <sortState ref="B3:I18">
     <sortCondition ref="B2:B18"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="TEAM NAME" dataDxfId="8">
+    <tableColumn id="1" name="TEAM NAME" dataDxfId="9">
       <calculatedColumnFormula>POINTS!B3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="POWER RANK" dataDxfId="7">
+    <tableColumn id="2" name="POWER RANK" dataDxfId="8">
       <calculatedColumnFormula>RANK(D3,$D$3:$D$10,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="FINAL" dataDxfId="6">
+    <tableColumn id="3" name="FINAL" dataDxfId="7">
       <calculatedColumnFormula>AVERAGE(3*E3,F3,G3,H3,I3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="RECORD" dataDxfId="5">
+    <tableColumn id="4" name="RECORD" dataDxfId="6">
       <calculatedColumnFormula>POINTS!H22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="OVERALL WINS" dataDxfId="4">
+    <tableColumn id="5" name="OVERALL WINS" dataDxfId="5">
       <calculatedColumnFormula>POINTS!I22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="CONS" dataDxfId="3">
+    <tableColumn id="6" name="CONS" dataDxfId="4">
       <calculatedColumnFormula>POINTS!J22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="POINTS FOR" dataDxfId="2">
+    <tableColumn id="7" name="POINTS FOR" dataDxfId="3">
       <calculatedColumnFormula>POINTS!K22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="ROSTER" dataDxfId="1">
+    <tableColumn id="8" name="ROSTER" dataDxfId="2">
       <calculatedColumnFormula>POINTS!L22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="COMMENTS" dataDxfId="0"/>
+    <tableColumn id="9" name="COMMENTS" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3607,8 +3617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="U34" sqref="U34"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3616,8 +3626,8 @@
     <col min="1" max="1" width="7.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" style="2" customWidth="1"/>
     <col min="3" max="15" width="5.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" style="2"/>
+    <col min="16" max="16" width="8.7109375" style="2"/>
+    <col min="17" max="17" width="11.42578125" style="2" customWidth="1"/>
     <col min="18" max="19" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="8.7109375" style="2"/>
@@ -3784,17 +3794,19 @@
       <c r="K3" s="36">
         <v>128.30000000000001</v>
       </c>
-      <c r="L3" s="36"/>
+      <c r="L3" s="36">
+        <v>105.1</v>
+      </c>
       <c r="M3" s="36"/>
       <c r="N3" s="7"/>
       <c r="O3" s="8"/>
       <c r="P3" s="12">
         <f>SUM(C3:O3)</f>
-        <v>1035.4000000000001</v>
+        <v>1140.5</v>
       </c>
       <c r="Q3" s="12">
         <f>AVERAGE(C3:O3)</f>
-        <v>115.04444444444445</v>
+        <v>114.05</v>
       </c>
       <c r="R3" s="13">
         <f>MAX(C3:O3)</f>
@@ -3806,7 +3818,7 @@
       </c>
       <c r="T3" s="13">
         <f>STDEV(C3:O3)</f>
-        <v>14.195607693148492</v>
+        <v>13.748232209593063</v>
       </c>
       <c r="W3" s="52">
         <f>IF(C3="","",RANK(C3,$C$3:$C$18,1))</f>
@@ -3844,9 +3856,9 @@
         <f>IF(K3="","",RANK(K3,$K$3:$K$18,1))</f>
         <v>12</v>
       </c>
-      <c r="AF3" s="53" t="str">
+      <c r="AF3" s="53">
         <f>IF(L3="","",RANK(L3,$L$3:$L$18,1))</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="AG3" s="53" t="str">
         <f>IF(M3="","",RANK(M3,$M$3:$M$18,1))</f>
@@ -3862,7 +3874,7 @@
       </c>
       <c r="AJ3" s="42">
         <f>SUM(W3:AI3)</f>
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3899,17 +3911,19 @@
       <c r="K4" s="34">
         <v>105.4</v>
       </c>
-      <c r="L4" s="34"/>
+      <c r="L4" s="34">
+        <v>84.7</v>
+      </c>
       <c r="M4" s="34"/>
       <c r="N4" s="34"/>
       <c r="O4" s="9"/>
       <c r="P4" s="14">
         <f t="shared" ref="P4:P18" si="0">SUM(C4:O4)</f>
-        <v>809.9</v>
+        <v>894.6</v>
       </c>
       <c r="Q4" s="14">
         <f t="shared" ref="Q4:Q18" si="1">AVERAGE(C4:O4)</f>
-        <v>89.98888888888888</v>
+        <v>89.460000000000008</v>
       </c>
       <c r="R4" s="15">
         <f t="shared" ref="R4:R18" si="2">MAX(C4:O4)</f>
@@ -3921,7 +3935,7 @@
       </c>
       <c r="T4" s="15">
         <f t="shared" ref="T4:T18" si="4">STDEV(C4:O4)</f>
-        <v>24.224752034047988</v>
+        <v>22.900470640481522</v>
       </c>
       <c r="W4" s="55">
         <f t="shared" ref="W4:W18" si="5">IF(C4="","",RANK(C4,$C$3:$C$18,1))</f>
@@ -3959,9 +3973,9 @@
         <f t="shared" ref="AE4:AE18" si="13">IF(K4="","",RANK(K4,$K$3:$K$18,1))</f>
         <v>10</v>
       </c>
-      <c r="AF4" s="56" t="str">
+      <c r="AF4" s="56">
         <f t="shared" ref="AF4:AF18" si="14">IF(L4="","",RANK(L4,$L$3:$L$18,1))</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="AG4" s="56" t="str">
         <f t="shared" ref="AG4:AG18" si="15">IF(M4="","",RANK(M4,$M$3:$M$18,1))</f>
@@ -3977,7 +3991,7 @@
       </c>
       <c r="AJ4" s="43">
         <f t="shared" ref="AJ4:AJ18" si="18">SUM(W4:AI4)</f>
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4014,17 +4028,19 @@
       <c r="K5" s="36">
         <v>76.2</v>
       </c>
-      <c r="L5" s="36"/>
+      <c r="L5" s="36">
+        <v>88.5</v>
+      </c>
       <c r="M5" s="36"/>
       <c r="N5" s="36"/>
       <c r="O5" s="8"/>
       <c r="P5" s="16">
         <f t="shared" si="0"/>
-        <v>742.30000000000018</v>
+        <v>830.80000000000018</v>
       </c>
       <c r="Q5" s="16">
         <f t="shared" si="1"/>
-        <v>82.477777777777803</v>
+        <v>83.080000000000013</v>
       </c>
       <c r="R5" s="17">
         <f t="shared" si="2"/>
@@ -4036,7 +4052,7 @@
       </c>
       <c r="T5" s="17">
         <f t="shared" si="4"/>
-        <v>16.044607955460965</v>
+        <v>15.246405769521083</v>
       </c>
       <c r="W5" s="55">
         <f t="shared" si="5"/>
@@ -4074,9 +4090,9 @@
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="AF5" s="56" t="str">
+      <c r="AF5" s="56">
         <f t="shared" si="14"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="AG5" s="56" t="str">
         <f t="shared" si="15"/>
@@ -4092,7 +4108,7 @@
       </c>
       <c r="AJ5" s="43">
         <f t="shared" si="18"/>
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4129,17 +4145,19 @@
       <c r="K6" s="36">
         <v>101.2</v>
       </c>
-      <c r="L6" s="34"/>
+      <c r="L6" s="34">
+        <v>99</v>
+      </c>
       <c r="M6" s="34"/>
       <c r="N6" s="34"/>
       <c r="O6" s="9"/>
       <c r="P6" s="14">
         <f t="shared" si="0"/>
-        <v>882.50000000000011</v>
+        <v>981.50000000000011</v>
       </c>
       <c r="Q6" s="14">
         <f t="shared" si="1"/>
-        <v>98.055555555555571</v>
+        <v>98.15</v>
       </c>
       <c r="R6" s="15">
         <f t="shared" si="2"/>
@@ -4151,7 +4169,7 @@
       </c>
       <c r="T6" s="15">
         <f t="shared" si="4"/>
-        <v>16.28220739880727</v>
+        <v>15.353917343068378</v>
       </c>
       <c r="W6" s="55">
         <f t="shared" si="5"/>
@@ -4189,9 +4207,9 @@
         <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="AF6" s="56" t="str">
+      <c r="AF6" s="56">
         <f t="shared" si="14"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="AG6" s="56" t="str">
         <f t="shared" si="15"/>
@@ -4207,7 +4225,7 @@
       </c>
       <c r="AJ6" s="43">
         <f t="shared" si="18"/>
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4244,17 +4262,19 @@
       <c r="K7" s="34">
         <v>93.6</v>
       </c>
-      <c r="L7" s="36"/>
+      <c r="L7" s="36">
+        <v>101.3</v>
+      </c>
       <c r="M7" s="36"/>
       <c r="N7" s="36"/>
       <c r="O7" s="8"/>
       <c r="P7" s="16">
         <f t="shared" si="0"/>
-        <v>861.20000000000016</v>
+        <v>962.50000000000011</v>
       </c>
       <c r="Q7" s="16">
         <f t="shared" si="1"/>
-        <v>95.688888888888911</v>
+        <v>96.250000000000014</v>
       </c>
       <c r="R7" s="17">
         <f t="shared" si="2"/>
@@ -4266,7 +4286,7 @@
       </c>
       <c r="T7" s="17">
         <f t="shared" si="4"/>
-        <v>22.542318228414441</v>
+        <v>21.327043343552656</v>
       </c>
       <c r="W7" s="55">
         <f t="shared" si="5"/>
@@ -4304,9 +4324,9 @@
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="AF7" s="56" t="str">
+      <c r="AF7" s="56">
         <f t="shared" si="14"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="AG7" s="56" t="str">
         <f t="shared" si="15"/>
@@ -4322,7 +4342,7 @@
       </c>
       <c r="AJ7" s="43">
         <f t="shared" si="18"/>
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4359,17 +4379,19 @@
       <c r="K8" s="36">
         <v>135.5</v>
       </c>
-      <c r="L8" s="34"/>
+      <c r="L8" s="34">
+        <v>90.7</v>
+      </c>
       <c r="M8" s="34"/>
       <c r="N8" s="34"/>
       <c r="O8" s="9"/>
       <c r="P8" s="14">
         <f t="shared" si="0"/>
-        <v>940.8</v>
+        <v>1031.5</v>
       </c>
       <c r="Q8" s="14">
         <f t="shared" si="1"/>
-        <v>104.53333333333333</v>
+        <v>103.15</v>
       </c>
       <c r="R8" s="15">
         <f t="shared" si="2"/>
@@ -4381,7 +4403,7 @@
       </c>
       <c r="T8" s="15">
         <f t="shared" si="4"/>
-        <v>24.553920257262391</v>
+        <v>23.559345869055388</v>
       </c>
       <c r="W8" s="55">
         <f t="shared" si="5"/>
@@ -4419,9 +4441,9 @@
         <f t="shared" si="13"/>
         <v>13</v>
       </c>
-      <c r="AF8" s="56" t="str">
+      <c r="AF8" s="56">
         <f t="shared" si="14"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="AG8" s="56" t="str">
         <f t="shared" si="15"/>
@@ -4437,7 +4459,7 @@
       </c>
       <c r="AJ8" s="43">
         <f t="shared" si="18"/>
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4474,17 +4496,19 @@
       <c r="K9" s="36">
         <v>124.2</v>
       </c>
-      <c r="L9" s="36"/>
+      <c r="L9" s="36">
+        <v>115.7</v>
+      </c>
       <c r="M9" s="36"/>
       <c r="N9" s="36"/>
       <c r="O9" s="8"/>
       <c r="P9" s="16">
         <f t="shared" si="0"/>
-        <v>999.90000000000009</v>
+        <v>1115.6000000000001</v>
       </c>
       <c r="Q9" s="16">
         <f t="shared" si="1"/>
-        <v>111.10000000000001</v>
+        <v>111.56000000000002</v>
       </c>
       <c r="R9" s="17">
         <f t="shared" si="2"/>
@@ -4496,7 +4520,7 @@
       </c>
       <c r="T9" s="17">
         <f t="shared" si="4"/>
-        <v>26.731535683533014</v>
+        <v>25.244678207055337</v>
       </c>
       <c r="W9" s="55">
         <f t="shared" si="5"/>
@@ -4534,9 +4558,9 @@
         <f t="shared" si="13"/>
         <v>11</v>
       </c>
-      <c r="AF9" s="56" t="str">
+      <c r="AF9" s="56">
         <f t="shared" si="14"/>
-        <v/>
+        <v>11</v>
       </c>
       <c r="AG9" s="56" t="str">
         <f t="shared" si="15"/>
@@ -4552,7 +4576,7 @@
       </c>
       <c r="AJ9" s="43">
         <f t="shared" si="18"/>
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4589,21 +4613,23 @@
       <c r="K10" s="34">
         <v>73.2</v>
       </c>
-      <c r="L10" s="34"/>
+      <c r="L10" s="34">
+        <v>127.8</v>
+      </c>
       <c r="M10" s="34"/>
       <c r="N10" s="34"/>
       <c r="O10" s="9"/>
       <c r="P10" s="14">
         <f t="shared" si="0"/>
-        <v>901.5</v>
+        <v>1029.3</v>
       </c>
       <c r="Q10" s="14">
         <f t="shared" si="1"/>
-        <v>100.16666666666667</v>
+        <v>102.92999999999999</v>
       </c>
       <c r="R10" s="15">
         <f t="shared" si="2"/>
-        <v>125.7</v>
+        <v>127.8</v>
       </c>
       <c r="S10" s="15">
         <f t="shared" si="3"/>
@@ -4611,7 +4637,7 @@
       </c>
       <c r="T10" s="15">
         <f t="shared" si="4"/>
-        <v>17.504428011220547</v>
+        <v>18.674049135394089</v>
       </c>
       <c r="W10" s="55">
         <f t="shared" si="5"/>
@@ -4649,9 +4675,9 @@
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="AF10" s="56" t="str">
+      <c r="AF10" s="56">
         <f t="shared" si="14"/>
-        <v/>
+        <v>12</v>
       </c>
       <c r="AG10" s="56" t="str">
         <f t="shared" si="15"/>
@@ -4667,7 +4693,7 @@
       </c>
       <c r="AJ10" s="43">
         <f t="shared" si="18"/>
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4704,17 +4730,19 @@
       <c r="K11" s="36">
         <v>81.099999999999994</v>
       </c>
-      <c r="L11" s="36"/>
+      <c r="L11" s="36">
+        <v>83.9</v>
+      </c>
       <c r="M11" s="36"/>
       <c r="N11" s="36"/>
       <c r="O11" s="8"/>
       <c r="P11" s="16">
         <f t="shared" si="0"/>
-        <v>901.4</v>
+        <v>985.3</v>
       </c>
       <c r="Q11" s="16">
         <f t="shared" si="1"/>
-        <v>100.15555555555555</v>
+        <v>98.53</v>
       </c>
       <c r="R11" s="17">
         <f t="shared" si="2"/>
@@ -4726,7 +4754,7 @@
       </c>
       <c r="T11" s="17">
         <f t="shared" si="4"/>
-        <v>28.218925879235339</v>
+        <v>27.097111367163194</v>
       </c>
       <c r="W11" s="55">
         <f t="shared" si="5"/>
@@ -4764,9 +4792,9 @@
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="AF11" s="56" t="str">
+      <c r="AF11" s="56">
         <f t="shared" si="14"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AG11" s="56" t="str">
         <f t="shared" si="15"/>
@@ -4782,7 +4810,7 @@
       </c>
       <c r="AJ11" s="43">
         <f t="shared" si="18"/>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4819,17 +4847,19 @@
       <c r="K12" s="34">
         <v>80.099999999999994</v>
       </c>
-      <c r="L12" s="34"/>
+      <c r="L12" s="34">
+        <v>84</v>
+      </c>
       <c r="M12" s="34"/>
       <c r="N12" s="34"/>
       <c r="O12" s="9"/>
       <c r="P12" s="14">
         <f t="shared" ref="P12:P17" si="19">SUM(C12:O12)</f>
-        <v>903.1</v>
+        <v>987.1</v>
       </c>
       <c r="Q12" s="14">
         <f t="shared" ref="Q12:Q17" si="20">AVERAGE(C12:O12)</f>
-        <v>100.34444444444445</v>
+        <v>98.710000000000008</v>
       </c>
       <c r="R12" s="15">
         <f t="shared" ref="R12:R17" si="21">MAX(C12:O12)</f>
@@ -4841,7 +4871,7 @@
       </c>
       <c r="T12" s="15">
         <f t="shared" ref="T12:T17" si="23">STDEV(C12:O12)</f>
-        <v>22.791616392388182</v>
+        <v>22.101002993831127</v>
       </c>
       <c r="W12" s="55">
         <f t="shared" si="5"/>
@@ -4879,9 +4909,9 @@
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="AF12" s="56" t="str">
+      <c r="AF12" s="56">
         <f t="shared" si="14"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="AG12" s="56" t="str">
         <f t="shared" si="15"/>
@@ -4897,7 +4927,7 @@
       </c>
       <c r="AJ12" s="43">
         <f t="shared" si="18"/>
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4934,17 +4964,19 @@
       <c r="K13" s="36">
         <v>70.8</v>
       </c>
-      <c r="L13" s="36"/>
+      <c r="L13" s="36">
+        <v>110.4</v>
+      </c>
       <c r="M13" s="36"/>
       <c r="N13" s="36"/>
       <c r="O13" s="8"/>
       <c r="P13" s="16">
         <f t="shared" si="19"/>
-        <v>876.40000000000009</v>
+        <v>986.80000000000007</v>
       </c>
       <c r="Q13" s="16">
         <f t="shared" si="20"/>
-        <v>97.377777777777794</v>
+        <v>98.68</v>
       </c>
       <c r="R13" s="17">
         <f t="shared" si="21"/>
@@ -4956,7 +4988,7 @@
       </c>
       <c r="T13" s="17">
         <f t="shared" si="23"/>
-        <v>19.216970220210044</v>
+        <v>18.580025116595799</v>
       </c>
       <c r="W13" s="55">
         <f t="shared" si="5"/>
@@ -4994,9 +5026,9 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="AF13" s="56" t="str">
+      <c r="AF13" s="56">
         <f t="shared" si="14"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="AG13" s="56" t="str">
         <f t="shared" si="15"/>
@@ -5012,7 +5044,7 @@
       </c>
       <c r="AJ13" s="43">
         <f t="shared" si="18"/>
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5049,21 +5081,23 @@
       <c r="K14" s="34">
         <v>136.5</v>
       </c>
-      <c r="L14" s="34"/>
+      <c r="L14" s="34">
+        <v>144</v>
+      </c>
       <c r="M14" s="34"/>
       <c r="N14" s="34"/>
       <c r="O14" s="9"/>
       <c r="P14" s="14">
         <f t="shared" si="19"/>
-        <v>967.3</v>
+        <v>1111.3</v>
       </c>
       <c r="Q14" s="14">
         <f t="shared" si="20"/>
-        <v>107.47777777777777</v>
+        <v>111.13</v>
       </c>
       <c r="R14" s="15">
         <f t="shared" si="21"/>
-        <v>136.5</v>
+        <v>144</v>
       </c>
       <c r="S14" s="15">
         <f t="shared" si="22"/>
@@ -5071,7 +5105,7 @@
       </c>
       <c r="T14" s="15">
         <f t="shared" si="23"/>
-        <v>18.139995712360211</v>
+        <v>20.636970600249366</v>
       </c>
       <c r="W14" s="55">
         <f t="shared" si="5"/>
@@ -5109,9 +5143,9 @@
         <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="AF14" s="56" t="str">
+      <c r="AF14" s="56">
         <f t="shared" si="14"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="AG14" s="56" t="str">
         <f t="shared" si="15"/>
@@ -5127,7 +5161,7 @@
       </c>
       <c r="AJ14" s="43">
         <f t="shared" si="18"/>
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5164,17 +5198,19 @@
       <c r="K15" s="36">
         <v>95.8</v>
       </c>
-      <c r="L15" s="36"/>
+      <c r="L15" s="36">
+        <v>82.1</v>
+      </c>
       <c r="M15" s="36"/>
       <c r="N15" s="36"/>
       <c r="O15" s="8"/>
       <c r="P15" s="16">
         <f t="shared" si="19"/>
-        <v>866.00000000000011</v>
+        <v>948.10000000000014</v>
       </c>
       <c r="Q15" s="16">
         <f t="shared" si="20"/>
-        <v>96.222222222222229</v>
+        <v>94.810000000000016</v>
       </c>
       <c r="R15" s="17">
         <f t="shared" si="21"/>
@@ -5186,7 +5222,7 @@
       </c>
       <c r="T15" s="17">
         <f t="shared" si="23"/>
-        <v>12.639103783276779</v>
+        <v>12.725604111396759</v>
       </c>
       <c r="W15" s="55">
         <f t="shared" si="5"/>
@@ -5224,9 +5260,9 @@
         <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="AF15" s="56" t="str">
+      <c r="AF15" s="56">
         <f t="shared" si="14"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AG15" s="56" t="str">
         <f t="shared" si="15"/>
@@ -5242,7 +5278,7 @@
       </c>
       <c r="AJ15" s="43">
         <f t="shared" si="18"/>
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5279,21 +5315,23 @@
       <c r="K16" s="34">
         <v>102.4</v>
       </c>
-      <c r="L16" s="34"/>
+      <c r="L16" s="34">
+        <v>148.1</v>
+      </c>
       <c r="M16" s="34"/>
       <c r="N16" s="34"/>
       <c r="O16" s="9"/>
       <c r="P16" s="14">
         <f t="shared" si="19"/>
-        <v>881.69999999999993</v>
+        <v>1029.8</v>
       </c>
       <c r="Q16" s="14">
         <f t="shared" si="20"/>
-        <v>97.966666666666654</v>
+        <v>102.97999999999999</v>
       </c>
       <c r="R16" s="15">
         <f t="shared" si="21"/>
-        <v>120.4</v>
+        <v>148.1</v>
       </c>
       <c r="S16" s="15">
         <f t="shared" si="22"/>
@@ -5301,7 +5339,7 @@
       </c>
       <c r="T16" s="15">
         <f t="shared" si="23"/>
-        <v>18.348433175614776</v>
+        <v>23.464715828002085</v>
       </c>
       <c r="W16" s="55">
         <f t="shared" si="5"/>
@@ -5339,9 +5377,9 @@
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="AF16" s="56" t="str">
+      <c r="AF16" s="56">
         <f t="shared" si="14"/>
-        <v/>
+        <v>14</v>
       </c>
       <c r="AG16" s="56" t="str">
         <f t="shared" si="15"/>
@@ -5357,7 +5395,7 @@
       </c>
       <c r="AJ16" s="43">
         <f t="shared" si="18"/>
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:41" ht="24" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5553,11 +5591,11 @@
     <row r="19" spans="1:41" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P19" s="11">
         <f>SUM(C3:O18)</f>
-        <v>12569.399999999998</v>
+        <v>14034.699999999997</v>
       </c>
       <c r="Q19" s="11">
         <f>AVERAGE(C3:O18)</f>
-        <v>99.757142857142838</v>
+        <v>100.24785714285713</v>
       </c>
       <c r="R19" s="18">
         <f>MAX(C3:O18)</f>
@@ -5569,7 +5607,7 @@
       </c>
       <c r="T19" s="18">
         <f>STDEV(C3:O18)</f>
-        <v>21.080787190506694</v>
+        <v>21.161086411357616</v>
       </c>
     </row>
     <row r="20" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -5624,23 +5662,21 @@
         <v>Spos Before Hos</v>
       </c>
       <c r="C22" s="21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="46">
         <f>AJ3</f>
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E22" s="49">
         <f t="shared" ref="E22:E31" si="24">IF(D3="",-99,IF(T3=0,1,(Q3-$Q$19)/T3))</f>
-        <v>1.0769036393334557</v>
+        <v>1.0039212785126068</v>
       </c>
       <c r="F22" s="28">
         <f>IF(C3="",0,Q3)</f>
-        <v>115.04444444444445</v>
-      </c>
-      <c r="G22" s="39">
-        <v>100</v>
-      </c>
+        <v>114.05</v>
+      </c>
+      <c r="G22" s="39"/>
       <c r="H22" s="22">
         <f>IF(C22="",16,RANK(C22,$C$22:$C$37,0))</f>
         <v>1</v>
@@ -5659,7 +5695,7 @@
       </c>
       <c r="L22" s="22">
         <f t="shared" ref="L22" si="25">IF(G22="",16,RANK(G22,$G$22:$G$37,0))</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="N22" s="104"/>
       <c r="O22" s="104"/>
@@ -5677,23 +5713,21 @@
         <v>Little Miss Moffet</v>
       </c>
       <c r="C23" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" s="47">
         <f t="shared" ref="D23:D37" si="26">AJ4</f>
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E23" s="50">
         <f t="shared" si="24"/>
-        <v>-0.40323442545560995</v>
+        <v>-0.47107578321064092</v>
       </c>
       <c r="F23" s="28">
         <f t="shared" ref="F23:F37" si="27">IF(C4="",0,Q4)</f>
-        <v>89.98888888888888</v>
-      </c>
-      <c r="G23" s="40">
-        <v>85</v>
-      </c>
+        <v>89.460000000000008</v>
+      </c>
+      <c r="G23" s="40"/>
       <c r="H23" s="24">
         <f t="shared" ref="H23:H37" si="28">IF(C23="",16,RANK(C23,$C$22:$C$37,0))</f>
         <v>7</v>
@@ -5712,7 +5746,7 @@
       </c>
       <c r="L23" s="24">
         <f t="shared" ref="L23:L37" si="31">IF(G23="",16,RANK(G23,$G$22:$G$37,0))</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N23" s="30"/>
       <c r="O23" s="30"/>
@@ -5730,19 +5764,17 @@
       </c>
       <c r="D24" s="47">
         <f t="shared" si="26"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E24" s="50">
         <f t="shared" si="24"/>
-        <v>-1.0769577622171695</v>
+        <v>-1.1260265142081674</v>
       </c>
       <c r="F24" s="28">
         <f t="shared" si="27"/>
-        <v>82.477777777777803</v>
-      </c>
-      <c r="G24" s="40">
-        <v>85</v>
-      </c>
+        <v>83.080000000000013</v>
+      </c>
+      <c r="G24" s="40"/>
       <c r="H24" s="24">
         <f t="shared" si="28"/>
         <v>13</v>
@@ -5761,7 +5793,7 @@
       </c>
       <c r="L24" s="24">
         <f t="shared" si="31"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N24" s="104" t="s">
         <v>44</v>
@@ -5791,22 +5823,20 @@
       </c>
       <c r="D25" s="47">
         <f t="shared" si="26"/>
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E25" s="50">
         <f t="shared" si="24"/>
-        <v>-0.10450593460146654</v>
+        <v>-0.13663334873977381</v>
       </c>
       <c r="F25" s="28">
         <f t="shared" si="27"/>
-        <v>98.055555555555571</v>
-      </c>
-      <c r="G25" s="40">
-        <v>86</v>
-      </c>
+        <v>98.15</v>
+      </c>
+      <c r="G25" s="40"/>
       <c r="H25" s="24">
         <f t="shared" si="28"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I25" s="24">
         <f t="shared" si="29"/>
@@ -5814,15 +5844,15 @@
       </c>
       <c r="J25" s="24">
         <f>RANK(E25,$E$22:$E40,0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K25" s="24">
         <f t="shared" si="30"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L25" s="24">
         <f t="shared" si="31"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N25" s="104"/>
       <c r="O25" s="104"/>
@@ -5850,19 +5880,17 @@
       </c>
       <c r="D26" s="47">
         <f t="shared" si="26"/>
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E26" s="50">
         <f t="shared" si="24"/>
-        <v>-0.1804718541825002</v>
+        <v>-0.18745482336470703</v>
       </c>
       <c r="F26" s="28">
         <f t="shared" si="27"/>
-        <v>95.688888888888911</v>
-      </c>
-      <c r="G26" s="40">
-        <v>95</v>
-      </c>
+        <v>96.250000000000014</v>
+      </c>
+      <c r="G26" s="40"/>
       <c r="H26" s="24">
         <f t="shared" si="28"/>
         <v>10</v>
@@ -5877,11 +5905,11 @@
       </c>
       <c r="K26" s="24">
         <f t="shared" si="30"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L26" s="24">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="N26" s="30"/>
       <c r="O26" s="30"/>
@@ -5895,34 +5923,32 @@
         <v>Deflate Deez Nutz</v>
       </c>
       <c r="C27" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D27" s="47">
         <f t="shared" si="26"/>
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E27" s="50">
         <f t="shared" si="24"/>
-        <v>0.19451844862849646</v>
+        <v>0.1231843563600282</v>
       </c>
       <c r="F27" s="28">
         <f t="shared" si="27"/>
-        <v>104.53333333333333</v>
-      </c>
-      <c r="G27" s="40">
-        <v>69</v>
-      </c>
+        <v>103.15</v>
+      </c>
+      <c r="G27" s="40"/>
       <c r="H27" s="24">
         <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="I27" s="24">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J27" s="24">
         <f>RANK(E27,$E$22:$E42,0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K27" s="24">
         <f t="shared" si="30"/>
@@ -5930,7 +5956,7 @@
       </c>
       <c r="L27" s="24">
         <f t="shared" si="31"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N27" s="100" t="s">
         <v>45</v>
@@ -5950,30 +5976,28 @@
         <v>Team Gregory</v>
       </c>
       <c r="C28" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D28" s="47">
         <f t="shared" si="26"/>
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="E28" s="50">
         <f t="shared" si="24"/>
-        <v>0.42432493505580837</v>
+        <v>0.4481001011128512</v>
       </c>
       <c r="F28" s="28">
         <f t="shared" si="27"/>
-        <v>111.10000000000001</v>
-      </c>
-      <c r="G28" s="40">
-        <v>98</v>
-      </c>
+        <v>111.56000000000002</v>
+      </c>
+      <c r="G28" s="40"/>
       <c r="H28" s="24">
         <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="I28" s="24">
         <f t="shared" si="29"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J28" s="24">
         <f>RANK(E28,$E$22:$E43,0)</f>
@@ -5985,7 +6009,7 @@
       </c>
       <c r="L28" s="24">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="N28" s="100"/>
       <c r="O28" s="100"/>
@@ -6007,19 +6031,17 @@
       </c>
       <c r="D29" s="47">
         <f t="shared" si="26"/>
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E29" s="50">
         <f t="shared" si="24"/>
-        <v>2.3395440814251302E-2</v>
+        <v>0.14362942057698838</v>
       </c>
       <c r="F29" s="28">
         <f t="shared" si="27"/>
-        <v>100.16666666666667</v>
-      </c>
-      <c r="G29" s="40">
-        <v>96</v>
-      </c>
+        <v>102.92999999999999</v>
+      </c>
+      <c r="G29" s="40"/>
       <c r="H29" s="24">
         <f t="shared" si="28"/>
         <v>13</v>
@@ -6028,14 +6050,17 @@
         <f t="shared" si="29"/>
         <v>6</v>
       </c>
-      <c r="J29" s="24"/>
+      <c r="J29" s="24">
+        <f>RANK(E29,$E$22:$E44,0)</f>
+        <v>4</v>
+      </c>
       <c r="K29" s="24">
         <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="L29" s="24">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="N29" s="100"/>
       <c r="O29" s="100"/>
@@ -6057,26 +6082,24 @@
       </c>
       <c r="D30" s="47">
         <f t="shared" si="26"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E30" s="50">
         <f t="shared" si="24"/>
-        <v>1.4118634427041804E-2</v>
+        <v>-6.3396319983349228E-2</v>
       </c>
       <c r="F30" s="28">
         <f t="shared" si="27"/>
-        <v>100.15555555555555</v>
-      </c>
-      <c r="G30" s="40">
-        <v>81</v>
-      </c>
+        <v>98.53</v>
+      </c>
+      <c r="G30" s="40"/>
       <c r="H30" s="24">
         <f t="shared" si="28"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I30" s="24">
         <f t="shared" si="29"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J30" s="24">
         <f>RANK(E30,$E$22:$E45,0)</f>
@@ -6084,11 +6107,11 @@
       </c>
       <c r="K30" s="24">
         <f t="shared" si="30"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L30" s="24">
         <f t="shared" si="31"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N30" s="100"/>
       <c r="O30" s="100"/>
@@ -6110,38 +6133,36 @@
       </c>
       <c r="D31" s="47">
         <f t="shared" si="26"/>
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E31" s="50">
         <f t="shared" si="24"/>
-        <v>2.5768316612144886E-2</v>
+        <v>-6.9583138072347672E-2</v>
       </c>
       <c r="F31" s="28">
         <f t="shared" si="27"/>
-        <v>100.34444444444445</v>
-      </c>
-      <c r="G31" s="40">
-        <v>68</v>
-      </c>
+        <v>98.710000000000008</v>
+      </c>
+      <c r="G31" s="40"/>
       <c r="H31" s="24">
         <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I31" s="24">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J31" s="24">
         <f>RANK(E31,$E$22:$E46,0)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K31" s="24">
         <f t="shared" si="30"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L31" s="24">
         <f t="shared" si="31"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N31" s="100"/>
       <c r="O31" s="100"/>
@@ -6159,42 +6180,40 @@
         <v>OhNo Romo</v>
       </c>
       <c r="C32" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D32" s="47">
         <f t="shared" si="26"/>
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E32" s="50">
         <f>IF(D13="",-99,IF(T13=0,1,(Q13-$Q$19)/T13))</f>
-        <v>-0.12381582799471276</v>
+        <v>-8.4384016330349393E-2</v>
       </c>
       <c r="F32" s="28">
         <f t="shared" si="27"/>
-        <v>97.377777777777794</v>
-      </c>
-      <c r="G32" s="40">
-        <v>88</v>
-      </c>
+        <v>98.68</v>
+      </c>
+      <c r="G32" s="40"/>
       <c r="H32" s="24">
         <f t="shared" si="28"/>
         <v>6</v>
       </c>
       <c r="I32" s="24">
         <f t="shared" si="29"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J32" s="24">
         <f>RANK(E32,$E$22:$E47,0)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K32" s="24">
         <f t="shared" si="30"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L32" s="24">
         <f t="shared" si="31"/>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N32" s="77"/>
       <c r="O32" s="77"/>
@@ -6212,30 +6231,28 @@
         <v>Cool Hand Lou</v>
       </c>
       <c r="C33" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D33" s="47">
         <f t="shared" si="26"/>
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="E33" s="50">
         <f t="shared" ref="E33:E37" si="32">IF(D14="",-99,IF(T14=0,1,(Q14-$Q$19)/T14))</f>
-        <v>0.42561393304929274</v>
+        <v>0.52731299898306649</v>
       </c>
       <c r="F33" s="28">
         <f t="shared" si="27"/>
-        <v>107.47777777777777</v>
-      </c>
-      <c r="G33" s="40">
-        <v>94</v>
-      </c>
+        <v>111.13</v>
+      </c>
+      <c r="G33" s="40"/>
       <c r="H33" s="24">
         <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="I33" s="24">
         <f t="shared" si="29"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J33" s="24">
         <f>RANK(E33,$E$22:$E48,0)</f>
@@ -6247,7 +6264,7 @@
       </c>
       <c r="L33" s="24">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="N33" s="100" t="s">
         <v>47</v>
@@ -6271,19 +6288,17 @@
       </c>
       <c r="D34" s="47">
         <f t="shared" si="26"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E34" s="50">
         <f t="shared" si="32"/>
-        <v>-0.27968127293944539</v>
+        <v>-0.4273162276034575</v>
       </c>
       <c r="F34" s="28">
         <f t="shared" si="27"/>
-        <v>96.222222222222229</v>
-      </c>
-      <c r="G34" s="40">
-        <v>87</v>
-      </c>
+        <v>94.810000000000016</v>
+      </c>
+      <c r="G34" s="40"/>
       <c r="H34" s="24">
         <f t="shared" si="28"/>
         <v>10</v>
@@ -6298,11 +6313,11 @@
       </c>
       <c r="K34" s="24">
         <f t="shared" si="30"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L34" s="24">
         <f t="shared" si="31"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N34" s="100"/>
       <c r="O34" s="100"/>
@@ -6320,42 +6335,40 @@
         <v>Team Force</v>
       </c>
       <c r="C35" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D35" s="47">
         <f t="shared" si="26"/>
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E35" s="50">
         <f t="shared" si="32"/>
-        <v>-9.7581966445818499E-2</v>
+        <v>0.11643622182214558</v>
       </c>
       <c r="F35" s="28">
         <f t="shared" si="27"/>
-        <v>97.966666666666654</v>
-      </c>
-      <c r="G35" s="40">
-        <v>94</v>
-      </c>
+        <v>102.97999999999999</v>
+      </c>
+      <c r="G35" s="40"/>
       <c r="H35" s="24">
         <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="I35" s="24">
         <f t="shared" si="29"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J35" s="24">
         <f>RANK(E35,$E$22:$E50,0)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K35" s="24">
         <f t="shared" si="30"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L35" s="24">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="N35" s="100"/>
       <c r="O35" s="100"/>
@@ -6548,8 +6561,13 @@
     <mergeCell ref="N21:S22"/>
     <mergeCell ref="N24:S25"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:O18">
-    <cfRule type="cellIs" dxfId="55" priority="3" operator="equal">
+  <conditionalFormatting sqref="C17:O18 M3:O16">
+    <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:L16">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6616,7 +6634,7 @@
       </c>
       <c r="D3" s="82">
         <f t="shared" ref="D3:D18" si="1">AVERAGE(3*E3,F3,G3,H3,I3)</f>
-        <v>1.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E3" s="83">
         <f>POINTS!H22</f>
@@ -6636,7 +6654,7 @@
       </c>
       <c r="I3" s="84">
         <f>POINTS!L22</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J3" s="78"/>
     </row>
@@ -6647,11 +6665,11 @@
       </c>
       <c r="C4" s="71">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="85">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15.2</v>
       </c>
       <c r="E4" s="86">
         <f>POINTS!H23</f>
@@ -6671,7 +6689,7 @@
       </c>
       <c r="I4" s="87">
         <f>POINTS!L23</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J4" s="79"/>
     </row>
@@ -6686,7 +6704,7 @@
       </c>
       <c r="D5" s="85">
         <f t="shared" si="1"/>
-        <v>18.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="E5" s="86">
         <f>POINTS!H24</f>
@@ -6706,7 +6724,7 @@
       </c>
       <c r="I5" s="87">
         <f>POINTS!L24</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J5" s="79"/>
     </row>
@@ -6717,15 +6735,15 @@
       </c>
       <c r="C6" s="71">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6" s="85">
         <f t="shared" si="1"/>
-        <v>10.8</v>
+        <v>13.4</v>
       </c>
       <c r="E6" s="86">
         <f>POINTS!H25</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="86">
         <f>POINTS!I25</f>
@@ -6733,15 +6751,15 @@
       </c>
       <c r="G6" s="86">
         <f>POINTS!J25</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6" s="86">
         <f>POINTS!K25</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I6" s="87">
         <f>POINTS!L25</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J6" s="79"/>
     </row>
@@ -6752,11 +6770,11 @@
       </c>
       <c r="C7" s="71">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="85">
         <f t="shared" si="1"/>
-        <v>13.4</v>
+        <v>15.6</v>
       </c>
       <c r="E7" s="86">
         <f>POINTS!H26</f>
@@ -6772,11 +6790,11 @@
       </c>
       <c r="H7" s="86">
         <f>POINTS!K26</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7" s="87">
         <f>POINTS!L26</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J7" s="79"/>
     </row>
@@ -6791,7 +6809,7 @@
       </c>
       <c r="D8" s="85">
         <f t="shared" si="1"/>
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="E8" s="86">
         <f>POINTS!H27</f>
@@ -6799,11 +6817,11 @@
       </c>
       <c r="F8" s="86">
         <f>POINTS!I27</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8" s="86">
         <f>POINTS!J27</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8" s="86">
         <f>POINTS!K27</f>
@@ -6811,7 +6829,7 @@
       </c>
       <c r="I8" s="87">
         <f>POINTS!L27</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J8" s="79"/>
     </row>
@@ -6826,7 +6844,7 @@
       </c>
       <c r="D9" s="85">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6.6</v>
       </c>
       <c r="E9" s="86">
         <f>POINTS!H28</f>
@@ -6834,7 +6852,7 @@
       </c>
       <c r="F9" s="86">
         <f>POINTS!I28</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" s="86">
         <f>POINTS!J28</f>
@@ -6846,7 +6864,7 @@
       </c>
       <c r="I9" s="87">
         <f>POINTS!L28</f>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J9" s="79"/>
     </row>
@@ -6857,11 +6875,11 @@
       </c>
       <c r="C10" s="71">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D10" s="85">
         <f t="shared" si="1"/>
-        <v>10.8</v>
+        <v>14.2</v>
       </c>
       <c r="E10" s="86">
         <f>POINTS!H29</f>
@@ -6873,7 +6891,7 @@
       </c>
       <c r="G10" s="86">
         <f>POINTS!J29</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H10" s="86">
         <f>POINTS!K29</f>
@@ -6881,7 +6899,7 @@
       </c>
       <c r="I10" s="87">
         <f>POINTS!L29</f>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J10" s="79"/>
     </row>
@@ -6892,19 +6910,19 @@
       </c>
       <c r="C11" s="71">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" s="85">
         <f t="shared" si="1"/>
-        <v>10.8</v>
+        <v>13.2</v>
       </c>
       <c r="E11" s="86">
         <f>POINTS!H30</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="86">
         <f>POINTS!I30</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G11" s="86">
         <f>POINTS!J30</f>
@@ -6912,11 +6930,11 @@
       </c>
       <c r="H11" s="86">
         <f>POINTS!K30</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I11" s="87">
         <f>POINTS!L30</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J11" s="79"/>
     </row>
@@ -6927,11 +6945,11 @@
       </c>
       <c r="C12" s="71">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="85">
         <f t="shared" si="1"/>
-        <v>11.8</v>
+        <v>13.8</v>
       </c>
       <c r="E12" s="86">
         <f>POINTS!H31</f>
@@ -6939,19 +6957,19 @@
       </c>
       <c r="F12" s="86">
         <f>POINTS!I31</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G12" s="86">
         <f>POINTS!J31</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H12" s="86">
         <f>POINTS!K31</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I12" s="87">
         <f>POINTS!L31</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J12" s="79"/>
     </row>
@@ -6962,11 +6980,11 @@
       </c>
       <c r="C13" s="71">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D13" s="85">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E13" s="86">
         <f>POINTS!H32</f>
@@ -6974,19 +6992,19 @@
       </c>
       <c r="F13" s="86">
         <f>POINTS!I32</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" s="86">
         <f>POINTS!J32</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H13" s="86">
         <f>POINTS!K32</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I13" s="87">
         <f>POINTS!L32</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J13" s="79"/>
     </row>
@@ -7001,7 +7019,7 @@
       </c>
       <c r="D14" s="85">
         <f t="shared" si="1"/>
-        <v>3.8</v>
+        <v>5.8</v>
       </c>
       <c r="E14" s="86">
         <f>POINTS!H33</f>
@@ -7009,7 +7027,7 @@
       </c>
       <c r="F14" s="86">
         <f>POINTS!I33</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" s="86">
         <f>POINTS!J33</f>
@@ -7021,7 +7039,7 @@
       </c>
       <c r="I14" s="87">
         <f>POINTS!L33</f>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J14" s="79"/>
     </row>
@@ -7036,7 +7054,7 @@
       </c>
       <c r="D15" s="85">
         <f t="shared" si="1"/>
-        <v>14.6</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="E15" s="86">
         <f>POINTS!H34</f>
@@ -7052,11 +7070,11 @@
       </c>
       <c r="H15" s="86">
         <f>POINTS!K34</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I15" s="87">
         <f>POINTS!L34</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J15" s="79"/>
     </row>
@@ -7071,7 +7089,7 @@
       </c>
       <c r="D16" s="85">
         <f t="shared" si="1"/>
-        <v>7.6</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E16" s="86">
         <f>POINTS!H35</f>
@@ -7079,19 +7097,19 @@
       </c>
       <c r="F16" s="86">
         <f>POINTS!I35</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G16" s="86">
         <f>POINTS!J35</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H16" s="86">
         <f>POINTS!K35</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I16" s="87">
         <f>POINTS!L35</f>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J16" s="79"/>
     </row>
@@ -7183,7 +7201,7 @@
   <dimension ref="B2:J17"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B3" sqref="B3:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -7236,7 +7254,7 @@
       </c>
       <c r="D3" s="82">
         <f t="shared" ref="D3:D16" si="1">AVERAGE(3*E3,F3,G3,H3,I3)</f>
-        <v>1.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E3" s="83">
         <f>POINTS!H22</f>
@@ -7256,217 +7274,217 @@
       </c>
       <c r="I3" s="84">
         <f>POINTS!L22</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J3" s="78"/>
     </row>
     <row r="4" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="92" t="str">
-        <f>POINTS!B14</f>
-        <v>Cool Hand Lou</v>
+        <f>POINTS!B4</f>
+        <v>Little Miss Moffet</v>
       </c>
       <c r="C4" s="71">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D4" s="85">
         <f t="shared" si="1"/>
-        <v>3.8</v>
+        <v>15.2</v>
       </c>
       <c r="E4" s="86">
-        <f>POINTS!H33</f>
-        <v>2</v>
+        <f>POINTS!H23</f>
+        <v>7</v>
       </c>
       <c r="F4" s="86">
-        <f>POINTS!I33</f>
-        <v>3</v>
+        <f>POINTS!I23</f>
+        <v>13</v>
       </c>
       <c r="G4" s="86">
-        <f>POINTS!J33</f>
-        <v>2</v>
+        <f>POINTS!J23</f>
+        <v>13</v>
       </c>
       <c r="H4" s="86">
-        <f>POINTS!K33</f>
-        <v>3</v>
+        <f>POINTS!K23</f>
+        <v>13</v>
       </c>
       <c r="I4" s="87">
-        <f>POINTS!L33</f>
-        <v>5</v>
+        <f>POINTS!L23</f>
+        <v>16</v>
       </c>
       <c r="J4" s="79"/>
     </row>
     <row r="5" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B5" s="92" t="str">
+        <f>POINTS!B5</f>
+        <v>SUPERMAX LOCO</v>
+      </c>
+      <c r="C5" s="71">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D5" s="85">
+        <f t="shared" si="1"/>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E5" s="86">
+        <f>POINTS!H24</f>
+        <v>13</v>
+      </c>
+      <c r="F5" s="86">
+        <f>POINTS!I24</f>
+        <v>14</v>
+      </c>
+      <c r="G5" s="86">
+        <f>POINTS!J24</f>
+        <v>14</v>
+      </c>
+      <c r="H5" s="86">
+        <f>POINTS!K24</f>
+        <v>14</v>
+      </c>
+      <c r="I5" s="87">
+        <f>POINTS!L24</f>
+        <v>16</v>
+      </c>
+      <c r="J5" s="79"/>
+    </row>
+    <row r="6" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="92" t="str">
+        <f>POINTS!B6</f>
+        <v>Team Thomas</v>
+      </c>
+      <c r="C6" s="71">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D6" s="85">
+        <f t="shared" si="1"/>
+        <v>13.4</v>
+      </c>
+      <c r="E6" s="86">
+        <f>POINTS!H25</f>
+        <v>8</v>
+      </c>
+      <c r="F6" s="86">
+        <f>POINTS!I25</f>
+        <v>7</v>
+      </c>
+      <c r="G6" s="86">
+        <f>POINTS!J25</f>
+        <v>10</v>
+      </c>
+      <c r="H6" s="86">
+        <f>POINTS!K25</f>
+        <v>10</v>
+      </c>
+      <c r="I6" s="87">
+        <f>POINTS!L25</f>
+        <v>16</v>
+      </c>
+      <c r="J6" s="79"/>
+    </row>
+    <row r="7" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="92" t="str">
+        <f>POINTS!B7</f>
+        <v>Gurley Gone Wild</v>
+      </c>
+      <c r="C7" s="71">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D7" s="85">
+        <f t="shared" si="1"/>
+        <v>15.6</v>
+      </c>
+      <c r="E7" s="86">
+        <f>POINTS!H26</f>
+        <v>10</v>
+      </c>
+      <c r="F7" s="86">
+        <f>POINTS!I26</f>
+        <v>10</v>
+      </c>
+      <c r="G7" s="86">
+        <f>POINTS!J26</f>
+        <v>11</v>
+      </c>
+      <c r="H7" s="86">
+        <f>POINTS!K26</f>
+        <v>11</v>
+      </c>
+      <c r="I7" s="87">
+        <f>POINTS!L26</f>
+        <v>16</v>
+      </c>
+      <c r="J7" s="79"/>
+    </row>
+    <row r="8" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="92" t="str">
+        <f>POINTS!B8</f>
+        <v>Deflate Deez Nutz</v>
+      </c>
+      <c r="C8" s="71">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D8" s="85">
+        <f t="shared" si="1"/>
+        <v>7.6</v>
+      </c>
+      <c r="E8" s="86">
+        <f>POINTS!H27</f>
+        <v>3</v>
+      </c>
+      <c r="F8" s="86">
+        <f>POINTS!I27</f>
+        <v>4</v>
+      </c>
+      <c r="G8" s="86">
+        <f>POINTS!J27</f>
+        <v>5</v>
+      </c>
+      <c r="H8" s="86">
+        <f>POINTS!K27</f>
+        <v>4</v>
+      </c>
+      <c r="I8" s="87">
+        <f>POINTS!L27</f>
+        <v>16</v>
+      </c>
+      <c r="J8" s="79"/>
+    </row>
+    <row r="9" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="92" t="str">
         <f>POINTS!B9</f>
         <v>Team Gregory</v>
       </c>
-      <c r="C5" s="71">
+      <c r="C9" s="71">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D5" s="85">
+      <c r="D9" s="85">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E5" s="86">
+        <v>6.6</v>
+      </c>
+      <c r="E9" s="86">
         <f>POINTS!H28</f>
         <v>3</v>
       </c>
-      <c r="F5" s="86">
+      <c r="F9" s="86">
         <f>POINTS!I28</f>
-        <v>4</v>
-      </c>
-      <c r="G5" s="86">
+        <v>3</v>
+      </c>
+      <c r="G9" s="86">
         <f>POINTS!J28</f>
         <v>3</v>
       </c>
-      <c r="H5" s="86">
+      <c r="H9" s="86">
         <f>POINTS!K28</f>
         <v>2</v>
       </c>
-      <c r="I5" s="87">
+      <c r="I9" s="87">
         <f>POINTS!L28</f>
-        <v>2</v>
-      </c>
-      <c r="J5" s="79"/>
-    </row>
-    <row r="6" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="92" t="str">
-        <f>POINTS!B8</f>
-        <v>Deflate Deez Nutz</v>
-      </c>
-      <c r="C6" s="71">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D6" s="85">
-        <f t="shared" si="1"/>
-        <v>6.4</v>
-      </c>
-      <c r="E6" s="86">
-        <f>POINTS!H27</f>
-        <v>3</v>
-      </c>
-      <c r="F6" s="86">
-        <f>POINTS!I27</f>
-        <v>2</v>
-      </c>
-      <c r="G6" s="86">
-        <f>POINTS!J27</f>
-        <v>4</v>
-      </c>
-      <c r="H6" s="86">
-        <f>POINTS!K27</f>
-        <v>4</v>
-      </c>
-      <c r="I6" s="87">
-        <f>POINTS!L27</f>
-        <v>13</v>
-      </c>
-      <c r="J6" s="79"/>
-    </row>
-    <row r="7" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="92" t="str">
-        <f>POINTS!B16</f>
-        <v>Team Force</v>
-      </c>
-      <c r="C7" s="71">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D7" s="85">
-        <f t="shared" si="1"/>
-        <v>7.6</v>
-      </c>
-      <c r="E7" s="86">
-        <f>POINTS!H35</f>
-        <v>3</v>
-      </c>
-      <c r="F7" s="86">
-        <f>POINTS!I35</f>
-        <v>7</v>
-      </c>
-      <c r="G7" s="86">
-        <f>POINTS!J35</f>
-        <v>8</v>
-      </c>
-      <c r="H7" s="86">
-        <f>POINTS!K35</f>
-        <v>9</v>
-      </c>
-      <c r="I7" s="87">
-        <f>POINTS!L35</f>
-        <v>5</v>
-      </c>
-      <c r="J7" s="79"/>
-    </row>
-    <row r="8" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="92" t="str">
-        <f>POINTS!B6</f>
-        <v>Team Thomas</v>
-      </c>
-      <c r="C8" s="71">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D8" s="85">
-        <f t="shared" si="1"/>
-        <v>10.8</v>
-      </c>
-      <c r="E8" s="86">
-        <f>POINTS!H25</f>
-        <v>7</v>
-      </c>
-      <c r="F8" s="86">
-        <f>POINTS!I25</f>
-        <v>7</v>
-      </c>
-      <c r="G8" s="86">
-        <f>POINTS!J25</f>
-        <v>9</v>
-      </c>
-      <c r="H8" s="86">
-        <f>POINTS!K25</f>
-        <v>8</v>
-      </c>
-      <c r="I8" s="87">
-        <f>POINTS!L25</f>
-        <v>9</v>
-      </c>
-      <c r="J8" s="79"/>
-    </row>
-    <row r="9" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="92" t="str">
-        <f>POINTS!B11</f>
-        <v>SFV Aguilar</v>
-      </c>
-      <c r="C9" s="71">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D9" s="85">
-        <f t="shared" si="1"/>
-        <v>10.8</v>
-      </c>
-      <c r="E9" s="86">
-        <f>POINTS!H30</f>
-        <v>7</v>
-      </c>
-      <c r="F9" s="86">
-        <f>POINTS!I30</f>
-        <v>7</v>
-      </c>
-      <c r="G9" s="86">
-        <f>POINTS!J30</f>
-        <v>7</v>
-      </c>
-      <c r="H9" s="86">
-        <f>POINTS!K30</f>
-        <v>7</v>
-      </c>
-      <c r="I9" s="87">
-        <f>POINTS!L30</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J9" s="79"/>
     </row>
@@ -7477,11 +7495,11 @@
       </c>
       <c r="C10" s="71">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D10" s="85">
         <f t="shared" si="1"/>
-        <v>10.8</v>
+        <v>14.2</v>
       </c>
       <c r="E10" s="86">
         <f>POINTS!H29</f>
@@ -7493,7 +7511,7 @@
       </c>
       <c r="G10" s="86">
         <f>POINTS!J29</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H10" s="86">
         <f>POINTS!K29</f>
@@ -7501,42 +7519,42 @@
       </c>
       <c r="I10" s="87">
         <f>POINTS!L29</f>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J10" s="79"/>
     </row>
     <row r="11" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B11" s="92" t="str">
-        <f>POINTS!B13</f>
-        <v>OhNo Romo</v>
+        <f>POINTS!B11</f>
+        <v>SFV Aguilar</v>
       </c>
       <c r="C11" s="71">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="85">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>13.2</v>
       </c>
       <c r="E11" s="86">
-        <f>POINTS!H32</f>
-        <v>6</v>
+        <f>POINTS!H30</f>
+        <v>8</v>
       </c>
       <c r="F11" s="86">
-        <f>POINTS!I32</f>
+        <f>POINTS!I30</f>
         <v>10</v>
       </c>
       <c r="G11" s="86">
-        <f>POINTS!J32</f>
-        <v>10</v>
+        <f>POINTS!J30</f>
+        <v>7</v>
       </c>
       <c r="H11" s="86">
-        <f>POINTS!K32</f>
-        <v>10</v>
+        <f>POINTS!K30</f>
+        <v>9</v>
       </c>
       <c r="I11" s="87">
-        <f>POINTS!L32</f>
-        <v>7</v>
+        <f>POINTS!L30</f>
+        <v>16</v>
       </c>
       <c r="J11" s="79"/>
     </row>
@@ -7547,11 +7565,11 @@
       </c>
       <c r="C12" s="71">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="85">
         <f t="shared" si="1"/>
-        <v>11.8</v>
+        <v>13.8</v>
       </c>
       <c r="E12" s="86">
         <f>POINTS!H31</f>
@@ -7559,89 +7577,89 @@
       </c>
       <c r="F12" s="86">
         <f>POINTS!I31</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G12" s="86">
         <f>POINTS!J31</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H12" s="86">
         <f>POINTS!K31</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I12" s="87">
         <f>POINTS!L31</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J12" s="79"/>
     </row>
     <row r="13" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="92" t="str">
-        <f>POINTS!B7</f>
-        <v>Gurley Gone Wild</v>
+        <f>POINTS!B13</f>
+        <v>OhNo Romo</v>
       </c>
       <c r="C13" s="71">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D13" s="85">
         <f t="shared" si="1"/>
-        <v>13.4</v>
+        <v>12</v>
       </c>
       <c r="E13" s="86">
-        <f>POINTS!H26</f>
-        <v>10</v>
+        <f>POINTS!H32</f>
+        <v>6</v>
       </c>
       <c r="F13" s="86">
-        <f>POINTS!I26</f>
-        <v>10</v>
+        <f>POINTS!I32</f>
+        <v>9</v>
       </c>
       <c r="G13" s="86">
-        <f>POINTS!J26</f>
-        <v>11</v>
+        <f>POINTS!J32</f>
+        <v>9</v>
       </c>
       <c r="H13" s="86">
-        <f>POINTS!K26</f>
-        <v>12</v>
+        <f>POINTS!K32</f>
+        <v>8</v>
       </c>
       <c r="I13" s="87">
-        <f>POINTS!L26</f>
-        <v>4</v>
+        <f>POINTS!L32</f>
+        <v>16</v>
       </c>
       <c r="J13" s="79"/>
     </row>
     <row r="14" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="92" t="str">
-        <f>POINTS!B4</f>
-        <v>Little Miss Moffet</v>
+        <f>POINTS!B14</f>
+        <v>Cool Hand Lou</v>
       </c>
       <c r="C14" s="71">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D14" s="85">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>5.8</v>
       </c>
       <c r="E14" s="86">
-        <f>POINTS!H23</f>
-        <v>7</v>
+        <f>POINTS!H33</f>
+        <v>2</v>
       </c>
       <c r="F14" s="86">
-        <f>POINTS!I23</f>
-        <v>13</v>
+        <f>POINTS!I33</f>
+        <v>2</v>
       </c>
       <c r="G14" s="86">
-        <f>POINTS!J23</f>
-        <v>13</v>
+        <f>POINTS!J33</f>
+        <v>2</v>
       </c>
       <c r="H14" s="86">
-        <f>POINTS!K23</f>
-        <v>13</v>
+        <f>POINTS!K33</f>
+        <v>3</v>
       </c>
       <c r="I14" s="87">
-        <f>POINTS!L23</f>
-        <v>10</v>
+        <f>POINTS!L33</f>
+        <v>16</v>
       </c>
       <c r="J14" s="79"/>
     </row>
@@ -7656,7 +7674,7 @@
       </c>
       <c r="D15" s="85">
         <f t="shared" si="1"/>
-        <v>14.6</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="E15" s="86">
         <f>POINTS!H34</f>
@@ -7672,46 +7690,46 @@
       </c>
       <c r="H15" s="86">
         <f>POINTS!K34</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I15" s="87">
         <f>POINTS!L34</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J15" s="79"/>
     </row>
     <row r="16" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="93" t="str">
-        <f>POINTS!B5</f>
-        <v>SUPERMAX LOCO</v>
+        <f>POINTS!B16</f>
+        <v>Team Force</v>
       </c>
       <c r="C16" s="72">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D16" s="88">
         <f t="shared" si="1"/>
-        <v>18.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E16" s="89">
-        <f>POINTS!H24</f>
-        <v>13</v>
+        <f>POINTS!H35</f>
+        <v>3</v>
       </c>
       <c r="F16" s="89">
-        <f>POINTS!I24</f>
-        <v>14</v>
+        <f>POINTS!I35</f>
+        <v>5</v>
       </c>
       <c r="G16" s="89">
-        <f>POINTS!J24</f>
-        <v>14</v>
+        <f>POINTS!J35</f>
+        <v>6</v>
       </c>
       <c r="H16" s="89">
-        <f>POINTS!K24</f>
-        <v>14</v>
+        <f>POINTS!K35</f>
+        <v>5</v>
       </c>
       <c r="I16" s="90">
-        <f>POINTS!L24</f>
-        <v>10</v>
+        <f>POINTS!L35</f>
+        <v>16</v>
       </c>
       <c r="J16" s="80"/>
     </row>
@@ -7783,7 +7801,7 @@
       </c>
       <c r="D3" s="82">
         <f t="shared" ref="D3:D14" si="1">AVERAGE(3*E3,F3,G3,H3,I3)</f>
-        <v>1.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E3" s="83">
         <f>POINTS!H22</f>
@@ -7803,7 +7821,7 @@
       </c>
       <c r="I3" s="84">
         <f>POINTS!L22</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J3" s="78"/>
     </row>
@@ -7814,11 +7832,11 @@
       </c>
       <c r="C4" s="71">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="85">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15.2</v>
       </c>
       <c r="E4" s="86">
         <f>POINTS!H23</f>
@@ -7838,7 +7856,7 @@
       </c>
       <c r="I4" s="87">
         <f>POINTS!L23</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J4" s="79"/>
     </row>
@@ -7853,7 +7871,7 @@
       </c>
       <c r="D5" s="85">
         <f t="shared" si="1"/>
-        <v>18.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="E5" s="86">
         <f>POINTS!H24</f>
@@ -7873,7 +7891,7 @@
       </c>
       <c r="I5" s="87">
         <f>POINTS!L24</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J5" s="79"/>
     </row>
@@ -7884,15 +7902,15 @@
       </c>
       <c r="C6" s="71">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" s="85">
         <f t="shared" si="1"/>
-        <v>10.8</v>
+        <v>13.4</v>
       </c>
       <c r="E6" s="86">
         <f>POINTS!H25</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="86">
         <f>POINTS!I25</f>
@@ -7900,15 +7918,15 @@
       </c>
       <c r="G6" s="86">
         <f>POINTS!J25</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6" s="86">
         <f>POINTS!K25</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I6" s="87">
         <f>POINTS!L25</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J6" s="79"/>
     </row>
@@ -7919,11 +7937,11 @@
       </c>
       <c r="C7" s="71">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="85">
         <f t="shared" si="1"/>
-        <v>13.4</v>
+        <v>15.6</v>
       </c>
       <c r="E7" s="86">
         <f>POINTS!H26</f>
@@ -7939,11 +7957,11 @@
       </c>
       <c r="H7" s="86">
         <f>POINTS!K26</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7" s="87">
         <f>POINTS!L26</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J7" s="79"/>
     </row>
@@ -7958,7 +7976,7 @@
       </c>
       <c r="D8" s="85">
         <f t="shared" si="1"/>
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="E8" s="86">
         <f>POINTS!H27</f>
@@ -7966,11 +7984,11 @@
       </c>
       <c r="F8" s="86">
         <f>POINTS!I27</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8" s="86">
         <f>POINTS!J27</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8" s="86">
         <f>POINTS!K27</f>
@@ -7978,7 +7996,7 @@
       </c>
       <c r="I8" s="87">
         <f>POINTS!L27</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J8" s="79"/>
     </row>
@@ -7993,7 +8011,7 @@
       </c>
       <c r="D9" s="85">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6.6</v>
       </c>
       <c r="E9" s="86">
         <f>POINTS!H28</f>
@@ -8001,7 +8019,7 @@
       </c>
       <c r="F9" s="86">
         <f>POINTS!I28</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" s="86">
         <f>POINTS!J28</f>
@@ -8013,7 +8031,7 @@
       </c>
       <c r="I9" s="87">
         <f>POINTS!L28</f>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J9" s="79"/>
     </row>
@@ -8024,11 +8042,11 @@
       </c>
       <c r="C10" s="71">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D10" s="85">
         <f t="shared" si="1"/>
-        <v>10.8</v>
+        <v>14.2</v>
       </c>
       <c r="E10" s="86">
         <f>POINTS!H29</f>
@@ -8040,7 +8058,7 @@
       </c>
       <c r="G10" s="86">
         <f>POINTS!J29</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H10" s="86">
         <f>POINTS!K29</f>
@@ -8048,7 +8066,7 @@
       </c>
       <c r="I10" s="87">
         <f>POINTS!L29</f>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J10" s="79"/>
     </row>
@@ -8059,19 +8077,19 @@
       </c>
       <c r="C11" s="71">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" s="85">
         <f t="shared" si="1"/>
-        <v>10.8</v>
+        <v>13.2</v>
       </c>
       <c r="E11" s="86">
         <f>POINTS!H30</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="86">
         <f>POINTS!I30</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G11" s="86">
         <f>POINTS!J30</f>
@@ -8079,11 +8097,11 @@
       </c>
       <c r="H11" s="86">
         <f>POINTS!K30</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I11" s="87">
         <f>POINTS!L30</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J11" s="79"/>
     </row>
@@ -8094,11 +8112,11 @@
       </c>
       <c r="C12" s="71">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="85">
         <f t="shared" si="1"/>
-        <v>11.8</v>
+        <v>13.8</v>
       </c>
       <c r="E12" s="86">
         <f>POINTS!H31</f>
@@ -8106,19 +8124,19 @@
       </c>
       <c r="F12" s="86">
         <f>POINTS!I31</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G12" s="86">
         <f>POINTS!J31</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H12" s="86">
         <f>POINTS!K31</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I12" s="87">
         <f>POINTS!L31</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J12" s="79"/>
     </row>
@@ -8129,11 +8147,11 @@
       </c>
       <c r="C13" s="71">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D13" s="85">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E13" s="86">
         <f>POINTS!H32</f>
@@ -8141,19 +8159,19 @@
       </c>
       <c r="F13" s="86">
         <f>POINTS!I32</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" s="86">
         <f>POINTS!J32</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H13" s="86">
         <f>POINTS!K32</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I13" s="87">
         <f>POINTS!L32</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J13" s="79"/>
     </row>
@@ -8168,7 +8186,7 @@
       </c>
       <c r="D14" s="88">
         <f t="shared" si="1"/>
-        <v>3.8</v>
+        <v>5.8</v>
       </c>
       <c r="E14" s="89">
         <f>POINTS!H33</f>
@@ -8176,7 +8194,7 @@
       </c>
       <c r="F14" s="89">
         <f>POINTS!I33</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" s="89">
         <f>POINTS!J33</f>
@@ -8188,7 +8206,7 @@
       </c>
       <c r="I14" s="90">
         <f>POINTS!L33</f>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J14" s="80"/>
     </row>
@@ -8260,7 +8278,7 @@
       </c>
       <c r="D3" s="83">
         <f t="shared" ref="D3:D12" si="1">AVERAGE(3*E3,F3,G3,H3,I3)</f>
-        <v>1.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E3" s="83">
         <f>POINTS!H22</f>
@@ -8280,7 +8298,7 @@
       </c>
       <c r="I3" s="83">
         <f>POINTS!L22</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J3" s="73"/>
     </row>
@@ -8291,11 +8309,11 @@
       </c>
       <c r="C4" s="97">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="86">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15.2</v>
       </c>
       <c r="E4" s="86">
         <f>POINTS!H23</f>
@@ -8315,7 +8333,7 @@
       </c>
       <c r="I4" s="86">
         <f>POINTS!L23</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J4" s="74"/>
     </row>
@@ -8330,7 +8348,7 @@
       </c>
       <c r="D5" s="86">
         <f t="shared" si="1"/>
-        <v>18.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="E5" s="86">
         <f>POINTS!H24</f>
@@ -8350,7 +8368,7 @@
       </c>
       <c r="I5" s="86">
         <f>POINTS!L24</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J5" s="74"/>
     </row>
@@ -8361,15 +8379,15 @@
       </c>
       <c r="C6" s="97">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="86">
         <f t="shared" si="1"/>
-        <v>10.8</v>
+        <v>13.4</v>
       </c>
       <c r="E6" s="86">
         <f>POINTS!H25</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="86">
         <f>POINTS!I25</f>
@@ -8377,15 +8395,15 @@
       </c>
       <c r="G6" s="86">
         <f>POINTS!J25</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6" s="86">
         <f>POINTS!K25</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I6" s="86">
         <f>POINTS!L25</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J6" s="74"/>
     </row>
@@ -8396,11 +8414,11 @@
       </c>
       <c r="C7" s="97">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="86">
         <f t="shared" si="1"/>
-        <v>13.4</v>
+        <v>15.6</v>
       </c>
       <c r="E7" s="86">
         <f>POINTS!H26</f>
@@ -8416,11 +8434,11 @@
       </c>
       <c r="H7" s="86">
         <f>POINTS!K26</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7" s="86">
         <f>POINTS!L26</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J7" s="74"/>
     </row>
@@ -8435,7 +8453,7 @@
       </c>
       <c r="D8" s="86">
         <f t="shared" si="1"/>
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="E8" s="86">
         <f>POINTS!H27</f>
@@ -8443,11 +8461,11 @@
       </c>
       <c r="F8" s="86">
         <f>POINTS!I27</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8" s="86">
         <f>POINTS!J27</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8" s="86">
         <f>POINTS!K27</f>
@@ -8455,7 +8473,7 @@
       </c>
       <c r="I8" s="86">
         <f>POINTS!L27</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J8" s="74"/>
     </row>
@@ -8470,7 +8488,7 @@
       </c>
       <c r="D9" s="86">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6.6</v>
       </c>
       <c r="E9" s="86">
         <f>POINTS!H28</f>
@@ -8478,7 +8496,7 @@
       </c>
       <c r="F9" s="86">
         <f>POINTS!I28</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" s="86">
         <f>POINTS!J28</f>
@@ -8490,7 +8508,7 @@
       </c>
       <c r="I9" s="86">
         <f>POINTS!L28</f>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J9" s="74"/>
     </row>
@@ -8501,11 +8519,11 @@
       </c>
       <c r="C10" s="97">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D10" s="86">
         <f t="shared" si="1"/>
-        <v>10.8</v>
+        <v>14.2</v>
       </c>
       <c r="E10" s="86">
         <f>POINTS!H29</f>
@@ -8517,7 +8535,7 @@
       </c>
       <c r="G10" s="86">
         <f>POINTS!J29</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H10" s="86">
         <f>POINTS!K29</f>
@@ -8525,7 +8543,7 @@
       </c>
       <c r="I10" s="86">
         <f>POINTS!L29</f>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J10" s="74"/>
     </row>
@@ -8540,15 +8558,15 @@
       </c>
       <c r="D11" s="86">
         <f t="shared" si="1"/>
-        <v>10.8</v>
+        <v>13.2</v>
       </c>
       <c r="E11" s="86">
         <f>POINTS!H30</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="86">
         <f>POINTS!I30</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G11" s="86">
         <f>POINTS!J30</f>
@@ -8556,11 +8574,11 @@
       </c>
       <c r="H11" s="86">
         <f>POINTS!K30</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I11" s="86">
         <f>POINTS!L30</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J11" s="74"/>
     </row>
@@ -8571,11 +8589,11 @@
       </c>
       <c r="C12" s="99">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="89">
         <f t="shared" si="1"/>
-        <v>11.8</v>
+        <v>13.8</v>
       </c>
       <c r="E12" s="89">
         <f>POINTS!H31</f>
@@ -8583,19 +8601,19 @@
       </c>
       <c r="F12" s="89">
         <f>POINTS!I31</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G12" s="89">
         <f>POINTS!J31</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H12" s="89">
         <f>POINTS!K31</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I12" s="89">
         <f>POINTS!L31</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J12" s="75"/>
     </row>
@@ -8667,7 +8685,7 @@
       </c>
       <c r="D3" s="82">
         <f t="shared" ref="D3:D10" si="1">AVERAGE(3*E3,F3,G3,H3,I3)</f>
-        <v>1.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E3" s="83">
         <f>POINTS!H22</f>
@@ -8687,7 +8705,7 @@
       </c>
       <c r="I3" s="84">
         <f>POINTS!L22</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J3" s="78"/>
     </row>
@@ -8698,11 +8716,11 @@
       </c>
       <c r="C4" s="71">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="85">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15.2</v>
       </c>
       <c r="E4" s="86">
         <f>POINTS!H23</f>
@@ -8722,7 +8740,7 @@
       </c>
       <c r="I4" s="87">
         <f>POINTS!L23</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J4" s="79"/>
     </row>
@@ -8737,7 +8755,7 @@
       </c>
       <c r="D5" s="85">
         <f t="shared" si="1"/>
-        <v>18.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="E5" s="86">
         <f>POINTS!H24</f>
@@ -8757,7 +8775,7 @@
       </c>
       <c r="I5" s="87">
         <f>POINTS!L24</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J5" s="79"/>
     </row>
@@ -8772,11 +8790,11 @@
       </c>
       <c r="D6" s="85">
         <f t="shared" si="1"/>
-        <v>10.8</v>
+        <v>13.4</v>
       </c>
       <c r="E6" s="86">
         <f>POINTS!H25</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="86">
         <f>POINTS!I25</f>
@@ -8784,15 +8802,15 @@
       </c>
       <c r="G6" s="86">
         <f>POINTS!J25</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6" s="86">
         <f>POINTS!K25</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I6" s="87">
         <f>POINTS!L25</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J6" s="79"/>
     </row>
@@ -8803,11 +8821,11 @@
       </c>
       <c r="C7" s="71">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="85">
         <f t="shared" si="1"/>
-        <v>13.4</v>
+        <v>15.6</v>
       </c>
       <c r="E7" s="86">
         <f>POINTS!H26</f>
@@ -8823,11 +8841,11 @@
       </c>
       <c r="H7" s="86">
         <f>POINTS!K26</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7" s="87">
         <f>POINTS!L26</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J7" s="79"/>
     </row>
@@ -8842,7 +8860,7 @@
       </c>
       <c r="D8" s="85">
         <f t="shared" si="1"/>
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="E8" s="86">
         <f>POINTS!H27</f>
@@ -8850,11 +8868,11 @@
       </c>
       <c r="F8" s="86">
         <f>POINTS!I27</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8" s="86">
         <f>POINTS!J27</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8" s="86">
         <f>POINTS!K27</f>
@@ -8862,7 +8880,7 @@
       </c>
       <c r="I8" s="87">
         <f>POINTS!L27</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J8" s="79"/>
     </row>
@@ -8877,7 +8895,7 @@
       </c>
       <c r="D9" s="85">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6.6</v>
       </c>
       <c r="E9" s="86">
         <f>POINTS!H28</f>
@@ -8885,7 +8903,7 @@
       </c>
       <c r="F9" s="86">
         <f>POINTS!I28</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" s="86">
         <f>POINTS!J28</f>
@@ -8897,7 +8915,7 @@
       </c>
       <c r="I9" s="87">
         <f>POINTS!L28</f>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J9" s="79"/>
     </row>
@@ -8908,11 +8926,11 @@
       </c>
       <c r="C10" s="72">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="88">
         <f t="shared" si="1"/>
-        <v>10.8</v>
+        <v>14.2</v>
       </c>
       <c r="E10" s="89">
         <f>POINTS!H29</f>
@@ -8924,7 +8942,7 @@
       </c>
       <c r="G10" s="89">
         <f>POINTS!J29</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H10" s="89">
         <f>POINTS!K29</f>
@@ -8932,7 +8950,7 @@
       </c>
       <c r="I10" s="90">
         <f>POINTS!L29</f>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J10" s="80"/>
     </row>

--- a/Power Rankings.xlsx
+++ b/Power Rankings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="285" windowWidth="15300" windowHeight="5895" tabRatio="632"/>
+    <workbookView xWindow="315" yWindow="285" windowWidth="15300" windowHeight="5895" tabRatio="632" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="POINTS" sheetId="2" r:id="rId1"/>
@@ -1753,16 +1753,6 @@
   <dxfs count="57">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -3123,6 +3113,16 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3144,185 +3144,185 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="rankings" displayName="rankings" ref="B2:J18" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="rankings" displayName="rankings" ref="B2:J18" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <autoFilter ref="B2:J18"/>
   <sortState ref="B3:I18">
     <sortCondition ref="B2:B18"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="TEAM NAME" dataDxfId="53">
+    <tableColumn id="1" name="TEAM NAME" dataDxfId="52">
       <calculatedColumnFormula>POINTS!B3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="POWER RANK" dataDxfId="52">
+    <tableColumn id="2" name="POWER RANK" dataDxfId="51">
       <calculatedColumnFormula>RANK(D3,$D$3:$D$18,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="FINAL" dataDxfId="51">
+    <tableColumn id="3" name="FINAL" dataDxfId="50">
       <calculatedColumnFormula>AVERAGE(3*E3,F3,G3,H3,I3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="RECORD" dataDxfId="50">
+    <tableColumn id="4" name="RECORD" dataDxfId="49">
       <calculatedColumnFormula>POINTS!H22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="OVERALL WINS" dataDxfId="49">
+    <tableColumn id="5" name="OVERALL WINS" dataDxfId="48">
       <calculatedColumnFormula>POINTS!I22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="CONS" dataDxfId="48">
+    <tableColumn id="6" name="CONS" dataDxfId="47">
       <calculatedColumnFormula>POINTS!J22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="POINTS FOR" dataDxfId="47">
+    <tableColumn id="7" name="POINTS FOR" dataDxfId="46">
       <calculatedColumnFormula>POINTS!K22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="ROSTER" dataDxfId="46">
+    <tableColumn id="8" name="ROSTER" dataDxfId="45">
       <calculatedColumnFormula>POINTS!L22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="COMMENTS" dataDxfId="45"/>
+    <tableColumn id="9" name="COMMENTS" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="rankings3" displayName="rankings3" ref="B2:J16" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="rankings3" displayName="rankings3" ref="B2:J16" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="B2:J16"/>
-  <sortState ref="B3:I18">
-    <sortCondition ref="B2:B18"/>
+  <sortState ref="B3:J16">
+    <sortCondition ref="C2:C16"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="TEAM NAME" dataDxfId="42">
+    <tableColumn id="1" name="TEAM NAME" dataDxfId="41">
       <calculatedColumnFormula>POINTS!B3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="POWER RANK" dataDxfId="41">
+    <tableColumn id="2" name="POWER RANK" dataDxfId="40">
       <calculatedColumnFormula>RANK(D3,$D$3:$D$16,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="FINAL" dataDxfId="40">
+    <tableColumn id="3" name="FINAL" dataDxfId="39">
       <calculatedColumnFormula>AVERAGE(3*E3,F3,G3,H3,I3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="RECORD" dataDxfId="39">
+    <tableColumn id="4" name="RECORD" dataDxfId="38">
       <calculatedColumnFormula>POINTS!H22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="OVERALL WINS" dataDxfId="38">
+    <tableColumn id="5" name="OVERALL WINS" dataDxfId="37">
       <calculatedColumnFormula>POINTS!I22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="CONS" dataDxfId="37">
+    <tableColumn id="6" name="CONS" dataDxfId="36">
       <calculatedColumnFormula>POINTS!J22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="POINTS FOR" dataDxfId="36">
+    <tableColumn id="7" name="POINTS FOR" dataDxfId="35">
       <calculatedColumnFormula>POINTS!K22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="ROSTER" dataDxfId="35">
+    <tableColumn id="8" name="ROSTER" dataDxfId="34">
       <calculatedColumnFormula>POINTS!L22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="COMMENTS" dataDxfId="34"/>
+    <tableColumn id="9" name="COMMENTS" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="rankings34" displayName="rankings34" ref="B2:J14" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="rankings34" displayName="rankings34" ref="B2:J14" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="B2:J14"/>
   <sortState ref="B3:I18">
     <sortCondition ref="B2:B18"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="TEAM NAME" dataDxfId="31">
+    <tableColumn id="1" name="TEAM NAME" dataDxfId="30">
       <calculatedColumnFormula>POINTS!B3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="POWER RANK" dataDxfId="30">
+    <tableColumn id="2" name="POWER RANK" dataDxfId="29">
       <calculatedColumnFormula>RANK(D3,$D$3:$D$14,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="FINAL" dataDxfId="29">
+    <tableColumn id="3" name="FINAL" dataDxfId="28">
       <calculatedColumnFormula>AVERAGE(3*E3,F3,G3,H3,I3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="RECORD" dataDxfId="28">
+    <tableColumn id="4" name="RECORD" dataDxfId="27">
       <calculatedColumnFormula>POINTS!H22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="OVERALL WINS" dataDxfId="27">
+    <tableColumn id="5" name="OVERALL WINS" dataDxfId="26">
       <calculatedColumnFormula>POINTS!I22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="CONS" dataDxfId="26">
+    <tableColumn id="6" name="CONS" dataDxfId="25">
       <calculatedColumnFormula>POINTS!J22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="POINTS FOR" dataDxfId="25">
+    <tableColumn id="7" name="POINTS FOR" dataDxfId="24">
       <calculatedColumnFormula>POINTS!K22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="ROSTER" dataDxfId="24">
+    <tableColumn id="8" name="ROSTER" dataDxfId="23">
       <calculatedColumnFormula>POINTS!L22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="COMMENTS" dataDxfId="23"/>
+    <tableColumn id="9" name="COMMENTS" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="rankings345" displayName="rankings345" ref="B2:J12" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="rankings345" displayName="rankings345" ref="B2:J12" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="B2:J12"/>
   <sortState ref="B3:I18">
     <sortCondition ref="B2:B18"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="TEAM NAME" dataDxfId="20">
+    <tableColumn id="1" name="TEAM NAME" dataDxfId="19">
       <calculatedColumnFormula>POINTS!B3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="POWER RANK" dataDxfId="19">
+    <tableColumn id="2" name="POWER RANK" dataDxfId="18">
       <calculatedColumnFormula>RANK(D3,$D$3:$D$12,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="FINAL" dataDxfId="18">
+    <tableColumn id="3" name="FINAL" dataDxfId="17">
       <calculatedColumnFormula>AVERAGE(3*E3,F3,G3,H3,I3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="RECORD" dataDxfId="17">
+    <tableColumn id="4" name="RECORD" dataDxfId="16">
       <calculatedColumnFormula>POINTS!H22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="OVERALL WINS" dataDxfId="16">
+    <tableColumn id="5" name="OVERALL WINS" dataDxfId="15">
       <calculatedColumnFormula>POINTS!I22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="CONS" dataDxfId="15">
+    <tableColumn id="6" name="CONS" dataDxfId="14">
       <calculatedColumnFormula>POINTS!J22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="POINTS FOR" dataDxfId="14">
+    <tableColumn id="7" name="POINTS FOR" dataDxfId="13">
       <calculatedColumnFormula>POINTS!K22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="ROSTER" dataDxfId="13">
+    <tableColumn id="8" name="ROSTER" dataDxfId="12">
       <calculatedColumnFormula>POINTS!L22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="COMMENTS" dataDxfId="12"/>
+    <tableColumn id="9" name="COMMENTS" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="rankings3456" displayName="rankings3456" ref="B2:J10" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="rankings3456" displayName="rankings3456" ref="B2:J10" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="B2:J10"/>
   <sortState ref="B3:I18">
     <sortCondition ref="B2:B18"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="TEAM NAME" dataDxfId="9">
+    <tableColumn id="1" name="TEAM NAME" dataDxfId="8">
       <calculatedColumnFormula>POINTS!B3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="POWER RANK" dataDxfId="8">
+    <tableColumn id="2" name="POWER RANK" dataDxfId="7">
       <calculatedColumnFormula>RANK(D3,$D$3:$D$10,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="FINAL" dataDxfId="7">
+    <tableColumn id="3" name="FINAL" dataDxfId="6">
       <calculatedColumnFormula>AVERAGE(3*E3,F3,G3,H3,I3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="RECORD" dataDxfId="6">
+    <tableColumn id="4" name="RECORD" dataDxfId="5">
       <calculatedColumnFormula>POINTS!H22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="OVERALL WINS" dataDxfId="5">
+    <tableColumn id="5" name="OVERALL WINS" dataDxfId="4">
       <calculatedColumnFormula>POINTS!I22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="CONS" dataDxfId="4">
+    <tableColumn id="6" name="CONS" dataDxfId="3">
       <calculatedColumnFormula>POINTS!J22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="POINTS FOR" dataDxfId="3">
+    <tableColumn id="7" name="POINTS FOR" dataDxfId="2">
       <calculatedColumnFormula>POINTS!K22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="ROSTER" dataDxfId="2">
+    <tableColumn id="8" name="ROSTER" dataDxfId="1">
       <calculatedColumnFormula>POINTS!L22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="COMMENTS" dataDxfId="1"/>
+    <tableColumn id="9" name="COMMENTS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3617,8 +3617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3797,16 +3797,20 @@
       <c r="L3" s="36">
         <v>105.1</v>
       </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="7"/>
+      <c r="M3" s="36">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="N3" s="7">
+        <v>106.7</v>
+      </c>
       <c r="O3" s="8"/>
       <c r="P3" s="12">
         <f>SUM(C3:O3)</f>
-        <v>1140.5</v>
+        <v>1329.1000000000001</v>
       </c>
       <c r="Q3" s="12">
         <f>AVERAGE(C3:O3)</f>
-        <v>114.05</v>
+        <v>110.75833333333334</v>
       </c>
       <c r="R3" s="13">
         <f>MAX(C3:O3)</f>
@@ -3814,11 +3818,11 @@
       </c>
       <c r="S3" s="13">
         <f>MIN(C3:O3)</f>
-        <v>90.7</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="T3" s="13">
         <f>STDEV(C3:O3)</f>
-        <v>13.748232209593063</v>
+        <v>15.54684758068241</v>
       </c>
       <c r="W3" s="52">
         <f>IF(C3="","",RANK(C3,$C$3:$C$18,1))</f>
@@ -3860,13 +3864,13 @@
         <f>IF(L3="","",RANK(L3,$L$3:$L$18,1))</f>
         <v>9</v>
       </c>
-      <c r="AG3" s="53" t="str">
+      <c r="AG3" s="53">
         <f>IF(M3="","",RANK(M3,$M$3:$M$18,1))</f>
-        <v/>
-      </c>
-      <c r="AH3" s="53" t="str">
+        <v>4</v>
+      </c>
+      <c r="AH3" s="53">
         <f>IF(N3="","",RANK(N3,$N$3:$N$18,1))</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="AI3" s="54" t="str">
         <f>IF(O3="","",RANK(O3,$O$3:$O$18,1))</f>
@@ -3874,7 +3878,7 @@
       </c>
       <c r="AJ3" s="42">
         <f>SUM(W3:AI3)</f>
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3914,16 +3918,20 @@
       <c r="L4" s="34">
         <v>84.7</v>
       </c>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
+      <c r="M4" s="34">
+        <v>84.4</v>
+      </c>
+      <c r="N4" s="34">
+        <v>93.3</v>
+      </c>
       <c r="O4" s="9"/>
       <c r="P4" s="14">
         <f t="shared" ref="P4:P18" si="0">SUM(C4:O4)</f>
-        <v>894.6</v>
+        <v>1072.3</v>
       </c>
       <c r="Q4" s="14">
         <f t="shared" ref="Q4:Q18" si="1">AVERAGE(C4:O4)</f>
-        <v>89.460000000000008</v>
+        <v>89.358333333333334</v>
       </c>
       <c r="R4" s="15">
         <f t="shared" ref="R4:R18" si="2">MAX(C4:O4)</f>
@@ -3935,7 +3943,7 @@
       </c>
       <c r="T4" s="15">
         <f t="shared" ref="T4:T18" si="4">STDEV(C4:O4)</f>
-        <v>22.900470640481522</v>
+        <v>20.802336334404824</v>
       </c>
       <c r="W4" s="55">
         <f t="shared" ref="W4:W18" si="5">IF(C4="","",RANK(C4,$C$3:$C$18,1))</f>
@@ -3977,13 +3985,13 @@
         <f t="shared" ref="AF4:AF18" si="14">IF(L4="","",RANK(L4,$L$3:$L$18,1))</f>
         <v>4</v>
       </c>
-      <c r="AG4" s="56" t="str">
+      <c r="AG4" s="56">
         <f t="shared" ref="AG4:AG18" si="15">IF(M4="","",RANK(M4,$M$3:$M$18,1))</f>
-        <v/>
-      </c>
-      <c r="AH4" s="56" t="str">
+        <v>5</v>
+      </c>
+      <c r="AH4" s="56">
         <f t="shared" ref="AH4:AH18" si="16">IF(N4="","",RANK(N4,$N$3:$N$18,1))</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="AI4" s="57" t="str">
         <f t="shared" ref="AI4:AI18" si="17">IF(O4="","",RANK(O4,$O$3:$O$18,1))</f>
@@ -3991,7 +3999,7 @@
       </c>
       <c r="AJ4" s="43">
         <f t="shared" ref="AJ4:AJ18" si="18">SUM(W4:AI4)</f>
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4031,28 +4039,32 @@
       <c r="L5" s="36">
         <v>88.5</v>
       </c>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
+      <c r="M5" s="36">
+        <v>46.9</v>
+      </c>
+      <c r="N5" s="36">
+        <v>113.5</v>
+      </c>
       <c r="O5" s="8"/>
       <c r="P5" s="16">
         <f t="shared" si="0"/>
-        <v>830.80000000000018</v>
+        <v>991.20000000000016</v>
       </c>
       <c r="Q5" s="16">
         <f t="shared" si="1"/>
-        <v>83.080000000000013</v>
+        <v>82.600000000000009</v>
       </c>
       <c r="R5" s="17">
         <f t="shared" si="2"/>
-        <v>106.7</v>
+        <v>113.5</v>
       </c>
       <c r="S5" s="17">
         <f t="shared" si="3"/>
-        <v>58.1</v>
+        <v>46.9</v>
       </c>
       <c r="T5" s="17">
         <f t="shared" si="4"/>
-        <v>15.246405769521083</v>
+        <v>19.825786697677756</v>
       </c>
       <c r="W5" s="55">
         <f t="shared" si="5"/>
@@ -4094,13 +4106,13 @@
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="AG5" s="56" t="str">
+      <c r="AG5" s="56">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AH5" s="56" t="str">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="56">
         <f t="shared" si="16"/>
-        <v/>
+        <v>12</v>
       </c>
       <c r="AI5" s="57" t="str">
         <f t="shared" si="17"/>
@@ -4108,7 +4120,7 @@
       </c>
       <c r="AJ5" s="43">
         <f t="shared" si="18"/>
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4148,16 +4160,20 @@
       <c r="L6" s="34">
         <v>99</v>
       </c>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
+      <c r="M6" s="34">
+        <v>105.1</v>
+      </c>
+      <c r="N6" s="34">
+        <v>79.400000000000006</v>
+      </c>
       <c r="O6" s="9"/>
       <c r="P6" s="14">
         <f t="shared" si="0"/>
-        <v>981.50000000000011</v>
+        <v>1166.0000000000002</v>
       </c>
       <c r="Q6" s="14">
         <f t="shared" si="1"/>
-        <v>98.15</v>
+        <v>97.166666666666686</v>
       </c>
       <c r="R6" s="15">
         <f t="shared" si="2"/>
@@ -4165,11 +4181,11 @@
       </c>
       <c r="S6" s="15">
         <f t="shared" si="3"/>
-        <v>80.900000000000006</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="T6" s="15">
         <f t="shared" si="4"/>
-        <v>15.353917343068378</v>
+        <v>15.105527786110821</v>
       </c>
       <c r="W6" s="55">
         <f t="shared" si="5"/>
@@ -4211,13 +4227,13 @@
         <f t="shared" si="14"/>
         <v>7</v>
       </c>
-      <c r="AG6" s="56" t="str">
+      <c r="AG6" s="56">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AH6" s="56" t="str">
+        <v>10</v>
+      </c>
+      <c r="AH6" s="56">
         <f t="shared" si="16"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="AI6" s="57" t="str">
         <f t="shared" si="17"/>
@@ -4225,7 +4241,7 @@
       </c>
       <c r="AJ6" s="43">
         <f t="shared" si="18"/>
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4265,16 +4281,20 @@
       <c r="L7" s="36">
         <v>101.3</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
+      <c r="M7" s="36">
+        <v>112.5</v>
+      </c>
+      <c r="N7" s="36">
+        <v>77.900000000000006</v>
+      </c>
       <c r="O7" s="8"/>
       <c r="P7" s="16">
         <f t="shared" si="0"/>
-        <v>962.50000000000011</v>
+        <v>1152.9000000000001</v>
       </c>
       <c r="Q7" s="16">
         <f t="shared" si="1"/>
-        <v>96.250000000000014</v>
+        <v>96.075000000000003</v>
       </c>
       <c r="R7" s="17">
         <f t="shared" si="2"/>
@@ -4286,7 +4306,7 @@
       </c>
       <c r="T7" s="17">
         <f t="shared" si="4"/>
-        <v>21.327043343552656</v>
+        <v>20.657383667831677</v>
       </c>
       <c r="W7" s="55">
         <f t="shared" si="5"/>
@@ -4328,13 +4348,13 @@
         <f t="shared" si="14"/>
         <v>8</v>
       </c>
-      <c r="AG7" s="56" t="str">
+      <c r="AG7" s="56">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AH7" s="56" t="str">
+        <v>12</v>
+      </c>
+      <c r="AH7" s="56">
         <f t="shared" si="16"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AI7" s="57" t="str">
         <f t="shared" si="17"/>
@@ -4342,7 +4362,7 @@
       </c>
       <c r="AJ7" s="43">
         <f t="shared" si="18"/>
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4382,16 +4402,20 @@
       <c r="L8" s="34">
         <v>90.7</v>
       </c>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
+      <c r="M8" s="34">
+        <v>90.5</v>
+      </c>
+      <c r="N8" s="34">
+        <v>79.3</v>
+      </c>
       <c r="O8" s="9"/>
       <c r="P8" s="14">
         <f t="shared" si="0"/>
-        <v>1031.5</v>
+        <v>1201.3</v>
       </c>
       <c r="Q8" s="14">
         <f t="shared" si="1"/>
-        <v>103.15</v>
+        <v>100.10833333333333</v>
       </c>
       <c r="R8" s="15">
         <f t="shared" si="2"/>
@@ -4403,7 +4427,7 @@
       </c>
       <c r="T8" s="15">
         <f t="shared" si="4"/>
-        <v>23.559345869055388</v>
+        <v>22.589637943629018</v>
       </c>
       <c r="W8" s="55">
         <f t="shared" si="5"/>
@@ -4445,13 +4469,13 @@
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="AG8" s="56" t="str">
+      <c r="AG8" s="56">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AH8" s="56" t="str">
+        <v>6</v>
+      </c>
+      <c r="AH8" s="56">
         <f t="shared" si="16"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="AI8" s="57" t="str">
         <f t="shared" si="17"/>
@@ -4459,7 +4483,7 @@
       </c>
       <c r="AJ8" s="43">
         <f t="shared" si="18"/>
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4499,16 +4523,20 @@
       <c r="L9" s="36">
         <v>115.7</v>
       </c>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
+      <c r="M9" s="36">
+        <v>102.5</v>
+      </c>
+      <c r="N9" s="36">
+        <v>128.30000000000001</v>
+      </c>
       <c r="O9" s="8"/>
       <c r="P9" s="16">
         <f t="shared" si="0"/>
-        <v>1115.6000000000001</v>
+        <v>1346.4</v>
       </c>
       <c r="Q9" s="16">
         <f t="shared" si="1"/>
-        <v>111.56000000000002</v>
+        <v>112.2</v>
       </c>
       <c r="R9" s="17">
         <f t="shared" si="2"/>
@@ -4520,7 +4548,7 @@
       </c>
       <c r="T9" s="17">
         <f t="shared" si="4"/>
-        <v>25.244678207055337</v>
+        <v>23.535350587419089</v>
       </c>
       <c r="W9" s="55">
         <f t="shared" si="5"/>
@@ -4562,13 +4590,13 @@
         <f t="shared" si="14"/>
         <v>11</v>
       </c>
-      <c r="AG9" s="56" t="str">
+      <c r="AG9" s="56">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AH9" s="56" t="str">
+        <v>8</v>
+      </c>
+      <c r="AH9" s="56">
         <f t="shared" si="16"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="AI9" s="57" t="str">
         <f t="shared" si="17"/>
@@ -4576,7 +4604,7 @@
       </c>
       <c r="AJ9" s="43">
         <f t="shared" si="18"/>
-        <v>89</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4616,20 +4644,24 @@
       <c r="L10" s="34">
         <v>127.8</v>
       </c>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
+      <c r="M10" s="34">
+        <v>147.69999999999999</v>
+      </c>
+      <c r="N10" s="34">
+        <v>89.5</v>
+      </c>
       <c r="O10" s="9"/>
       <c r="P10" s="14">
         <f t="shared" si="0"/>
-        <v>1029.3</v>
+        <v>1266.5</v>
       </c>
       <c r="Q10" s="14">
         <f t="shared" si="1"/>
-        <v>102.92999999999999</v>
+        <v>105.54166666666667</v>
       </c>
       <c r="R10" s="15">
         <f t="shared" si="2"/>
-        <v>127.8</v>
+        <v>147.69999999999999</v>
       </c>
       <c r="S10" s="15">
         <f t="shared" si="3"/>
@@ -4637,7 +4669,7 @@
       </c>
       <c r="T10" s="15">
         <f t="shared" si="4"/>
-        <v>18.674049135394089</v>
+        <v>21.828565868576582</v>
       </c>
       <c r="W10" s="55">
         <f t="shared" si="5"/>
@@ -4679,13 +4711,13 @@
         <f t="shared" si="14"/>
         <v>12</v>
       </c>
-      <c r="AG10" s="56" t="str">
+      <c r="AG10" s="56">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AH10" s="56" t="str">
+        <v>14</v>
+      </c>
+      <c r="AH10" s="56">
         <f t="shared" si="16"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="AI10" s="57" t="str">
         <f t="shared" si="17"/>
@@ -4693,7 +4725,7 @@
       </c>
       <c r="AJ10" s="43">
         <f t="shared" si="18"/>
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4733,16 +4765,20 @@
       <c r="L11" s="36">
         <v>83.9</v>
       </c>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
+      <c r="M11" s="36">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="N11" s="36">
+        <v>98</v>
+      </c>
       <c r="O11" s="8"/>
       <c r="P11" s="16">
         <f t="shared" si="0"/>
-        <v>985.3</v>
+        <v>1151.3999999999999</v>
       </c>
       <c r="Q11" s="16">
         <f t="shared" si="1"/>
-        <v>98.53</v>
+        <v>95.949999999999989</v>
       </c>
       <c r="R11" s="17">
         <f t="shared" si="2"/>
@@ -4754,7 +4790,7 @@
       </c>
       <c r="T11" s="17">
         <f t="shared" si="4"/>
-        <v>27.097111367163194</v>
+        <v>26.032619398118108</v>
       </c>
       <c r="W11" s="55">
         <f t="shared" si="5"/>
@@ -4796,13 +4832,13 @@
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="AG11" s="56" t="str">
+      <c r="AG11" s="56">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AH11" s="56" t="str">
+        <v>3</v>
+      </c>
+      <c r="AH11" s="56">
         <f t="shared" si="16"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="AI11" s="57" t="str">
         <f t="shared" si="17"/>
@@ -4810,7 +4846,7 @@
       </c>
       <c r="AJ11" s="43">
         <f t="shared" si="18"/>
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4850,16 +4886,20 @@
       <c r="L12" s="34">
         <v>84</v>
       </c>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
+      <c r="M12" s="34">
+        <v>98.6</v>
+      </c>
+      <c r="N12" s="34">
+        <v>75.599999999999994</v>
+      </c>
       <c r="O12" s="9"/>
       <c r="P12" s="14">
         <f t="shared" ref="P12:P17" si="19">SUM(C12:O12)</f>
-        <v>987.1</v>
+        <v>1161.3</v>
       </c>
       <c r="Q12" s="14">
         <f t="shared" ref="Q12:Q17" si="20">AVERAGE(C12:O12)</f>
-        <v>98.710000000000008</v>
+        <v>96.774999999999991</v>
       </c>
       <c r="R12" s="15">
         <f t="shared" ref="R12:R17" si="21">MAX(C12:O12)</f>
@@ -4871,7 +4911,7 @@
       </c>
       <c r="T12" s="15">
         <f t="shared" ref="T12:T17" si="23">STDEV(C12:O12)</f>
-        <v>22.101002993831127</v>
+        <v>21.073987628008499</v>
       </c>
       <c r="W12" s="55">
         <f t="shared" si="5"/>
@@ -4913,13 +4953,13 @@
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="AG12" s="56" t="str">
+      <c r="AG12" s="56">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AH12" s="56" t="str">
+        <v>7</v>
+      </c>
+      <c r="AH12" s="56">
         <f t="shared" si="16"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AI12" s="57" t="str">
         <f t="shared" si="17"/>
@@ -4927,7 +4967,7 @@
       </c>
       <c r="AJ12" s="43">
         <f t="shared" si="18"/>
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4967,16 +5007,20 @@
       <c r="L13" s="36">
         <v>110.4</v>
       </c>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
+      <c r="M13" s="36">
+        <v>132</v>
+      </c>
+      <c r="N13" s="36">
+        <v>111.1</v>
+      </c>
       <c r="O13" s="8"/>
       <c r="P13" s="16">
         <f t="shared" si="19"/>
-        <v>986.80000000000007</v>
+        <v>1229.9000000000001</v>
       </c>
       <c r="Q13" s="16">
         <f t="shared" si="20"/>
-        <v>98.68</v>
+        <v>102.49166666666667</v>
       </c>
       <c r="R13" s="17">
         <f t="shared" si="21"/>
@@ -4988,7 +5032,7 @@
       </c>
       <c r="T13" s="17">
         <f t="shared" si="23"/>
-        <v>18.580025116595799</v>
+        <v>19.533396033615315</v>
       </c>
       <c r="W13" s="55">
         <f t="shared" si="5"/>
@@ -5030,13 +5074,13 @@
         <f t="shared" si="14"/>
         <v>10</v>
       </c>
-      <c r="AG13" s="56" t="str">
+      <c r="AG13" s="56">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AH13" s="56" t="str">
+        <v>13</v>
+      </c>
+      <c r="AH13" s="56">
         <f t="shared" si="16"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="AI13" s="57" t="str">
         <f t="shared" si="17"/>
@@ -5044,7 +5088,7 @@
       </c>
       <c r="AJ13" s="43">
         <f t="shared" si="18"/>
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5084,16 +5128,20 @@
       <c r="L14" s="34">
         <v>144</v>
       </c>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
+      <c r="M14" s="34">
+        <v>102.6</v>
+      </c>
+      <c r="N14" s="34">
+        <v>139.6</v>
+      </c>
       <c r="O14" s="9"/>
       <c r="P14" s="14">
         <f t="shared" si="19"/>
-        <v>1111.3</v>
+        <v>1353.4999999999998</v>
       </c>
       <c r="Q14" s="14">
         <f t="shared" si="20"/>
-        <v>111.13</v>
+        <v>112.79166666666664</v>
       </c>
       <c r="R14" s="15">
         <f t="shared" si="21"/>
@@ -5105,7 +5153,7 @@
       </c>
       <c r="T14" s="15">
         <f t="shared" si="23"/>
-        <v>20.636970600249366</v>
+        <v>20.633444093304483</v>
       </c>
       <c r="W14" s="55">
         <f t="shared" si="5"/>
@@ -5147,13 +5195,13 @@
         <f t="shared" si="14"/>
         <v>13</v>
       </c>
-      <c r="AG14" s="56" t="str">
+      <c r="AG14" s="56">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AH14" s="56" t="str">
+        <v>9</v>
+      </c>
+      <c r="AH14" s="56">
         <f t="shared" si="16"/>
-        <v/>
+        <v>14</v>
       </c>
       <c r="AI14" s="57" t="str">
         <f t="shared" si="17"/>
@@ -5161,7 +5209,7 @@
       </c>
       <c r="AJ14" s="43">
         <f t="shared" si="18"/>
-        <v>92</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5201,16 +5249,20 @@
       <c r="L15" s="36">
         <v>82.1</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
+      <c r="M15" s="36">
+        <v>110.7</v>
+      </c>
+      <c r="N15" s="36">
+        <v>111.4</v>
+      </c>
       <c r="O15" s="8"/>
       <c r="P15" s="16">
         <f t="shared" si="19"/>
-        <v>948.10000000000014</v>
+        <v>1170.2000000000003</v>
       </c>
       <c r="Q15" s="16">
         <f t="shared" si="20"/>
-        <v>94.810000000000016</v>
+        <v>97.516666666666694</v>
       </c>
       <c r="R15" s="17">
         <f t="shared" si="21"/>
@@ -5222,7 +5274,7 @@
       </c>
       <c r="T15" s="17">
         <f t="shared" si="23"/>
-        <v>12.725604111396759</v>
+        <v>13.133152590665052</v>
       </c>
       <c r="W15" s="55">
         <f t="shared" si="5"/>
@@ -5264,13 +5316,13 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="AG15" s="56" t="str">
+      <c r="AG15" s="56">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AH15" s="56" t="str">
+        <v>11</v>
+      </c>
+      <c r="AH15" s="56">
         <f t="shared" si="16"/>
-        <v/>
+        <v>11</v>
       </c>
       <c r="AI15" s="57" t="str">
         <f t="shared" si="17"/>
@@ -5278,7 +5330,7 @@
       </c>
       <c r="AJ15" s="43">
         <f t="shared" si="18"/>
-        <v>61</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5318,16 +5370,20 @@
       <c r="L16" s="34">
         <v>148.1</v>
       </c>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
+      <c r="M16" s="34">
+        <v>53</v>
+      </c>
+      <c r="N16" s="34">
+        <v>103.4</v>
+      </c>
       <c r="O16" s="9"/>
       <c r="P16" s="14">
         <f t="shared" si="19"/>
-        <v>1029.8</v>
+        <v>1186.2</v>
       </c>
       <c r="Q16" s="14">
         <f t="shared" si="20"/>
-        <v>102.97999999999999</v>
+        <v>98.850000000000009</v>
       </c>
       <c r="R16" s="15">
         <f t="shared" si="21"/>
@@ -5335,11 +5391,11 @@
       </c>
       <c r="S16" s="15">
         <f t="shared" si="22"/>
-        <v>64.400000000000006</v>
+        <v>53</v>
       </c>
       <c r="T16" s="15">
         <f t="shared" si="23"/>
-        <v>23.464715828002085</v>
+        <v>25.670694292413369</v>
       </c>
       <c r="W16" s="55">
         <f t="shared" si="5"/>
@@ -5381,13 +5437,13 @@
         <f t="shared" si="14"/>
         <v>14</v>
       </c>
-      <c r="AG16" s="56" t="str">
+      <c r="AG16" s="56">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AH16" s="56" t="str">
+        <v>2</v>
+      </c>
+      <c r="AH16" s="56">
         <f t="shared" si="16"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="AI16" s="57" t="str">
         <f t="shared" si="17"/>
@@ -5395,7 +5451,7 @@
       </c>
       <c r="AJ16" s="43">
         <f t="shared" si="18"/>
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:41" ht="24" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5591,11 +5647,11 @@
     <row r="19" spans="1:41" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P19" s="11">
         <f>SUM(C3:O18)</f>
-        <v>14034.699999999997</v>
+        <v>16778.2</v>
       </c>
       <c r="Q19" s="11">
         <f>AVERAGE(C3:O18)</f>
-        <v>100.24785714285713</v>
+        <v>99.870238095238093</v>
       </c>
       <c r="R19" s="18">
         <f>MAX(C3:O18)</f>
@@ -5603,11 +5659,11 @@
       </c>
       <c r="S19" s="18">
         <f>MIN(C3:O18)</f>
-        <v>54.7</v>
+        <v>46.9</v>
       </c>
       <c r="T19" s="18">
         <f>STDEV(C3:O18)</f>
-        <v>21.161086411357616</v>
+        <v>21.545652852238948</v>
       </c>
     </row>
     <row r="20" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -5662,21 +5718,23 @@
         <v>Spos Before Hos</v>
       </c>
       <c r="C22" s="21">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D22" s="46">
         <f>AJ3</f>
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="E22" s="49">
         <f t="shared" ref="E22:E31" si="24">IF(D3="",-99,IF(T3=0,1,(Q3-$Q$19)/T3))</f>
-        <v>1.0039212785126068</v>
+        <v>0.70034102936881859</v>
       </c>
       <c r="F22" s="28">
         <f>IF(C3="",0,Q3)</f>
-        <v>114.05</v>
-      </c>
-      <c r="G22" s="39"/>
+        <v>110.75833333333334</v>
+      </c>
+      <c r="G22" s="39">
+        <v>100</v>
+      </c>
       <c r="H22" s="22">
         <f>IF(C22="",16,RANK(C22,$C$22:$C$37,0))</f>
         <v>1</v>
@@ -5691,11 +5749,11 @@
       </c>
       <c r="K22" s="22">
         <f>IF(C22="",16,RANK(F22,$F$22:$F$37,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22" s="22">
         <f t="shared" ref="L22" si="25">IF(G22="",16,RANK(G22,$G$22:$G$37,0))</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N22" s="104"/>
       <c r="O22" s="104"/>
@@ -5713,21 +5771,23 @@
         <v>Little Miss Moffet</v>
       </c>
       <c r="C23" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23" s="47">
         <f t="shared" ref="D23:D37" si="26">AJ4</f>
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E23" s="50">
         <f t="shared" si="24"/>
-        <v>-0.47107578321064092</v>
+        <v>-0.50532327681478739</v>
       </c>
       <c r="F23" s="28">
         <f t="shared" ref="F23:F37" si="27">IF(C4="",0,Q4)</f>
-        <v>89.460000000000008</v>
-      </c>
-      <c r="G23" s="40"/>
+        <v>89.358333333333334</v>
+      </c>
+      <c r="G23" s="40">
+        <v>86.9</v>
+      </c>
       <c r="H23" s="24">
         <f t="shared" ref="H23:H37" si="28">IF(C23="",16,RANK(C23,$C$22:$C$37,0))</f>
         <v>7</v>
@@ -5746,7 +5806,7 @@
       </c>
       <c r="L23" s="24">
         <f t="shared" ref="L23:L37" si="31">IF(G23="",16,RANK(G23,$G$22:$G$37,0))</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="N23" s="30"/>
       <c r="O23" s="30"/>
@@ -5764,20 +5824,22 @@
       </c>
       <c r="D24" s="47">
         <f t="shared" si="26"/>
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E24" s="50">
         <f t="shared" si="24"/>
-        <v>-1.1260265142081674</v>
+        <v>-0.87109976308082604</v>
       </c>
       <c r="F24" s="28">
         <f t="shared" si="27"/>
-        <v>83.080000000000013</v>
-      </c>
-      <c r="G24" s="40"/>
+        <v>82.600000000000009</v>
+      </c>
+      <c r="G24" s="40">
+        <v>76.099999999999994</v>
+      </c>
       <c r="H24" s="24">
         <f t="shared" si="28"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I24" s="24">
         <f t="shared" si="29"/>
@@ -5793,7 +5855,7 @@
       </c>
       <c r="L24" s="24">
         <f t="shared" si="31"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N24" s="104" t="s">
         <v>44</v>
@@ -5819,28 +5881,30 @@
         <v>Team Thomas</v>
       </c>
       <c r="C25" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" s="47">
         <f t="shared" si="26"/>
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E25" s="50">
         <f t="shared" si="24"/>
-        <v>-0.13663334873977381</v>
+        <v>-0.17897894511552773</v>
       </c>
       <c r="F25" s="28">
         <f t="shared" si="27"/>
-        <v>98.15</v>
-      </c>
-      <c r="G25" s="40"/>
+        <v>97.166666666666686</v>
+      </c>
+      <c r="G25" s="40">
+        <v>71.8</v>
+      </c>
       <c r="H25" s="24">
         <f t="shared" si="28"/>
         <v>8</v>
       </c>
       <c r="I25" s="24">
         <f t="shared" si="29"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J25" s="24">
         <f>RANK(E25,$E$22:$E40,0)</f>
@@ -5848,11 +5912,11 @@
       </c>
       <c r="K25" s="24">
         <f t="shared" si="30"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L25" s="24">
         <f t="shared" si="31"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N25" s="104"/>
       <c r="O25" s="104"/>
@@ -5876,32 +5940,34 @@
         <v>Gurley Gone Wild</v>
       </c>
       <c r="C26" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="47">
         <f t="shared" si="26"/>
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E26" s="50">
         <f t="shared" si="24"/>
-        <v>-0.18745482336470703</v>
+        <v>-0.18372307724274656</v>
       </c>
       <c r="F26" s="28">
         <f t="shared" si="27"/>
-        <v>96.250000000000014</v>
-      </c>
-      <c r="G26" s="40"/>
+        <v>96.075000000000003</v>
+      </c>
+      <c r="G26" s="40">
+        <v>82.7</v>
+      </c>
       <c r="H26" s="24">
         <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I26" s="24">
         <f t="shared" si="29"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J26" s="24">
         <f>RANK(E26,$E$22:$E41,0)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K26" s="24">
         <f t="shared" si="30"/>
@@ -5909,7 +5975,7 @@
       </c>
       <c r="L26" s="24">
         <f t="shared" si="31"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N26" s="30"/>
       <c r="O26" s="30"/>
@@ -5927,36 +5993,38 @@
       </c>
       <c r="D27" s="47">
         <f t="shared" si="26"/>
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E27" s="50">
         <f t="shared" si="24"/>
-        <v>0.1231843563600282</v>
+        <v>1.054002010520895E-2</v>
       </c>
       <c r="F27" s="28">
         <f t="shared" si="27"/>
-        <v>103.15</v>
-      </c>
-      <c r="G27" s="40"/>
+        <v>100.10833333333333</v>
+      </c>
+      <c r="G27" s="40">
+        <v>86.2</v>
+      </c>
       <c r="H27" s="24">
         <f t="shared" si="28"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I27" s="24">
         <f t="shared" si="29"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J27" s="24">
         <f>RANK(E27,$E$22:$E42,0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K27" s="24">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L27" s="24">
         <f t="shared" si="31"/>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N27" s="100" t="s">
         <v>45</v>
@@ -5976,21 +6044,23 @@
         <v>Team Gregory</v>
       </c>
       <c r="C28" s="23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D28" s="47">
         <f t="shared" si="26"/>
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="E28" s="50">
         <f t="shared" si="24"/>
-        <v>0.4481001011128512</v>
+        <v>0.52388265298893955</v>
       </c>
       <c r="F28" s="28">
         <f t="shared" si="27"/>
-        <v>111.56000000000002</v>
-      </c>
-      <c r="G28" s="40"/>
+        <v>112.2</v>
+      </c>
+      <c r="G28" s="40">
+        <v>94.6</v>
+      </c>
       <c r="H28" s="24">
         <f t="shared" si="28"/>
         <v>3</v>
@@ -6009,7 +6079,7 @@
       </c>
       <c r="L28" s="24">
         <f t="shared" si="31"/>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="N28" s="100"/>
       <c r="O28" s="100"/>
@@ -6027,28 +6097,30 @@
         <v>Team Wasserman</v>
       </c>
       <c r="C29" s="23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" s="47">
         <f t="shared" si="26"/>
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="E29" s="50">
         <f t="shared" si="24"/>
-        <v>0.14362942057698838</v>
+        <v>0.25981682010511331</v>
       </c>
       <c r="F29" s="28">
         <f t="shared" si="27"/>
-        <v>102.92999999999999</v>
-      </c>
-      <c r="G29" s="40"/>
+        <v>105.54166666666667</v>
+      </c>
+      <c r="G29" s="40">
+        <v>84.9</v>
+      </c>
       <c r="H29" s="24">
         <f t="shared" si="28"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I29" s="24">
         <f t="shared" si="29"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J29" s="24">
         <f>RANK(E29,$E$22:$E44,0)</f>
@@ -6056,11 +6128,11 @@
       </c>
       <c r="K29" s="24">
         <f t="shared" si="30"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L29" s="24">
         <f t="shared" si="31"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="N29" s="100"/>
       <c r="O29" s="100"/>
@@ -6078,40 +6150,42 @@
         <v>SFV Aguilar</v>
       </c>
       <c r="C30" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" s="47">
         <f t="shared" si="26"/>
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E30" s="50">
         <f t="shared" si="24"/>
-        <v>-6.3396319983349228E-2</v>
+        <v>-0.15058945991126418</v>
       </c>
       <c r="F30" s="28">
         <f t="shared" si="27"/>
-        <v>98.53</v>
-      </c>
-      <c r="G30" s="40"/>
+        <v>95.949999999999989</v>
+      </c>
+      <c r="G30" s="40">
+        <v>83.3</v>
+      </c>
       <c r="H30" s="24">
         <f t="shared" si="28"/>
         <v>8</v>
       </c>
       <c r="I30" s="24">
         <f t="shared" si="29"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J30" s="24">
         <f>RANK(E30,$E$22:$E45,0)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K30" s="24">
         <f t="shared" si="30"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L30" s="24">
         <f t="shared" si="31"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N30" s="100"/>
       <c r="O30" s="100"/>
@@ -6133,24 +6207,26 @@
       </c>
       <c r="D31" s="47">
         <f t="shared" si="26"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E31" s="50">
         <f t="shared" si="24"/>
-        <v>-6.9583138072347672E-2</v>
+        <v>-0.14687481789750881</v>
       </c>
       <c r="F31" s="28">
         <f t="shared" si="27"/>
-        <v>98.710000000000008</v>
-      </c>
-      <c r="G31" s="40"/>
+        <v>96.774999999999991</v>
+      </c>
+      <c r="G31" s="40">
+        <v>84.6</v>
+      </c>
       <c r="H31" s="24">
         <f t="shared" si="28"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I31" s="24">
         <f t="shared" si="29"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J31" s="24">
         <f>RANK(E31,$E$22:$E46,0)</f>
@@ -6158,11 +6234,11 @@
       </c>
       <c r="K31" s="24">
         <f t="shared" si="30"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L31" s="24">
         <f t="shared" si="31"/>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="N31" s="100"/>
       <c r="O31" s="100"/>
@@ -6180,40 +6256,42 @@
         <v>OhNo Romo</v>
       </c>
       <c r="C32" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32" s="47">
         <f t="shared" si="26"/>
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E32" s="50">
         <f>IF(D13="",-99,IF(T13=0,1,(Q13-$Q$19)/T13))</f>
-        <v>-8.4384016330349393E-2</v>
+        <v>0.13420239711094401</v>
       </c>
       <c r="F32" s="28">
         <f t="shared" si="27"/>
-        <v>98.68</v>
-      </c>
-      <c r="G32" s="40"/>
+        <v>102.49166666666667</v>
+      </c>
+      <c r="G32" s="40">
+        <v>69.099999999999994</v>
+      </c>
       <c r="H32" s="24">
         <f t="shared" si="28"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I32" s="24">
         <f t="shared" si="29"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J32" s="24">
         <f>RANK(E32,$E$22:$E47,0)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K32" s="24">
         <f t="shared" si="30"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L32" s="24">
         <f t="shared" si="31"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N32" s="77"/>
       <c r="O32" s="77"/>
@@ -6231,21 +6309,23 @@
         <v>Cool Hand Lou</v>
       </c>
       <c r="C33" s="23">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D33" s="47">
         <f t="shared" si="26"/>
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="E33" s="50">
         <f t="shared" ref="E33:E37" si="32">IF(D14="",-99,IF(T14=0,1,(Q14-$Q$19)/T14))</f>
-        <v>0.52731299898306649</v>
+        <v>0.62623711838885543</v>
       </c>
       <c r="F33" s="28">
         <f t="shared" si="27"/>
-        <v>111.13</v>
-      </c>
-      <c r="G33" s="40"/>
+        <v>112.79166666666664</v>
+      </c>
+      <c r="G33" s="40">
+        <v>94.7</v>
+      </c>
       <c r="H33" s="24">
         <f t="shared" si="28"/>
         <v>2</v>
@@ -6260,11 +6340,11 @@
       </c>
       <c r="K33" s="24">
         <f t="shared" si="30"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L33" s="24">
         <f t="shared" si="31"/>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N33" s="100" t="s">
         <v>47</v>
@@ -6284,40 +6364,42 @@
         <v>Hebrew Wolves</v>
       </c>
       <c r="C34" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" s="47">
         <f t="shared" si="26"/>
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E34" s="50">
         <f t="shared" si="32"/>
-        <v>-0.4273162276034575</v>
+        <v>-0.17920841262777229</v>
       </c>
       <c r="F34" s="28">
         <f t="shared" si="27"/>
-        <v>94.810000000000016</v>
-      </c>
-      <c r="G34" s="40"/>
+        <v>97.516666666666694</v>
+      </c>
+      <c r="G34" s="40">
+        <v>83.8</v>
+      </c>
       <c r="H34" s="24">
         <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I34" s="24">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J34" s="24">
         <f>RANK(E34,$E$22:$E49,0)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K34" s="24">
         <f t="shared" si="30"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L34" s="24">
         <f t="shared" si="31"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="N34" s="100"/>
       <c r="O34" s="100"/>
@@ -6339,36 +6421,38 @@
       </c>
       <c r="D35" s="47">
         <f t="shared" si="26"/>
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E35" s="50">
         <f t="shared" si="32"/>
-        <v>0.11643622182214558</v>
+        <v>-3.974329964030629E-2</v>
       </c>
       <c r="F35" s="28">
         <f t="shared" si="27"/>
-        <v>102.97999999999999</v>
-      </c>
-      <c r="G35" s="40"/>
+        <v>98.850000000000009</v>
+      </c>
+      <c r="G35" s="40">
+        <v>84.5</v>
+      </c>
       <c r="H35" s="24">
         <f t="shared" si="28"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I35" s="24">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J35" s="24">
         <f>RANK(E35,$E$22:$E50,0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K35" s="24">
         <f t="shared" si="30"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L35" s="24">
         <f t="shared" si="31"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N35" s="100"/>
       <c r="O35" s="100"/>
@@ -6567,7 +6651,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:L16">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6634,7 +6718,7 @@
       </c>
       <c r="D3" s="82">
         <f t="shared" ref="D3:D18" si="1">AVERAGE(3*E3,F3,G3,H3,I3)</f>
-        <v>4.4000000000000004</v>
+        <v>1.8</v>
       </c>
       <c r="E3" s="83">
         <f>POINTS!H22</f>
@@ -6650,11 +6734,11 @@
       </c>
       <c r="H3" s="83">
         <f>POINTS!K22</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" s="84">
         <f>POINTS!L22</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J3" s="78"/>
     </row>
@@ -6665,11 +6749,11 @@
       </c>
       <c r="C4" s="71">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="85">
         <f t="shared" si="1"/>
-        <v>15.2</v>
+        <v>12.8</v>
       </c>
       <c r="E4" s="86">
         <f>POINTS!H23</f>
@@ -6689,7 +6773,7 @@
       </c>
       <c r="I4" s="87">
         <f>POINTS!L23</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J4" s="79"/>
     </row>
@@ -6704,11 +6788,11 @@
       </c>
       <c r="D5" s="85">
         <f t="shared" si="1"/>
-        <v>19.399999999999999</v>
+        <v>19.2</v>
       </c>
       <c r="E5" s="86">
         <f>POINTS!H24</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="86">
         <f>POINTS!I24</f>
@@ -6724,7 +6808,7 @@
       </c>
       <c r="I5" s="87">
         <f>POINTS!L24</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J5" s="79"/>
     </row>
@@ -6739,7 +6823,7 @@
       </c>
       <c r="D6" s="85">
         <f t="shared" si="1"/>
-        <v>13.4</v>
+        <v>12.8</v>
       </c>
       <c r="E6" s="86">
         <f>POINTS!H25</f>
@@ -6747,7 +6831,7 @@
       </c>
       <c r="F6" s="86">
         <f>POINTS!I25</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6" s="86">
         <f>POINTS!J25</f>
@@ -6755,11 +6839,11 @@
       </c>
       <c r="H6" s="86">
         <f>POINTS!K25</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="87">
         <f>POINTS!L25</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J6" s="79"/>
     </row>
@@ -6774,7 +6858,7 @@
       </c>
       <c r="D7" s="85">
         <f t="shared" si="1"/>
-        <v>15.6</v>
+        <v>14.6</v>
       </c>
       <c r="E7" s="86">
         <f>POINTS!H26</f>
@@ -6782,11 +6866,11 @@
       </c>
       <c r="F7" s="86">
         <f>POINTS!I26</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="86">
         <f>POINTS!J26</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7" s="86">
         <f>POINTS!K26</f>
@@ -6794,7 +6878,7 @@
       </c>
       <c r="I7" s="87">
         <f>POINTS!L26</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J7" s="79"/>
     </row>
@@ -6809,27 +6893,27 @@
       </c>
       <c r="D8" s="85">
         <f t="shared" si="1"/>
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="E8" s="86">
         <f>POINTS!H27</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="86">
         <f>POINTS!I27</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8" s="86">
         <f>POINTS!J27</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H8" s="86">
         <f>POINTS!K27</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I8" s="87">
         <f>POINTS!L27</f>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J8" s="79"/>
     </row>
@@ -6844,7 +6928,7 @@
       </c>
       <c r="D9" s="85">
         <f t="shared" si="1"/>
-        <v>6.6</v>
+        <v>4</v>
       </c>
       <c r="E9" s="86">
         <f>POINTS!H28</f>
@@ -6864,7 +6948,7 @@
       </c>
       <c r="I9" s="87">
         <f>POINTS!L28</f>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J9" s="79"/>
     </row>
@@ -6875,19 +6959,19 @@
       </c>
       <c r="C10" s="71">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D10" s="85">
         <f t="shared" si="1"/>
-        <v>14.2</v>
+        <v>9.6</v>
       </c>
       <c r="E10" s="86">
         <f>POINTS!H29</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F10" s="86">
         <f>POINTS!I29</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G10" s="86">
         <f>POINTS!J29</f>
@@ -6895,11 +6979,11 @@
       </c>
       <c r="H10" s="86">
         <f>POINTS!K29</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I10" s="87">
         <f>POINTS!L29</f>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J10" s="79"/>
     </row>
@@ -6910,11 +6994,11 @@
       </c>
       <c r="C11" s="71">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D11" s="85">
         <f t="shared" si="1"/>
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="E11" s="86">
         <f>POINTS!H30</f>
@@ -6922,19 +7006,19 @@
       </c>
       <c r="F11" s="86">
         <f>POINTS!I30</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G11" s="86">
         <f>POINTS!J30</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H11" s="86">
         <f>POINTS!K30</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I11" s="87">
         <f>POINTS!L30</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J11" s="79"/>
     </row>
@@ -6945,19 +7029,19 @@
       </c>
       <c r="C12" s="71">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D12" s="85">
         <f t="shared" si="1"/>
-        <v>13.8</v>
+        <v>15</v>
       </c>
       <c r="E12" s="86">
         <f>POINTS!H31</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F12" s="86">
         <f>POINTS!I31</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G12" s="86">
         <f>POINTS!J31</f>
@@ -6965,11 +7049,11 @@
       </c>
       <c r="H12" s="86">
         <f>POINTS!K31</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I12" s="87">
         <f>POINTS!L31</f>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J12" s="79"/>
     </row>
@@ -6984,27 +7068,27 @@
       </c>
       <c r="D13" s="85">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>8.4</v>
       </c>
       <c r="E13" s="86">
         <f>POINTS!H32</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F13" s="86">
         <f>POINTS!I32</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G13" s="86">
         <f>POINTS!J32</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H13" s="86">
         <f>POINTS!K32</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I13" s="87">
         <f>POINTS!L32</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J13" s="79"/>
     </row>
@@ -7019,7 +7103,7 @@
       </c>
       <c r="D14" s="85">
         <f t="shared" si="1"/>
-        <v>5.8</v>
+        <v>2.6</v>
       </c>
       <c r="E14" s="86">
         <f>POINTS!H33</f>
@@ -7035,11 +7119,11 @@
       </c>
       <c r="H14" s="86">
         <f>POINTS!K33</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14" s="87">
         <f>POINTS!L33</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J14" s="79"/>
     </row>
@@ -7050,11 +7134,11 @@
       </c>
       <c r="C15" s="71">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D15" s="85">
         <f t="shared" si="1"/>
-        <v>16.399999999999999</v>
+        <v>13.4</v>
       </c>
       <c r="E15" s="86">
         <f>POINTS!H34</f>
@@ -7062,19 +7146,19 @@
       </c>
       <c r="F15" s="86">
         <f>POINTS!I34</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G15" s="86">
         <f>POINTS!J34</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="86">
         <f>POINTS!K34</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I15" s="87">
         <f>POINTS!L34</f>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J15" s="79"/>
     </row>
@@ -7093,23 +7177,23 @@
       </c>
       <c r="E16" s="86">
         <f>POINTS!H35</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" s="86">
         <f>POINTS!I35</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G16" s="86">
         <f>POINTS!J35</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H16" s="86">
         <f>POINTS!K35</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I16" s="87">
         <f>POINTS!L35</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J16" s="79"/>
     </row>
@@ -7200,8 +7284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J17"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J16"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -7249,12 +7333,12 @@
         <v>Spos Before Hos</v>
       </c>
       <c r="C3" s="70">
-        <f t="shared" ref="C3:C16" si="0">RANK(D3,$D$3:$D$16,1)</f>
+        <f>RANK(D3,$D$3:$D$16,1)</f>
         <v>1</v>
       </c>
       <c r="D3" s="82">
-        <f t="shared" ref="D3:D16" si="1">AVERAGE(3*E3,F3,G3,H3,I3)</f>
-        <v>4.4000000000000004</v>
+        <f>AVERAGE(3*E3,F3,G3,H3,I3)</f>
+        <v>1.8</v>
       </c>
       <c r="E3" s="83">
         <f>POINTS!H22</f>
@@ -7270,466 +7354,466 @@
       </c>
       <c r="H3" s="83">
         <f>POINTS!K22</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" s="84">
         <f>POINTS!L22</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J3" s="78"/>
     </row>
     <row r="4" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="92" t="str">
+        <f>POINTS!B14</f>
+        <v>Cool Hand Lou</v>
+      </c>
+      <c r="C4" s="71">
+        <f>RANK(D4,$D$3:$D$16,1)</f>
+        <v>2</v>
+      </c>
+      <c r="D4" s="85">
+        <f>AVERAGE(3*E4,F4,G4,H4,I4)</f>
+        <v>2.6</v>
+      </c>
+      <c r="E4" s="86">
+        <f>POINTS!H33</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="86">
+        <f>POINTS!I33</f>
+        <v>2</v>
+      </c>
+      <c r="G4" s="86">
+        <f>POINTS!J33</f>
+        <v>2</v>
+      </c>
+      <c r="H4" s="86">
+        <f>POINTS!K33</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="87">
+        <f>POINTS!L33</f>
+        <v>2</v>
+      </c>
+      <c r="J4" s="79"/>
+    </row>
+    <row r="5" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="92" t="str">
+        <f>POINTS!B9</f>
+        <v>Team Gregory</v>
+      </c>
+      <c r="C5" s="71">
+        <f>RANK(D5,$D$3:$D$16,1)</f>
+        <v>3</v>
+      </c>
+      <c r="D5" s="85">
+        <f>AVERAGE(3*E5,F5,G5,H5,I5)</f>
+        <v>4</v>
+      </c>
+      <c r="E5" s="86">
+        <f>POINTS!H28</f>
+        <v>3</v>
+      </c>
+      <c r="F5" s="86">
+        <f>POINTS!I28</f>
+        <v>3</v>
+      </c>
+      <c r="G5" s="86">
+        <f>POINTS!J28</f>
+        <v>3</v>
+      </c>
+      <c r="H5" s="86">
+        <f>POINTS!K28</f>
+        <v>2</v>
+      </c>
+      <c r="I5" s="87">
+        <f>POINTS!L28</f>
+        <v>3</v>
+      </c>
+      <c r="J5" s="79"/>
+    </row>
+    <row r="6" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="92" t="str">
+        <f>POINTS!B8</f>
+        <v>Deflate Deez Nutz</v>
+      </c>
+      <c r="C6" s="71">
+        <f>RANK(D6,$D$3:$D$16,1)</f>
+        <v>4</v>
+      </c>
+      <c r="D6" s="85">
+        <f>AVERAGE(3*E6,F6,G6,H6,I6)</f>
+        <v>6.8</v>
+      </c>
+      <c r="E6" s="86">
+        <f>POINTS!H27</f>
+        <v>4</v>
+      </c>
+      <c r="F6" s="86">
+        <f>POINTS!I27</f>
+        <v>5</v>
+      </c>
+      <c r="G6" s="86">
+        <f>POINTS!J27</f>
+        <v>6</v>
+      </c>
+      <c r="H6" s="86">
+        <f>POINTS!K27</f>
+        <v>6</v>
+      </c>
+      <c r="I6" s="87">
+        <f>POINTS!L27</f>
+        <v>5</v>
+      </c>
+      <c r="J6" s="79"/>
+    </row>
+    <row r="7" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="92" t="str">
+        <f>POINTS!B16</f>
+        <v>Team Force</v>
+      </c>
+      <c r="C7" s="71">
+        <f>RANK(D7,$D$3:$D$16,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D7" s="85">
+        <f>AVERAGE(3*E7,F7,G7,H7,I7)</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E7" s="86">
+        <f>POINTS!H35</f>
+        <v>4</v>
+      </c>
+      <c r="F7" s="86">
+        <f>POINTS!I35</f>
+        <v>7</v>
+      </c>
+      <c r="G7" s="86">
+        <f>POINTS!J35</f>
+        <v>7</v>
+      </c>
+      <c r="H7" s="86">
+        <f>POINTS!K35</f>
+        <v>7</v>
+      </c>
+      <c r="I7" s="87">
+        <f>POINTS!L35</f>
+        <v>8</v>
+      </c>
+      <c r="J7" s="79"/>
+    </row>
+    <row r="8" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="92" t="str">
+        <f>POINTS!B13</f>
+        <v>OhNo Romo</v>
+      </c>
+      <c r="C8" s="71">
+        <f>RANK(D8,$D$3:$D$16,1)</f>
+        <v>6</v>
+      </c>
+      <c r="D8" s="85">
+        <f>AVERAGE(3*E8,F8,G8,H8,I8)</f>
+        <v>8.4</v>
+      </c>
+      <c r="E8" s="86">
+        <f>POINTS!H32</f>
+        <v>4</v>
+      </c>
+      <c r="F8" s="86">
+        <f>POINTS!I32</f>
+        <v>6</v>
+      </c>
+      <c r="G8" s="86">
+        <f>POINTS!J32</f>
+        <v>5</v>
+      </c>
+      <c r="H8" s="86">
+        <f>POINTS!K32</f>
+        <v>5</v>
+      </c>
+      <c r="I8" s="87">
+        <f>POINTS!L32</f>
+        <v>14</v>
+      </c>
+      <c r="J8" s="79"/>
+    </row>
+    <row r="9" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="92" t="str">
+        <f>POINTS!B10</f>
+        <v>Team Wasserman</v>
+      </c>
+      <c r="C9" s="71">
+        <f>RANK(D9,$D$3:$D$16,1)</f>
+        <v>7</v>
+      </c>
+      <c r="D9" s="85">
+        <f>AVERAGE(3*E9,F9,G9,H9,I9)</f>
+        <v>9.6</v>
+      </c>
+      <c r="E9" s="86">
+        <f>POINTS!H29</f>
+        <v>10</v>
+      </c>
+      <c r="F9" s="86">
+        <f>POINTS!I29</f>
+        <v>4</v>
+      </c>
+      <c r="G9" s="86">
+        <f>POINTS!J29</f>
+        <v>4</v>
+      </c>
+      <c r="H9" s="86">
+        <f>POINTS!K29</f>
+        <v>4</v>
+      </c>
+      <c r="I9" s="87">
+        <f>POINTS!L29</f>
+        <v>6</v>
+      </c>
+      <c r="J9" s="79"/>
+    </row>
+    <row r="10" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="92" t="str">
+        <f>POINTS!B6</f>
+        <v>Team Thomas</v>
+      </c>
+      <c r="C10" s="71">
+        <f>RANK(D10,$D$3:$D$16,1)</f>
+        <v>8</v>
+      </c>
+      <c r="D10" s="85">
+        <f>AVERAGE(3*E10,F10,G10,H10,I10)</f>
+        <v>12.8</v>
+      </c>
+      <c r="E10" s="86">
+        <f>POINTS!H25</f>
+        <v>8</v>
+      </c>
+      <c r="F10" s="86">
+        <f>POINTS!I25</f>
+        <v>8</v>
+      </c>
+      <c r="G10" s="86">
+        <f>POINTS!J25</f>
+        <v>10</v>
+      </c>
+      <c r="H10" s="86">
+        <f>POINTS!K25</f>
+        <v>9</v>
+      </c>
+      <c r="I10" s="87">
+        <f>POINTS!L25</f>
+        <v>13</v>
+      </c>
+      <c r="J10" s="79"/>
+    </row>
+    <row r="11" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="92" t="str">
         <f>POINTS!B4</f>
         <v>Little Miss Moffet</v>
       </c>
-      <c r="C4" s="71">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="D4" s="85">
-        <f t="shared" si="1"/>
-        <v>15.2</v>
-      </c>
-      <c r="E4" s="86">
+      <c r="C11" s="71">
+        <f>RANK(D11,$D$3:$D$16,1)</f>
+        <v>8</v>
+      </c>
+      <c r="D11" s="85">
+        <f>AVERAGE(3*E11,F11,G11,H11,I11)</f>
+        <v>12.8</v>
+      </c>
+      <c r="E11" s="86">
         <f>POINTS!H23</f>
         <v>7</v>
       </c>
-      <c r="F4" s="86">
+      <c r="F11" s="86">
         <f>POINTS!I23</f>
         <v>13</v>
       </c>
-      <c r="G4" s="86">
+      <c r="G11" s="86">
         <f>POINTS!J23</f>
         <v>13</v>
       </c>
-      <c r="H4" s="86">
+      <c r="H11" s="86">
         <f>POINTS!K23</f>
         <v>13</v>
       </c>
-      <c r="I4" s="87">
+      <c r="I11" s="87">
         <f>POINTS!L23</f>
-        <v>16</v>
-      </c>
-      <c r="J4" s="79"/>
-    </row>
-    <row r="5" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="92" t="str">
+        <v>4</v>
+      </c>
+      <c r="J11" s="79"/>
+    </row>
+    <row r="12" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="92" t="str">
+        <f>POINTS!B11</f>
+        <v>SFV Aguilar</v>
+      </c>
+      <c r="C12" s="71">
+        <f>RANK(D12,$D$3:$D$16,1)</f>
+        <v>10</v>
+      </c>
+      <c r="D12" s="85">
+        <f>AVERAGE(3*E12,F12,G12,H12,I12)</f>
+        <v>13.4</v>
+      </c>
+      <c r="E12" s="86">
+        <f>POINTS!H30</f>
+        <v>8</v>
+      </c>
+      <c r="F12" s="86">
+        <f>POINTS!I30</f>
+        <v>12</v>
+      </c>
+      <c r="G12" s="86">
+        <f>POINTS!J30</f>
+        <v>9</v>
+      </c>
+      <c r="H12" s="86">
+        <f>POINTS!K30</f>
+        <v>12</v>
+      </c>
+      <c r="I12" s="87">
+        <f>POINTS!L30</f>
+        <v>10</v>
+      </c>
+      <c r="J12" s="79"/>
+    </row>
+    <row r="13" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="92" t="str">
+        <f>POINTS!B15</f>
+        <v>Hebrew Wolves</v>
+      </c>
+      <c r="C13" s="71">
+        <f>RANK(D13,$D$3:$D$16,1)</f>
+        <v>10</v>
+      </c>
+      <c r="D13" s="85">
+        <f>AVERAGE(3*E13,F13,G13,H13,I13)</f>
+        <v>13.4</v>
+      </c>
+      <c r="E13" s="86">
+        <f>POINTS!H34</f>
+        <v>10</v>
+      </c>
+      <c r="F13" s="86">
+        <f>POINTS!I34</f>
+        <v>9</v>
+      </c>
+      <c r="G13" s="86">
+        <f>POINTS!J34</f>
+        <v>11</v>
+      </c>
+      <c r="H13" s="86">
+        <f>POINTS!K34</f>
+        <v>8</v>
+      </c>
+      <c r="I13" s="87">
+        <f>POINTS!L34</f>
+        <v>9</v>
+      </c>
+      <c r="J13" s="79"/>
+    </row>
+    <row r="14" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="92" t="str">
+        <f>POINTS!B7</f>
+        <v>Gurley Gone Wild</v>
+      </c>
+      <c r="C14" s="71">
+        <f>RANK(D14,$D$3:$D$16,1)</f>
+        <v>12</v>
+      </c>
+      <c r="D14" s="85">
+        <f>AVERAGE(3*E14,F14,G14,H14,I14)</f>
+        <v>14.6</v>
+      </c>
+      <c r="E14" s="86">
+        <f>POINTS!H26</f>
+        <v>10</v>
+      </c>
+      <c r="F14" s="86">
+        <f>POINTS!I26</f>
+        <v>9</v>
+      </c>
+      <c r="G14" s="86">
+        <f>POINTS!J26</f>
+        <v>12</v>
+      </c>
+      <c r="H14" s="86">
+        <f>POINTS!K26</f>
+        <v>11</v>
+      </c>
+      <c r="I14" s="87">
+        <f>POINTS!L26</f>
+        <v>11</v>
+      </c>
+      <c r="J14" s="79"/>
+    </row>
+    <row r="15" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="92" t="str">
+        <f>POINTS!B12</f>
+        <v>Team Frisch</v>
+      </c>
+      <c r="C15" s="71">
+        <f>RANK(D15,$D$3:$D$16,1)</f>
+        <v>13</v>
+      </c>
+      <c r="D15" s="85">
+        <f>AVERAGE(3*E15,F15,G15,H15,I15)</f>
+        <v>15</v>
+      </c>
+      <c r="E15" s="86">
+        <f>POINTS!H31</f>
+        <v>13</v>
+      </c>
+      <c r="F15" s="86">
+        <f>POINTS!I31</f>
+        <v>11</v>
+      </c>
+      <c r="G15" s="86">
+        <f>POINTS!J31</f>
+        <v>8</v>
+      </c>
+      <c r="H15" s="86">
+        <f>POINTS!K31</f>
+        <v>10</v>
+      </c>
+      <c r="I15" s="87">
+        <f>POINTS!L31</f>
+        <v>7</v>
+      </c>
+      <c r="J15" s="79"/>
+    </row>
+    <row r="16" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="93" t="str">
         <f>POINTS!B5</f>
         <v>SUPERMAX LOCO</v>
       </c>
-      <c r="C5" s="71">
-        <f t="shared" si="0"/>
+      <c r="C16" s="72">
+        <f>RANK(D16,$D$3:$D$16,1)</f>
         <v>14</v>
       </c>
-      <c r="D5" s="85">
-        <f t="shared" si="1"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="E5" s="86">
+      <c r="D16" s="88">
+        <f>AVERAGE(3*E16,F16,G16,H16,I16)</f>
+        <v>19.2</v>
+      </c>
+      <c r="E16" s="89">
         <f>POINTS!H24</f>
-        <v>13</v>
-      </c>
-      <c r="F5" s="86">
+        <v>14</v>
+      </c>
+      <c r="F16" s="89">
         <f>POINTS!I24</f>
         <v>14</v>
       </c>
-      <c r="G5" s="86">
+      <c r="G16" s="89">
         <f>POINTS!J24</f>
         <v>14</v>
       </c>
-      <c r="H5" s="86">
+      <c r="H16" s="89">
         <f>POINTS!K24</f>
         <v>14</v>
       </c>
-      <c r="I5" s="87">
+      <c r="I16" s="90">
         <f>POINTS!L24</f>
-        <v>16</v>
-      </c>
-      <c r="J5" s="79"/>
-    </row>
-    <row r="6" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="92" t="str">
-        <f>POINTS!B6</f>
-        <v>Team Thomas</v>
-      </c>
-      <c r="C6" s="71">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D6" s="85">
-        <f t="shared" si="1"/>
-        <v>13.4</v>
-      </c>
-      <c r="E6" s="86">
-        <f>POINTS!H25</f>
-        <v>8</v>
-      </c>
-      <c r="F6" s="86">
-        <f>POINTS!I25</f>
-        <v>7</v>
-      </c>
-      <c r="G6" s="86">
-        <f>POINTS!J25</f>
-        <v>10</v>
-      </c>
-      <c r="H6" s="86">
-        <f>POINTS!K25</f>
-        <v>10</v>
-      </c>
-      <c r="I6" s="87">
-        <f>POINTS!L25</f>
-        <v>16</v>
-      </c>
-      <c r="J6" s="79"/>
-    </row>
-    <row r="7" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="92" t="str">
-        <f>POINTS!B7</f>
-        <v>Gurley Gone Wild</v>
-      </c>
-      <c r="C7" s="71">
-        <f t="shared" si="0"/>
         <v>12</v>
-      </c>
-      <c r="D7" s="85">
-        <f t="shared" si="1"/>
-        <v>15.6</v>
-      </c>
-      <c r="E7" s="86">
-        <f>POINTS!H26</f>
-        <v>10</v>
-      </c>
-      <c r="F7" s="86">
-        <f>POINTS!I26</f>
-        <v>10</v>
-      </c>
-      <c r="G7" s="86">
-        <f>POINTS!J26</f>
-        <v>11</v>
-      </c>
-      <c r="H7" s="86">
-        <f>POINTS!K26</f>
-        <v>11</v>
-      </c>
-      <c r="I7" s="87">
-        <f>POINTS!L26</f>
-        <v>16</v>
-      </c>
-      <c r="J7" s="79"/>
-    </row>
-    <row r="8" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="92" t="str">
-        <f>POINTS!B8</f>
-        <v>Deflate Deez Nutz</v>
-      </c>
-      <c r="C8" s="71">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D8" s="85">
-        <f t="shared" si="1"/>
-        <v>7.6</v>
-      </c>
-      <c r="E8" s="86">
-        <f>POINTS!H27</f>
-        <v>3</v>
-      </c>
-      <c r="F8" s="86">
-        <f>POINTS!I27</f>
-        <v>4</v>
-      </c>
-      <c r="G8" s="86">
-        <f>POINTS!J27</f>
-        <v>5</v>
-      </c>
-      <c r="H8" s="86">
-        <f>POINTS!K27</f>
-        <v>4</v>
-      </c>
-      <c r="I8" s="87">
-        <f>POINTS!L27</f>
-        <v>16</v>
-      </c>
-      <c r="J8" s="79"/>
-    </row>
-    <row r="9" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="92" t="str">
-        <f>POINTS!B9</f>
-        <v>Team Gregory</v>
-      </c>
-      <c r="C9" s="71">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D9" s="85">
-        <f t="shared" si="1"/>
-        <v>6.6</v>
-      </c>
-      <c r="E9" s="86">
-        <f>POINTS!H28</f>
-        <v>3</v>
-      </c>
-      <c r="F9" s="86">
-        <f>POINTS!I28</f>
-        <v>3</v>
-      </c>
-      <c r="G9" s="86">
-        <f>POINTS!J28</f>
-        <v>3</v>
-      </c>
-      <c r="H9" s="86">
-        <f>POINTS!K28</f>
-        <v>2</v>
-      </c>
-      <c r="I9" s="87">
-        <f>POINTS!L28</f>
-        <v>16</v>
-      </c>
-      <c r="J9" s="79"/>
-    </row>
-    <row r="10" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="92" t="str">
-        <f>POINTS!B10</f>
-        <v>Team Wasserman</v>
-      </c>
-      <c r="C10" s="71">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D10" s="85">
-        <f t="shared" si="1"/>
-        <v>14.2</v>
-      </c>
-      <c r="E10" s="86">
-        <f>POINTS!H29</f>
-        <v>13</v>
-      </c>
-      <c r="F10" s="86">
-        <f>POINTS!I29</f>
-        <v>6</v>
-      </c>
-      <c r="G10" s="86">
-        <f>POINTS!J29</f>
-        <v>4</v>
-      </c>
-      <c r="H10" s="86">
-        <f>POINTS!K29</f>
-        <v>6</v>
-      </c>
-      <c r="I10" s="87">
-        <f>POINTS!L29</f>
-        <v>16</v>
-      </c>
-      <c r="J10" s="79"/>
-    </row>
-    <row r="11" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B11" s="92" t="str">
-        <f>POINTS!B11</f>
-        <v>SFV Aguilar</v>
-      </c>
-      <c r="C11" s="71">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D11" s="85">
-        <f t="shared" si="1"/>
-        <v>13.2</v>
-      </c>
-      <c r="E11" s="86">
-        <f>POINTS!H30</f>
-        <v>8</v>
-      </c>
-      <c r="F11" s="86">
-        <f>POINTS!I30</f>
-        <v>10</v>
-      </c>
-      <c r="G11" s="86">
-        <f>POINTS!J30</f>
-        <v>7</v>
-      </c>
-      <c r="H11" s="86">
-        <f>POINTS!K30</f>
-        <v>9</v>
-      </c>
-      <c r="I11" s="87">
-        <f>POINTS!L30</f>
-        <v>16</v>
-      </c>
-      <c r="J11" s="79"/>
-    </row>
-    <row r="12" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="92" t="str">
-        <f>POINTS!B12</f>
-        <v>Team Frisch</v>
-      </c>
-      <c r="C12" s="71">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D12" s="85">
-        <f t="shared" si="1"/>
-        <v>13.8</v>
-      </c>
-      <c r="E12" s="86">
-        <f>POINTS!H31</f>
-        <v>10</v>
-      </c>
-      <c r="F12" s="86">
-        <f>POINTS!I31</f>
-        <v>8</v>
-      </c>
-      <c r="G12" s="86">
-        <f>POINTS!J31</f>
-        <v>8</v>
-      </c>
-      <c r="H12" s="86">
-        <f>POINTS!K31</f>
-        <v>7</v>
-      </c>
-      <c r="I12" s="87">
-        <f>POINTS!L31</f>
-        <v>16</v>
-      </c>
-      <c r="J12" s="79"/>
-    </row>
-    <row r="13" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="92" t="str">
-        <f>POINTS!B13</f>
-        <v>OhNo Romo</v>
-      </c>
-      <c r="C13" s="71">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D13" s="85">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="E13" s="86">
-        <f>POINTS!H32</f>
-        <v>6</v>
-      </c>
-      <c r="F13" s="86">
-        <f>POINTS!I32</f>
-        <v>9</v>
-      </c>
-      <c r="G13" s="86">
-        <f>POINTS!J32</f>
-        <v>9</v>
-      </c>
-      <c r="H13" s="86">
-        <f>POINTS!K32</f>
-        <v>8</v>
-      </c>
-      <c r="I13" s="87">
-        <f>POINTS!L32</f>
-        <v>16</v>
-      </c>
-      <c r="J13" s="79"/>
-    </row>
-    <row r="14" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B14" s="92" t="str">
-        <f>POINTS!B14</f>
-        <v>Cool Hand Lou</v>
-      </c>
-      <c r="C14" s="71">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D14" s="85">
-        <f t="shared" si="1"/>
-        <v>5.8</v>
-      </c>
-      <c r="E14" s="86">
-        <f>POINTS!H33</f>
-        <v>2</v>
-      </c>
-      <c r="F14" s="86">
-        <f>POINTS!I33</f>
-        <v>2</v>
-      </c>
-      <c r="G14" s="86">
-        <f>POINTS!J33</f>
-        <v>2</v>
-      </c>
-      <c r="H14" s="86">
-        <f>POINTS!K33</f>
-        <v>3</v>
-      </c>
-      <c r="I14" s="87">
-        <f>POINTS!L33</f>
-        <v>16</v>
-      </c>
-      <c r="J14" s="79"/>
-    </row>
-    <row r="15" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="92" t="str">
-        <f>POINTS!B15</f>
-        <v>Hebrew Wolves</v>
-      </c>
-      <c r="C15" s="71">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="D15" s="85">
-        <f t="shared" si="1"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="E15" s="86">
-        <f>POINTS!H34</f>
-        <v>10</v>
-      </c>
-      <c r="F15" s="86">
-        <f>POINTS!I34</f>
-        <v>12</v>
-      </c>
-      <c r="G15" s="86">
-        <f>POINTS!J34</f>
-        <v>12</v>
-      </c>
-      <c r="H15" s="86">
-        <f>POINTS!K34</f>
-        <v>12</v>
-      </c>
-      <c r="I15" s="87">
-        <f>POINTS!L34</f>
-        <v>16</v>
-      </c>
-      <c r="J15" s="79"/>
-    </row>
-    <row r="16" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="93" t="str">
-        <f>POINTS!B16</f>
-        <v>Team Force</v>
-      </c>
-      <c r="C16" s="72">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D16" s="88">
-        <f t="shared" si="1"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E16" s="89">
-        <f>POINTS!H35</f>
-        <v>3</v>
-      </c>
-      <c r="F16" s="89">
-        <f>POINTS!I35</f>
-        <v>5</v>
-      </c>
-      <c r="G16" s="89">
-        <f>POINTS!J35</f>
-        <v>6</v>
-      </c>
-      <c r="H16" s="89">
-        <f>POINTS!K35</f>
-        <v>5</v>
-      </c>
-      <c r="I16" s="90">
-        <f>POINTS!L35</f>
-        <v>16</v>
       </c>
       <c r="J16" s="80"/>
     </row>
@@ -7801,7 +7885,7 @@
       </c>
       <c r="D3" s="82">
         <f t="shared" ref="D3:D14" si="1">AVERAGE(3*E3,F3,G3,H3,I3)</f>
-        <v>4.4000000000000004</v>
+        <v>1.8</v>
       </c>
       <c r="E3" s="83">
         <f>POINTS!H22</f>
@@ -7817,11 +7901,11 @@
       </c>
       <c r="H3" s="83">
         <f>POINTS!K22</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" s="84">
         <f>POINTS!L22</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J3" s="78"/>
     </row>
@@ -7832,11 +7916,11 @@
       </c>
       <c r="C4" s="71">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" s="85">
         <f t="shared" si="1"/>
-        <v>15.2</v>
+        <v>12.8</v>
       </c>
       <c r="E4" s="86">
         <f>POINTS!H23</f>
@@ -7856,7 +7940,7 @@
       </c>
       <c r="I4" s="87">
         <f>POINTS!L23</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J4" s="79"/>
     </row>
@@ -7871,11 +7955,11 @@
       </c>
       <c r="D5" s="85">
         <f t="shared" si="1"/>
-        <v>19.399999999999999</v>
+        <v>19.2</v>
       </c>
       <c r="E5" s="86">
         <f>POINTS!H24</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="86">
         <f>POINTS!I24</f>
@@ -7891,7 +7975,7 @@
       </c>
       <c r="I5" s="87">
         <f>POINTS!L24</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J5" s="79"/>
     </row>
@@ -7906,7 +7990,7 @@
       </c>
       <c r="D6" s="85">
         <f t="shared" si="1"/>
-        <v>13.4</v>
+        <v>12.8</v>
       </c>
       <c r="E6" s="86">
         <f>POINTS!H25</f>
@@ -7914,7 +7998,7 @@
       </c>
       <c r="F6" s="86">
         <f>POINTS!I25</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6" s="86">
         <f>POINTS!J25</f>
@@ -7922,11 +8006,11 @@
       </c>
       <c r="H6" s="86">
         <f>POINTS!K25</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="87">
         <f>POINTS!L25</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J6" s="79"/>
     </row>
@@ -7937,11 +8021,11 @@
       </c>
       <c r="C7" s="71">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="85">
         <f t="shared" si="1"/>
-        <v>15.6</v>
+        <v>14.6</v>
       </c>
       <c r="E7" s="86">
         <f>POINTS!H26</f>
@@ -7949,11 +8033,11 @@
       </c>
       <c r="F7" s="86">
         <f>POINTS!I26</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="86">
         <f>POINTS!J26</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7" s="86">
         <f>POINTS!K26</f>
@@ -7961,7 +8045,7 @@
       </c>
       <c r="I7" s="87">
         <f>POINTS!L26</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J7" s="79"/>
     </row>
@@ -7976,27 +8060,27 @@
       </c>
       <c r="D8" s="85">
         <f t="shared" si="1"/>
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="E8" s="86">
         <f>POINTS!H27</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="86">
         <f>POINTS!I27</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8" s="86">
         <f>POINTS!J27</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H8" s="86">
         <f>POINTS!K27</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I8" s="87">
         <f>POINTS!L27</f>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J8" s="79"/>
     </row>
@@ -8011,7 +8095,7 @@
       </c>
       <c r="D9" s="85">
         <f t="shared" si="1"/>
-        <v>6.6</v>
+        <v>4</v>
       </c>
       <c r="E9" s="86">
         <f>POINTS!H28</f>
@@ -8031,7 +8115,7 @@
       </c>
       <c r="I9" s="87">
         <f>POINTS!L28</f>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J9" s="79"/>
     </row>
@@ -8042,19 +8126,19 @@
       </c>
       <c r="C10" s="71">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" s="85">
         <f t="shared" si="1"/>
-        <v>14.2</v>
+        <v>9.6</v>
       </c>
       <c r="E10" s="86">
         <f>POINTS!H29</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F10" s="86">
         <f>POINTS!I29</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G10" s="86">
         <f>POINTS!J29</f>
@@ -8062,11 +8146,11 @@
       </c>
       <c r="H10" s="86">
         <f>POINTS!K29</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I10" s="87">
         <f>POINTS!L29</f>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J10" s="79"/>
     </row>
@@ -8077,11 +8161,11 @@
       </c>
       <c r="C11" s="71">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D11" s="85">
         <f t="shared" si="1"/>
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="E11" s="86">
         <f>POINTS!H30</f>
@@ -8089,19 +8173,19 @@
       </c>
       <c r="F11" s="86">
         <f>POINTS!I30</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G11" s="86">
         <f>POINTS!J30</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H11" s="86">
         <f>POINTS!K30</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I11" s="87">
         <f>POINTS!L30</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J11" s="79"/>
     </row>
@@ -8112,19 +8196,19 @@
       </c>
       <c r="C12" s="71">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D12" s="85">
         <f t="shared" si="1"/>
-        <v>13.8</v>
+        <v>15</v>
       </c>
       <c r="E12" s="86">
         <f>POINTS!H31</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F12" s="86">
         <f>POINTS!I31</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G12" s="86">
         <f>POINTS!J31</f>
@@ -8132,11 +8216,11 @@
       </c>
       <c r="H12" s="86">
         <f>POINTS!K31</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I12" s="87">
         <f>POINTS!L31</f>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J12" s="79"/>
     </row>
@@ -8151,27 +8235,27 @@
       </c>
       <c r="D13" s="85">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>8.4</v>
       </c>
       <c r="E13" s="86">
         <f>POINTS!H32</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F13" s="86">
         <f>POINTS!I32</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G13" s="86">
         <f>POINTS!J32</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H13" s="86">
         <f>POINTS!K32</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I13" s="87">
         <f>POINTS!L32</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J13" s="79"/>
     </row>
@@ -8186,7 +8270,7 @@
       </c>
       <c r="D14" s="88">
         <f t="shared" si="1"/>
-        <v>5.8</v>
+        <v>2.6</v>
       </c>
       <c r="E14" s="89">
         <f>POINTS!H33</f>
@@ -8202,11 +8286,11 @@
       </c>
       <c r="H14" s="89">
         <f>POINTS!K33</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14" s="90">
         <f>POINTS!L33</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J14" s="80"/>
     </row>
@@ -8278,7 +8362,7 @@
       </c>
       <c r="D3" s="83">
         <f t="shared" ref="D3:D12" si="1">AVERAGE(3*E3,F3,G3,H3,I3)</f>
-        <v>4.4000000000000004</v>
+        <v>1.8</v>
       </c>
       <c r="E3" s="83">
         <f>POINTS!H22</f>
@@ -8294,11 +8378,11 @@
       </c>
       <c r="H3" s="83">
         <f>POINTS!K22</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" s="83">
         <f>POINTS!L22</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J3" s="73"/>
     </row>
@@ -8309,11 +8393,11 @@
       </c>
       <c r="C4" s="97">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" s="86">
         <f t="shared" si="1"/>
-        <v>15.2</v>
+        <v>12.8</v>
       </c>
       <c r="E4" s="86">
         <f>POINTS!H23</f>
@@ -8333,7 +8417,7 @@
       </c>
       <c r="I4" s="86">
         <f>POINTS!L23</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J4" s="74"/>
     </row>
@@ -8348,11 +8432,11 @@
       </c>
       <c r="D5" s="86">
         <f t="shared" si="1"/>
-        <v>19.399999999999999</v>
+        <v>19.2</v>
       </c>
       <c r="E5" s="86">
         <f>POINTS!H24</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="86">
         <f>POINTS!I24</f>
@@ -8368,7 +8452,7 @@
       </c>
       <c r="I5" s="86">
         <f>POINTS!L24</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J5" s="74"/>
     </row>
@@ -8383,7 +8467,7 @@
       </c>
       <c r="D6" s="86">
         <f t="shared" si="1"/>
-        <v>13.4</v>
+        <v>12.8</v>
       </c>
       <c r="E6" s="86">
         <f>POINTS!H25</f>
@@ -8391,7 +8475,7 @@
       </c>
       <c r="F6" s="86">
         <f>POINTS!I25</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6" s="86">
         <f>POINTS!J25</f>
@@ -8399,11 +8483,11 @@
       </c>
       <c r="H6" s="86">
         <f>POINTS!K25</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="86">
         <f>POINTS!L25</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J6" s="74"/>
     </row>
@@ -8414,11 +8498,11 @@
       </c>
       <c r="C7" s="97">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="86">
         <f t="shared" si="1"/>
-        <v>15.6</v>
+        <v>14.6</v>
       </c>
       <c r="E7" s="86">
         <f>POINTS!H26</f>
@@ -8426,11 +8510,11 @@
       </c>
       <c r="F7" s="86">
         <f>POINTS!I26</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="86">
         <f>POINTS!J26</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7" s="86">
         <f>POINTS!K26</f>
@@ -8438,7 +8522,7 @@
       </c>
       <c r="I7" s="86">
         <f>POINTS!L26</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J7" s="74"/>
     </row>
@@ -8453,27 +8537,27 @@
       </c>
       <c r="D8" s="86">
         <f t="shared" si="1"/>
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="E8" s="86">
         <f>POINTS!H27</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="86">
         <f>POINTS!I27</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8" s="86">
         <f>POINTS!J27</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H8" s="86">
         <f>POINTS!K27</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I8" s="86">
         <f>POINTS!L27</f>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J8" s="74"/>
     </row>
@@ -8488,7 +8572,7 @@
       </c>
       <c r="D9" s="86">
         <f t="shared" si="1"/>
-        <v>6.6</v>
+        <v>4</v>
       </c>
       <c r="E9" s="86">
         <f>POINTS!H28</f>
@@ -8508,7 +8592,7 @@
       </c>
       <c r="I9" s="86">
         <f>POINTS!L28</f>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J9" s="74"/>
     </row>
@@ -8519,19 +8603,19 @@
       </c>
       <c r="C10" s="97">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D10" s="86">
         <f t="shared" si="1"/>
-        <v>14.2</v>
+        <v>9.6</v>
       </c>
       <c r="E10" s="86">
         <f>POINTS!H29</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F10" s="86">
         <f>POINTS!I29</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G10" s="86">
         <f>POINTS!J29</f>
@@ -8539,11 +8623,11 @@
       </c>
       <c r="H10" s="86">
         <f>POINTS!K29</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I10" s="86">
         <f>POINTS!L29</f>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J10" s="74"/>
     </row>
@@ -8554,11 +8638,11 @@
       </c>
       <c r="C11" s="97">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D11" s="86">
         <f t="shared" si="1"/>
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="E11" s="86">
         <f>POINTS!H30</f>
@@ -8566,19 +8650,19 @@
       </c>
       <c r="F11" s="86">
         <f>POINTS!I30</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G11" s="86">
         <f>POINTS!J30</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H11" s="86">
         <f>POINTS!K30</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I11" s="86">
         <f>POINTS!L30</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J11" s="74"/>
     </row>
@@ -8589,19 +8673,19 @@
       </c>
       <c r="C12" s="99">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D12" s="89">
         <f t="shared" si="1"/>
-        <v>13.8</v>
+        <v>15</v>
       </c>
       <c r="E12" s="89">
         <f>POINTS!H31</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F12" s="89">
         <f>POINTS!I31</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G12" s="89">
         <f>POINTS!J31</f>
@@ -8609,11 +8693,11 @@
       </c>
       <c r="H12" s="89">
         <f>POINTS!K31</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I12" s="89">
         <f>POINTS!L31</f>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J12" s="75"/>
     </row>
@@ -8685,7 +8769,7 @@
       </c>
       <c r="D3" s="82">
         <f t="shared" ref="D3:D10" si="1">AVERAGE(3*E3,F3,G3,H3,I3)</f>
-        <v>4.4000000000000004</v>
+        <v>1.8</v>
       </c>
       <c r="E3" s="83">
         <f>POINTS!H22</f>
@@ -8701,11 +8785,11 @@
       </c>
       <c r="H3" s="83">
         <f>POINTS!K22</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" s="84">
         <f>POINTS!L22</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J3" s="78"/>
     </row>
@@ -8716,11 +8800,11 @@
       </c>
       <c r="C4" s="71">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="85">
         <f t="shared" si="1"/>
-        <v>15.2</v>
+        <v>12.8</v>
       </c>
       <c r="E4" s="86">
         <f>POINTS!H23</f>
@@ -8740,7 +8824,7 @@
       </c>
       <c r="I4" s="87">
         <f>POINTS!L23</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J4" s="79"/>
     </row>
@@ -8755,11 +8839,11 @@
       </c>
       <c r="D5" s="85">
         <f t="shared" si="1"/>
-        <v>19.399999999999999</v>
+        <v>19.2</v>
       </c>
       <c r="E5" s="86">
         <f>POINTS!H24</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="86">
         <f>POINTS!I24</f>
@@ -8775,7 +8859,7 @@
       </c>
       <c r="I5" s="87">
         <f>POINTS!L24</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J5" s="79"/>
     </row>
@@ -8786,11 +8870,11 @@
       </c>
       <c r="C6" s="71">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="85">
         <f t="shared" si="1"/>
-        <v>13.4</v>
+        <v>12.8</v>
       </c>
       <c r="E6" s="86">
         <f>POINTS!H25</f>
@@ -8798,7 +8882,7 @@
       </c>
       <c r="F6" s="86">
         <f>POINTS!I25</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6" s="86">
         <f>POINTS!J25</f>
@@ -8806,11 +8890,11 @@
       </c>
       <c r="H6" s="86">
         <f>POINTS!K25</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="87">
         <f>POINTS!L25</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J6" s="79"/>
     </row>
@@ -8825,7 +8909,7 @@
       </c>
       <c r="D7" s="85">
         <f t="shared" si="1"/>
-        <v>15.6</v>
+        <v>14.6</v>
       </c>
       <c r="E7" s="86">
         <f>POINTS!H26</f>
@@ -8833,11 +8917,11 @@
       </c>
       <c r="F7" s="86">
         <f>POINTS!I26</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="86">
         <f>POINTS!J26</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7" s="86">
         <f>POINTS!K26</f>
@@ -8845,7 +8929,7 @@
       </c>
       <c r="I7" s="87">
         <f>POINTS!L26</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J7" s="79"/>
     </row>
@@ -8860,27 +8944,27 @@
       </c>
       <c r="D8" s="85">
         <f t="shared" si="1"/>
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="E8" s="86">
         <f>POINTS!H27</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="86">
         <f>POINTS!I27</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8" s="86">
         <f>POINTS!J27</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H8" s="86">
         <f>POINTS!K27</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I8" s="87">
         <f>POINTS!L27</f>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J8" s="79"/>
     </row>
@@ -8895,7 +8979,7 @@
       </c>
       <c r="D9" s="85">
         <f t="shared" si="1"/>
-        <v>6.6</v>
+        <v>4</v>
       </c>
       <c r="E9" s="86">
         <f>POINTS!H28</f>
@@ -8915,7 +8999,7 @@
       </c>
       <c r="I9" s="87">
         <f>POINTS!L28</f>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J9" s="79"/>
     </row>
@@ -8926,19 +9010,19 @@
       </c>
       <c r="C10" s="72">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="88">
         <f t="shared" si="1"/>
-        <v>14.2</v>
+        <v>9.6</v>
       </c>
       <c r="E10" s="89">
         <f>POINTS!H29</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F10" s="89">
         <f>POINTS!I29</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G10" s="89">
         <f>POINTS!J29</f>
@@ -8946,11 +9030,11 @@
       </c>
       <c r="H10" s="89">
         <f>POINTS!K29</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I10" s="90">
         <f>POINTS!L29</f>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J10" s="80"/>
     </row>

--- a/Power Rankings.xlsx
+++ b/Power Rankings.xlsx
@@ -3618,7 +3618,7 @@
   <dimension ref="A1:AO44"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3803,14 +3803,16 @@
       <c r="N3" s="7">
         <v>106.7</v>
       </c>
-      <c r="O3" s="8"/>
+      <c r="O3" s="8">
+        <v>128.69999999999999</v>
+      </c>
       <c r="P3" s="12">
         <f>SUM(C3:O3)</f>
-        <v>1329.1000000000001</v>
+        <v>1457.8000000000002</v>
       </c>
       <c r="Q3" s="12">
         <f>AVERAGE(C3:O3)</f>
-        <v>110.75833333333334</v>
+        <v>112.13846153846156</v>
       </c>
       <c r="R3" s="13">
         <f>MAX(C3:O3)</f>
@@ -3822,7 +3824,7 @@
       </c>
       <c r="T3" s="13">
         <f>STDEV(C3:O3)</f>
-        <v>15.54684758068241</v>
+        <v>15.694719837232903</v>
       </c>
       <c r="W3" s="52">
         <f>IF(C3="","",RANK(C3,$C$3:$C$18,1))</f>
@@ -3872,13 +3874,13 @@
         <f>IF(N3="","",RANK(N3,$N$3:$N$18,1))</f>
         <v>9</v>
       </c>
-      <c r="AI3" s="54" t="str">
+      <c r="AI3" s="54">
         <f>IF(O3="","",RANK(O3,$O$3:$O$18,1))</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="AJ3" s="42">
         <f>SUM(W3:AI3)</f>
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3924,14 +3926,16 @@
       <c r="N4" s="34">
         <v>93.3</v>
       </c>
-      <c r="O4" s="9"/>
+      <c r="O4" s="9">
+        <v>99.3</v>
+      </c>
       <c r="P4" s="14">
         <f t="shared" ref="P4:P18" si="0">SUM(C4:O4)</f>
-        <v>1072.3</v>
+        <v>1171.5999999999999</v>
       </c>
       <c r="Q4" s="14">
         <f t="shared" ref="Q4:Q18" si="1">AVERAGE(C4:O4)</f>
-        <v>89.358333333333334</v>
+        <v>90.123076923076923</v>
       </c>
       <c r="R4" s="15">
         <f t="shared" ref="R4:R18" si="2">MAX(C4:O4)</f>
@@ -3943,7 +3947,7 @@
       </c>
       <c r="T4" s="15">
         <f t="shared" ref="T4:T18" si="4">STDEV(C4:O4)</f>
-        <v>20.802336334404824</v>
+        <v>20.106680226819943</v>
       </c>
       <c r="W4" s="55">
         <f t="shared" ref="W4:W18" si="5">IF(C4="","",RANK(C4,$C$3:$C$18,1))</f>
@@ -3993,13 +3997,13 @@
         <f t="shared" ref="AH4:AH18" si="16">IF(N4="","",RANK(N4,$N$3:$N$18,1))</f>
         <v>6</v>
       </c>
-      <c r="AI4" s="57" t="str">
+      <c r="AI4" s="57">
         <f t="shared" ref="AI4:AI18" si="17">IF(O4="","",RANK(O4,$O$3:$O$18,1))</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="AJ4" s="43">
         <f t="shared" ref="AJ4:AJ18" si="18">SUM(W4:AI4)</f>
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4045,14 +4049,16 @@
       <c r="N5" s="36">
         <v>113.5</v>
       </c>
-      <c r="O5" s="8"/>
+      <c r="O5" s="8">
+        <v>74.8</v>
+      </c>
       <c r="P5" s="16">
         <f t="shared" si="0"/>
-        <v>991.20000000000016</v>
+        <v>1066.0000000000002</v>
       </c>
       <c r="Q5" s="16">
         <f t="shared" si="1"/>
-        <v>82.600000000000009</v>
+        <v>82.000000000000014</v>
       </c>
       <c r="R5" s="17">
         <f t="shared" si="2"/>
@@ -4064,7 +4070,7 @@
       </c>
       <c r="T5" s="17">
         <f t="shared" si="4"/>
-        <v>19.825786697677756</v>
+        <v>19.104624222074193</v>
       </c>
       <c r="W5" s="55">
         <f t="shared" si="5"/>
@@ -4114,13 +4120,13 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AI5" s="57" t="str">
+      <c r="AI5" s="57">
         <f t="shared" si="17"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AJ5" s="43">
         <f t="shared" si="18"/>
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4166,14 +4172,16 @@
       <c r="N6" s="34">
         <v>79.400000000000006</v>
       </c>
-      <c r="O6" s="9"/>
+      <c r="O6" s="9">
+        <v>80.2</v>
+      </c>
       <c r="P6" s="14">
         <f t="shared" si="0"/>
-        <v>1166.0000000000002</v>
+        <v>1246.2000000000003</v>
       </c>
       <c r="Q6" s="14">
         <f t="shared" si="1"/>
-        <v>97.166666666666686</v>
+        <v>95.861538461538487</v>
       </c>
       <c r="R6" s="15">
         <f t="shared" si="2"/>
@@ -4185,7 +4193,7 @@
       </c>
       <c r="T6" s="15">
         <f t="shared" si="4"/>
-        <v>15.105527786110821</v>
+        <v>15.208744111066295</v>
       </c>
       <c r="W6" s="55">
         <f t="shared" si="5"/>
@@ -4235,13 +4243,13 @@
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="AI6" s="57" t="str">
+      <c r="AI6" s="57">
         <f t="shared" si="17"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AJ6" s="43">
         <f t="shared" si="18"/>
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4287,14 +4295,16 @@
       <c r="N7" s="36">
         <v>77.900000000000006</v>
       </c>
-      <c r="O7" s="8"/>
+      <c r="O7" s="8">
+        <v>86.6</v>
+      </c>
       <c r="P7" s="16">
         <f t="shared" si="0"/>
-        <v>1152.9000000000001</v>
+        <v>1239.5</v>
       </c>
       <c r="Q7" s="16">
         <f t="shared" si="1"/>
-        <v>96.075000000000003</v>
+        <v>95.34615384615384</v>
       </c>
       <c r="R7" s="17">
         <f t="shared" si="2"/>
@@ -4306,7 +4316,7 @@
       </c>
       <c r="T7" s="17">
         <f t="shared" si="4"/>
-        <v>20.657383667831677</v>
+        <v>19.95175912814938</v>
       </c>
       <c r="W7" s="55">
         <f t="shared" si="5"/>
@@ -4356,13 +4366,13 @@
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="AI7" s="57" t="str">
+      <c r="AI7" s="57">
         <f t="shared" si="17"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="AJ7" s="43">
         <f t="shared" si="18"/>
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4408,14 +4418,16 @@
       <c r="N8" s="34">
         <v>79.3</v>
       </c>
-      <c r="O8" s="9"/>
+      <c r="O8" s="9">
+        <v>81.400000000000006</v>
+      </c>
       <c r="P8" s="14">
         <f t="shared" si="0"/>
-        <v>1201.3</v>
+        <v>1282.7</v>
       </c>
       <c r="Q8" s="14">
         <f t="shared" si="1"/>
-        <v>100.10833333333333</v>
+        <v>98.669230769230779</v>
       </c>
       <c r="R8" s="15">
         <f t="shared" si="2"/>
@@ -4427,7 +4439,7 @@
       </c>
       <c r="T8" s="15">
         <f t="shared" si="4"/>
-        <v>22.589637943629018</v>
+        <v>22.241642048770597</v>
       </c>
       <c r="W8" s="55">
         <f t="shared" si="5"/>
@@ -4477,13 +4489,13 @@
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-      <c r="AI8" s="57" t="str">
+      <c r="AI8" s="57">
         <f t="shared" si="17"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="AJ8" s="43">
         <f t="shared" si="18"/>
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4529,14 +4541,16 @@
       <c r="N9" s="36">
         <v>128.30000000000001</v>
       </c>
-      <c r="O9" s="8"/>
+      <c r="O9" s="8">
+        <v>86.2</v>
+      </c>
       <c r="P9" s="16">
         <f t="shared" si="0"/>
-        <v>1346.4</v>
+        <v>1432.6000000000001</v>
       </c>
       <c r="Q9" s="16">
         <f t="shared" si="1"/>
-        <v>112.2</v>
+        <v>110.20000000000002</v>
       </c>
       <c r="R9" s="17">
         <f t="shared" si="2"/>
@@ -4548,7 +4562,7 @@
       </c>
       <c r="T9" s="17">
         <f t="shared" si="4"/>
-        <v>23.535350587419089</v>
+        <v>23.659106773784416</v>
       </c>
       <c r="W9" s="55">
         <f t="shared" si="5"/>
@@ -4598,13 +4612,13 @@
         <f t="shared" si="16"/>
         <v>13</v>
       </c>
-      <c r="AI9" s="57" t="str">
+      <c r="AI9" s="57">
         <f t="shared" si="17"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="AJ9" s="43">
         <f t="shared" si="18"/>
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4650,14 +4664,16 @@
       <c r="N10" s="34">
         <v>89.5</v>
       </c>
-      <c r="O10" s="9"/>
+      <c r="O10" s="9">
+        <v>131.69999999999999</v>
+      </c>
       <c r="P10" s="14">
         <f t="shared" si="0"/>
-        <v>1266.5</v>
+        <v>1398.2</v>
       </c>
       <c r="Q10" s="14">
         <f t="shared" si="1"/>
-        <v>105.54166666666667</v>
+        <v>107.55384615384615</v>
       </c>
       <c r="R10" s="15">
         <f t="shared" si="2"/>
@@ -4669,7 +4685,7 @@
       </c>
       <c r="T10" s="15">
         <f t="shared" si="4"/>
-        <v>21.828565868576582</v>
+        <v>22.12271138387781</v>
       </c>
       <c r="W10" s="55">
         <f t="shared" si="5"/>
@@ -4719,13 +4735,13 @@
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
-      <c r="AI10" s="57" t="str">
+      <c r="AI10" s="57">
         <f t="shared" si="17"/>
-        <v/>
+        <v>14</v>
       </c>
       <c r="AJ10" s="43">
         <f t="shared" si="18"/>
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4771,14 +4787,16 @@
       <c r="N11" s="36">
         <v>98</v>
       </c>
-      <c r="O11" s="8"/>
+      <c r="O11" s="8">
+        <v>88.7</v>
+      </c>
       <c r="P11" s="16">
         <f t="shared" si="0"/>
-        <v>1151.3999999999999</v>
+        <v>1240.0999999999999</v>
       </c>
       <c r="Q11" s="16">
         <f t="shared" si="1"/>
-        <v>95.949999999999989</v>
+        <v>95.392307692307682</v>
       </c>
       <c r="R11" s="17">
         <f t="shared" si="2"/>
@@ -4790,7 +4808,7 @@
       </c>
       <c r="T11" s="17">
         <f t="shared" si="4"/>
-        <v>26.032619398118108</v>
+        <v>25.005314819669248</v>
       </c>
       <c r="W11" s="55">
         <f t="shared" si="5"/>
@@ -4840,13 +4858,13 @@
         <f t="shared" si="16"/>
         <v>7</v>
       </c>
-      <c r="AI11" s="57" t="str">
+      <c r="AI11" s="57">
         <f t="shared" si="17"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="AJ11" s="43">
         <f t="shared" si="18"/>
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4892,14 +4910,16 @@
       <c r="N12" s="34">
         <v>75.599999999999994</v>
       </c>
-      <c r="O12" s="9"/>
+      <c r="O12" s="9">
+        <v>97.8</v>
+      </c>
       <c r="P12" s="14">
         <f t="shared" ref="P12:P17" si="19">SUM(C12:O12)</f>
-        <v>1161.3</v>
+        <v>1259.0999999999999</v>
       </c>
       <c r="Q12" s="14">
         <f t="shared" ref="Q12:Q17" si="20">AVERAGE(C12:O12)</f>
-        <v>96.774999999999991</v>
+        <v>96.853846153846149</v>
       </c>
       <c r="R12" s="15">
         <f t="shared" ref="R12:R17" si="21">MAX(C12:O12)</f>
@@ -4911,7 +4931,7 @@
       </c>
       <c r="T12" s="15">
         <f t="shared" ref="T12:T17" si="23">STDEV(C12:O12)</f>
-        <v>21.073987628008499</v>
+        <v>20.178809652067184</v>
       </c>
       <c r="W12" s="55">
         <f t="shared" si="5"/>
@@ -4961,13 +4981,13 @@
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="AI12" s="57" t="str">
+      <c r="AI12" s="57">
         <f t="shared" si="17"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="AJ12" s="43">
         <f t="shared" si="18"/>
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5013,14 +5033,16 @@
       <c r="N13" s="36">
         <v>111.1</v>
       </c>
-      <c r="O13" s="8"/>
+      <c r="O13" s="8">
+        <v>96.1</v>
+      </c>
       <c r="P13" s="16">
         <f t="shared" si="19"/>
-        <v>1229.9000000000001</v>
+        <v>1326</v>
       </c>
       <c r="Q13" s="16">
         <f t="shared" si="20"/>
-        <v>102.49166666666667</v>
+        <v>102</v>
       </c>
       <c r="R13" s="17">
         <f t="shared" si="21"/>
@@ -5032,7 +5054,7 @@
       </c>
       <c r="T13" s="17">
         <f t="shared" si="23"/>
-        <v>19.533396033615315</v>
+        <v>18.785632808079662</v>
       </c>
       <c r="W13" s="55">
         <f t="shared" si="5"/>
@@ -5082,13 +5104,13 @@
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
-      <c r="AI13" s="57" t="str">
+      <c r="AI13" s="57">
         <f t="shared" si="17"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="AJ13" s="43">
         <f t="shared" si="18"/>
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5134,14 +5156,16 @@
       <c r="N14" s="34">
         <v>139.6</v>
       </c>
-      <c r="O14" s="9"/>
+      <c r="O14" s="9">
+        <v>107.7</v>
+      </c>
       <c r="P14" s="14">
         <f t="shared" si="19"/>
-        <v>1353.4999999999998</v>
+        <v>1461.1999999999998</v>
       </c>
       <c r="Q14" s="14">
         <f t="shared" si="20"/>
-        <v>112.79166666666664</v>
+        <v>112.39999999999999</v>
       </c>
       <c r="R14" s="15">
         <f t="shared" si="21"/>
@@ -5153,7 +5177,7 @@
       </c>
       <c r="T14" s="15">
         <f t="shared" si="23"/>
-        <v>20.633444093304483</v>
+        <v>19.805428548759227</v>
       </c>
       <c r="W14" s="55">
         <f t="shared" si="5"/>
@@ -5203,13 +5227,13 @@
         <f t="shared" si="16"/>
         <v>14</v>
       </c>
-      <c r="AI14" s="57" t="str">
+      <c r="AI14" s="57">
         <f t="shared" si="17"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="AJ14" s="43">
         <f t="shared" si="18"/>
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5255,14 +5279,16 @@
       <c r="N15" s="36">
         <v>111.4</v>
       </c>
-      <c r="O15" s="8"/>
+      <c r="O15" s="8">
+        <v>111.4</v>
+      </c>
       <c r="P15" s="16">
         <f t="shared" si="19"/>
-        <v>1170.2000000000003</v>
+        <v>1281.6000000000004</v>
       </c>
       <c r="Q15" s="16">
         <f t="shared" si="20"/>
-        <v>97.516666666666694</v>
+        <v>98.584615384615418</v>
       </c>
       <c r="R15" s="17">
         <f t="shared" si="21"/>
@@ -5274,7 +5300,7 @@
       </c>
       <c r="T15" s="17">
         <f t="shared" si="23"/>
-        <v>13.133152590665052</v>
+        <v>13.150402158225916</v>
       </c>
       <c r="W15" s="55">
         <f t="shared" si="5"/>
@@ -5324,13 +5350,13 @@
         <f t="shared" si="16"/>
         <v>11</v>
       </c>
-      <c r="AI15" s="57" t="str">
+      <c r="AI15" s="57">
         <f t="shared" si="17"/>
-        <v/>
+        <v>11</v>
       </c>
       <c r="AJ15" s="43">
         <f t="shared" si="18"/>
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5376,14 +5402,16 @@
       <c r="N16" s="34">
         <v>103.4</v>
       </c>
-      <c r="O16" s="9"/>
+      <c r="O16" s="9">
+        <v>111.4</v>
+      </c>
       <c r="P16" s="14">
         <f t="shared" si="19"/>
-        <v>1186.2</v>
+        <v>1297.6000000000001</v>
       </c>
       <c r="Q16" s="14">
         <f t="shared" si="20"/>
-        <v>98.850000000000009</v>
+        <v>99.81538461538463</v>
       </c>
       <c r="R16" s="15">
         <f t="shared" si="21"/>
@@ -5395,7 +5423,7 @@
       </c>
       <c r="T16" s="15">
         <f t="shared" si="23"/>
-        <v>25.670694292413369</v>
+        <v>24.823068778653099</v>
       </c>
       <c r="W16" s="55">
         <f t="shared" si="5"/>
@@ -5445,13 +5473,13 @@
         <f t="shared" si="16"/>
         <v>8</v>
       </c>
-      <c r="AI16" s="57" t="str">
+      <c r="AI16" s="57">
         <f t="shared" si="17"/>
-        <v/>
+        <v>11</v>
       </c>
       <c r="AJ16" s="43">
         <f t="shared" si="18"/>
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:41" ht="24" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5647,11 +5675,11 @@
     <row r="19" spans="1:41" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P19" s="11">
         <f>SUM(C3:O18)</f>
-        <v>16778.2</v>
+        <v>18160.200000000008</v>
       </c>
       <c r="Q19" s="11">
         <f>AVERAGE(C3:O18)</f>
-        <v>99.870238095238093</v>
+        <v>99.781318681318723</v>
       </c>
       <c r="R19" s="18">
         <f>MAX(C3:O18)</f>
@@ -5663,7 +5691,7 @@
       </c>
       <c r="T19" s="18">
         <f>STDEV(C3:O18)</f>
-        <v>21.545652852238948</v>
+        <v>21.227147801254858</v>
       </c>
     </row>
     <row r="20" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -5718,23 +5746,21 @@
         <v>Spos Before Hos</v>
       </c>
       <c r="C22" s="21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="46">
         <f>AJ3</f>
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="E22" s="49">
         <f t="shared" ref="E22:E31" si="24">IF(D3="",-99,IF(T3=0,1,(Q3-$Q$19)/T3))</f>
-        <v>0.70034102936881859</v>
+        <v>0.78734395932495282</v>
       </c>
       <c r="F22" s="28">
         <f>IF(C3="",0,Q3)</f>
-        <v>110.75833333333334</v>
-      </c>
-      <c r="G22" s="39">
-        <v>100</v>
-      </c>
+        <v>112.13846153846156</v>
+      </c>
+      <c r="G22" s="39"/>
       <c r="H22" s="22">
         <f>IF(C22="",16,RANK(C22,$C$22:$C$37,0))</f>
         <v>1</v>
@@ -5749,11 +5775,11 @@
       </c>
       <c r="K22" s="22">
         <f>IF(C22="",16,RANK(F22,$F$22:$F$37,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22" s="22">
         <f t="shared" ref="L22" si="25">IF(G22="",16,RANK(G22,$G$22:$G$37,0))</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="N22" s="104"/>
       <c r="O22" s="104"/>
@@ -5775,19 +5801,17 @@
       </c>
       <c r="D23" s="47">
         <f t="shared" ref="D23:D37" si="26">AJ4</f>
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E23" s="50">
         <f t="shared" si="24"/>
-        <v>-0.50532327681478739</v>
+        <v>-0.48034989611854689</v>
       </c>
       <c r="F23" s="28">
         <f t="shared" ref="F23:F37" si="27">IF(C4="",0,Q4)</f>
-        <v>89.358333333333334</v>
-      </c>
-      <c r="G23" s="40">
-        <v>86.9</v>
-      </c>
+        <v>90.123076923076923</v>
+      </c>
+      <c r="G23" s="40"/>
       <c r="H23" s="24">
         <f t="shared" ref="H23:H37" si="28">IF(C23="",16,RANK(C23,$C$22:$C$37,0))</f>
         <v>7</v>
@@ -5806,7 +5830,7 @@
       </c>
       <c r="L23" s="24">
         <f t="shared" ref="L23:L37" si="31">IF(G23="",16,RANK(G23,$G$22:$G$37,0))</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="N23" s="30"/>
       <c r="O23" s="30"/>
@@ -5824,19 +5848,17 @@
       </c>
       <c r="D24" s="47">
         <f t="shared" si="26"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E24" s="50">
         <f t="shared" si="24"/>
-        <v>-0.87109976308082604</v>
+        <v>-0.93073375715883022</v>
       </c>
       <c r="F24" s="28">
         <f t="shared" si="27"/>
-        <v>82.600000000000009</v>
-      </c>
-      <c r="G24" s="40">
-        <v>76.099999999999994</v>
-      </c>
+        <v>82.000000000000014</v>
+      </c>
+      <c r="G24" s="40"/>
       <c r="H24" s="24">
         <f t="shared" si="28"/>
         <v>14</v>
@@ -5855,7 +5877,7 @@
       </c>
       <c r="L24" s="24">
         <f t="shared" si="31"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N24" s="104" t="s">
         <v>44</v>
@@ -5885,38 +5907,36 @@
       </c>
       <c r="D25" s="47">
         <f t="shared" si="26"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E25" s="50">
         <f t="shared" si="24"/>
-        <v>-0.17897894511552773</v>
+        <v>-0.25773201200275947</v>
       </c>
       <c r="F25" s="28">
         <f t="shared" si="27"/>
-        <v>97.166666666666686</v>
-      </c>
-      <c r="G25" s="40">
-        <v>71.8</v>
-      </c>
+        <v>95.861538461538487</v>
+      </c>
+      <c r="G25" s="40"/>
       <c r="H25" s="24">
         <f t="shared" si="28"/>
         <v>8</v>
       </c>
       <c r="I25" s="24">
         <f t="shared" si="29"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J25" s="24">
         <f>RANK(E25,$E$22:$E40,0)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K25" s="24">
         <f t="shared" si="30"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L25" s="24">
         <f t="shared" si="31"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N25" s="104"/>
       <c r="O25" s="104"/>
@@ -5944,38 +5964,36 @@
       </c>
       <c r="D26" s="47">
         <f t="shared" si="26"/>
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E26" s="50">
         <f t="shared" si="24"/>
-        <v>-0.18372307724274656</v>
+        <v>-0.22229442560317567</v>
       </c>
       <c r="F26" s="28">
         <f t="shared" si="27"/>
-        <v>96.075000000000003</v>
-      </c>
-      <c r="G26" s="40">
-        <v>82.7</v>
-      </c>
+        <v>95.34615384615384</v>
+      </c>
+      <c r="G26" s="40"/>
       <c r="H26" s="24">
         <f t="shared" si="28"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I26" s="24">
         <f t="shared" si="29"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J26" s="24">
         <f>RANK(E26,$E$22:$E41,0)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K26" s="24">
         <f t="shared" si="30"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L26" s="24">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N26" s="30"/>
       <c r="O26" s="30"/>
@@ -5993,38 +6011,36 @@
       </c>
       <c r="D27" s="47">
         <f t="shared" si="26"/>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E27" s="50">
         <f t="shared" si="24"/>
-        <v>1.054002010520895E-2</v>
+        <v>-5.0000261205957776E-2</v>
       </c>
       <c r="F27" s="28">
         <f t="shared" si="27"/>
-        <v>100.10833333333333</v>
-      </c>
-      <c r="G27" s="40">
-        <v>86.2</v>
-      </c>
+        <v>98.669230769230779</v>
+      </c>
+      <c r="G27" s="40"/>
       <c r="H27" s="24">
         <f t="shared" si="28"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I27" s="24">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J27" s="24">
         <f>RANK(E27,$E$22:$E42,0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K27" s="24">
         <f t="shared" si="30"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L27" s="24">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="N27" s="100" t="s">
         <v>45</v>
@@ -6048,19 +6064,17 @@
       </c>
       <c r="D28" s="47">
         <f t="shared" si="26"/>
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E28" s="50">
         <f t="shared" si="24"/>
-        <v>0.52388265298893955</v>
+        <v>0.44036663844916424</v>
       </c>
       <c r="F28" s="28">
         <f t="shared" si="27"/>
-        <v>112.2</v>
-      </c>
-      <c r="G28" s="40">
-        <v>94.6</v>
-      </c>
+        <v>110.20000000000002</v>
+      </c>
+      <c r="G28" s="40"/>
       <c r="H28" s="24">
         <f t="shared" si="28"/>
         <v>3</v>
@@ -6075,11 +6089,11 @@
       </c>
       <c r="K28" s="24">
         <f t="shared" si="30"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28" s="24">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="N28" s="100"/>
       <c r="O28" s="100"/>
@@ -6097,26 +6111,24 @@
         <v>Team Wasserman</v>
       </c>
       <c r="C29" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" s="47">
         <f t="shared" si="26"/>
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E29" s="50">
         <f t="shared" si="24"/>
-        <v>0.25981682010511331</v>
+        <v>0.35133701912287979</v>
       </c>
       <c r="F29" s="28">
         <f t="shared" si="27"/>
-        <v>105.54166666666667</v>
-      </c>
-      <c r="G29" s="40">
-        <v>84.9</v>
-      </c>
+        <v>107.55384615384615</v>
+      </c>
+      <c r="G29" s="40"/>
       <c r="H29" s="24">
         <f t="shared" si="28"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I29" s="24">
         <f t="shared" si="29"/>
@@ -6132,7 +6144,7 @@
       </c>
       <c r="L29" s="24">
         <f t="shared" si="31"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N29" s="100"/>
       <c r="O29" s="100"/>
@@ -6154,19 +6166,17 @@
       </c>
       <c r="D30" s="47">
         <f t="shared" si="26"/>
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E30" s="50">
         <f t="shared" si="24"/>
-        <v>-0.15058945991126418</v>
+        <v>-0.17552312461023817</v>
       </c>
       <c r="F30" s="28">
         <f t="shared" si="27"/>
-        <v>95.949999999999989</v>
-      </c>
-      <c r="G30" s="40">
-        <v>83.3</v>
-      </c>
+        <v>95.392307692307682</v>
+      </c>
+      <c r="G30" s="40"/>
       <c r="H30" s="24">
         <f t="shared" si="28"/>
         <v>8</v>
@@ -6177,15 +6187,15 @@
       </c>
       <c r="J30" s="24">
         <f>RANK(E30,$E$22:$E45,0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K30" s="24">
         <f t="shared" si="30"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L30" s="24">
         <f t="shared" si="31"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N30" s="100"/>
       <c r="O30" s="100"/>
@@ -6203,42 +6213,40 @@
         <v>Team Frisch</v>
       </c>
       <c r="C31" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" s="47">
         <f t="shared" si="26"/>
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E31" s="50">
         <f t="shared" si="24"/>
-        <v>-0.14687481789750881</v>
+        <v>-0.14507657180723116</v>
       </c>
       <c r="F31" s="28">
         <f t="shared" si="27"/>
-        <v>96.774999999999991</v>
-      </c>
-      <c r="G31" s="40">
-        <v>84.6</v>
-      </c>
+        <v>96.853846153846149</v>
+      </c>
+      <c r="G31" s="40"/>
       <c r="H31" s="24">
         <f t="shared" si="28"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I31" s="24">
         <f t="shared" si="29"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J31" s="24">
         <f>RANK(E31,$E$22:$E46,0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K31" s="24">
         <f t="shared" si="30"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L31" s="24">
         <f t="shared" si="31"/>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N31" s="100"/>
       <c r="O31" s="100"/>
@@ -6256,23 +6264,21 @@
         <v>OhNo Romo</v>
       </c>
       <c r="C32" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D32" s="47">
         <f t="shared" si="26"/>
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E32" s="50">
         <f>IF(D13="",-99,IF(T13=0,1,(Q13-$Q$19)/T13))</f>
-        <v>0.13420239711094401</v>
+        <v>0.11810522122667205</v>
       </c>
       <c r="F32" s="28">
         <f t="shared" si="27"/>
-        <v>102.49166666666667</v>
-      </c>
-      <c r="G32" s="40">
-        <v>69.099999999999994</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G32" s="40"/>
       <c r="H32" s="24">
         <f t="shared" si="28"/>
         <v>4</v>
@@ -6291,7 +6297,7 @@
       </c>
       <c r="L32" s="24">
         <f t="shared" si="31"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N32" s="77"/>
       <c r="O32" s="77"/>
@@ -6309,23 +6315,21 @@
         <v>Cool Hand Lou</v>
       </c>
       <c r="C33" s="23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D33" s="47">
         <f t="shared" si="26"/>
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E33" s="50">
         <f t="shared" ref="E33:E37" si="32">IF(D14="",-99,IF(T14=0,1,(Q14-$Q$19)/T14))</f>
-        <v>0.62623711838885543</v>
+        <v>0.63713245525665763</v>
       </c>
       <c r="F33" s="28">
         <f t="shared" si="27"/>
-        <v>112.79166666666664</v>
-      </c>
-      <c r="G33" s="40">
-        <v>94.7</v>
-      </c>
+        <v>112.39999999999999</v>
+      </c>
+      <c r="G33" s="40"/>
       <c r="H33" s="24">
         <f t="shared" si="28"/>
         <v>2</v>
@@ -6344,7 +6348,7 @@
       </c>
       <c r="L33" s="24">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="N33" s="100" t="s">
         <v>47</v>
@@ -6364,34 +6368,32 @@
         <v>Hebrew Wolves</v>
       </c>
       <c r="C34" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" s="47">
         <f t="shared" si="26"/>
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E34" s="50">
         <f t="shared" si="32"/>
-        <v>-0.17920841262777229</v>
+        <v>-9.1001269946313856E-2</v>
       </c>
       <c r="F34" s="28">
         <f t="shared" si="27"/>
-        <v>97.516666666666694</v>
-      </c>
-      <c r="G34" s="40">
-        <v>83.8</v>
-      </c>
+        <v>98.584615384615418</v>
+      </c>
+      <c r="G34" s="40"/>
       <c r="H34" s="24">
         <f t="shared" si="28"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I34" s="24">
         <f t="shared" si="29"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J34" s="24">
         <f>RANK(E34,$E$22:$E49,0)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K34" s="24">
         <f t="shared" si="30"/>
@@ -6399,7 +6401,7 @@
       </c>
       <c r="L34" s="24">
         <f t="shared" si="31"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N34" s="100"/>
       <c r="O34" s="100"/>
@@ -6417,42 +6419,40 @@
         <v>Team Force</v>
       </c>
       <c r="C35" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D35" s="47">
         <f t="shared" si="26"/>
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E35" s="50">
         <f t="shared" si="32"/>
-        <v>-3.974329964030629E-2</v>
+        <v>1.3723498238542818E-3</v>
       </c>
       <c r="F35" s="28">
         <f t="shared" si="27"/>
-        <v>98.850000000000009</v>
-      </c>
-      <c r="G35" s="40">
-        <v>84.5</v>
-      </c>
+        <v>99.81538461538463</v>
+      </c>
+      <c r="G35" s="40"/>
       <c r="H35" s="24">
         <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="I35" s="24">
         <f t="shared" si="29"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J35" s="24">
         <f>RANK(E35,$E$22:$E50,0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K35" s="24">
         <f t="shared" si="30"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L35" s="24">
         <f t="shared" si="31"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N35" s="100"/>
       <c r="O35" s="100"/>
@@ -6718,7 +6718,7 @@
       </c>
       <c r="D3" s="82">
         <f t="shared" ref="D3:D18" si="1">AVERAGE(3*E3,F3,G3,H3,I3)</f>
-        <v>1.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E3" s="83">
         <f>POINTS!H22</f>
@@ -6734,11 +6734,11 @@
       </c>
       <c r="H3" s="83">
         <f>POINTS!K22</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" s="84">
         <f>POINTS!L22</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J3" s="78"/>
     </row>
@@ -6749,11 +6749,11 @@
       </c>
       <c r="C4" s="71">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="85">
         <f t="shared" si="1"/>
-        <v>12.8</v>
+        <v>15.2</v>
       </c>
       <c r="E4" s="86">
         <f>POINTS!H23</f>
@@ -6773,7 +6773,7 @@
       </c>
       <c r="I4" s="87">
         <f>POINTS!L23</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J4" s="79"/>
     </row>
@@ -6788,7 +6788,7 @@
       </c>
       <c r="D5" s="85">
         <f t="shared" si="1"/>
-        <v>19.2</v>
+        <v>20</v>
       </c>
       <c r="E5" s="86">
         <f>POINTS!H24</f>
@@ -6808,7 +6808,7 @@
       </c>
       <c r="I5" s="87">
         <f>POINTS!L24</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J5" s="79"/>
     </row>
@@ -6819,11 +6819,11 @@
       </c>
       <c r="C6" s="71">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="85">
         <f t="shared" si="1"/>
-        <v>12.8</v>
+        <v>14.2</v>
       </c>
       <c r="E6" s="86">
         <f>POINTS!H25</f>
@@ -6831,19 +6831,19 @@
       </c>
       <c r="F6" s="86">
         <f>POINTS!I25</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" s="86">
         <f>POINTS!J25</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H6" s="86">
         <f>POINTS!K25</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I6" s="87">
         <f>POINTS!L25</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J6" s="79"/>
     </row>
@@ -6854,31 +6854,31 @@
       </c>
       <c r="C7" s="71">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="85">
         <f t="shared" si="1"/>
-        <v>14.6</v>
+        <v>17</v>
       </c>
       <c r="E7" s="86">
         <f>POINTS!H26</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F7" s="86">
         <f>POINTS!I26</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7" s="86">
         <f>POINTS!J26</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="86">
         <f>POINTS!K26</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I7" s="87">
         <f>POINTS!L26</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J7" s="79"/>
     </row>
@@ -6889,31 +6889,31 @@
       </c>
       <c r="C8" s="71">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D8" s="85">
         <f t="shared" si="1"/>
-        <v>6.8</v>
+        <v>11</v>
       </c>
       <c r="E8" s="86">
         <f>POINTS!H27</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8" s="86">
         <f>POINTS!I27</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G8" s="86">
         <f>POINTS!J27</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H8" s="86">
         <f>POINTS!K27</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I8" s="87">
         <f>POINTS!L27</f>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J8" s="79"/>
     </row>
@@ -6928,7 +6928,7 @@
       </c>
       <c r="D9" s="85">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="E9" s="86">
         <f>POINTS!H28</f>
@@ -6944,11 +6944,11 @@
       </c>
       <c r="H9" s="86">
         <f>POINTS!K28</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" s="87">
         <f>POINTS!L28</f>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J9" s="79"/>
     </row>
@@ -6959,15 +6959,15 @@
       </c>
       <c r="C10" s="71">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="85">
         <f t="shared" si="1"/>
-        <v>9.6</v>
+        <v>10.4</v>
       </c>
       <c r="E10" s="86">
         <f>POINTS!H29</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10" s="86">
         <f>POINTS!I29</f>
@@ -6983,7 +6983,7 @@
       </c>
       <c r="I10" s="87">
         <f>POINTS!L29</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J10" s="79"/>
     </row>
@@ -6998,7 +6998,7 @@
       </c>
       <c r="D11" s="85">
         <f t="shared" si="1"/>
-        <v>13.4</v>
+        <v>14.6</v>
       </c>
       <c r="E11" s="86">
         <f>POINTS!H30</f>
@@ -7010,15 +7010,15 @@
       </c>
       <c r="G11" s="86">
         <f>POINTS!J30</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H11" s="86">
         <f>POINTS!K30</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I11" s="87">
         <f>POINTS!L30</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J11" s="79"/>
     </row>
@@ -7029,31 +7029,31 @@
       </c>
       <c r="C12" s="71">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="85">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" s="86">
         <f>POINTS!H31</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="86">
         <f>POINTS!I31</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" s="86">
         <f>POINTS!J31</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H12" s="86">
         <f>POINTS!K31</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I12" s="87">
         <f>POINTS!L31</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J12" s="79"/>
     </row>
@@ -7064,11 +7064,11 @@
       </c>
       <c r="C13" s="71">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" s="85">
         <f t="shared" si="1"/>
-        <v>8.4</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E13" s="86">
         <f>POINTS!H32</f>
@@ -7088,7 +7088,7 @@
       </c>
       <c r="I13" s="87">
         <f>POINTS!L32</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J13" s="79"/>
     </row>
@@ -7103,7 +7103,7 @@
       </c>
       <c r="D14" s="85">
         <f t="shared" si="1"/>
-        <v>2.6</v>
+        <v>5.4</v>
       </c>
       <c r="E14" s="86">
         <f>POINTS!H33</f>
@@ -7123,7 +7123,7 @@
       </c>
       <c r="I14" s="87">
         <f>POINTS!L33</f>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J14" s="79"/>
     </row>
@@ -7134,23 +7134,23 @@
       </c>
       <c r="C15" s="71">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D15" s="85">
         <f t="shared" si="1"/>
-        <v>13.4</v>
+        <v>12.8</v>
       </c>
       <c r="E15" s="86">
         <f>POINTS!H34</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F15" s="86">
         <f>POINTS!I34</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15" s="86">
         <f>POINTS!J34</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H15" s="86">
         <f>POINTS!K34</f>
@@ -7158,7 +7158,7 @@
       </c>
       <c r="I15" s="87">
         <f>POINTS!L34</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J15" s="79"/>
     </row>
@@ -7173,7 +7173,7 @@
       </c>
       <c r="D16" s="85">
         <f t="shared" si="1"/>
-        <v>8.1999999999999993</v>
+        <v>9</v>
       </c>
       <c r="E16" s="86">
         <f>POINTS!H35</f>
@@ -7181,19 +7181,19 @@
       </c>
       <c r="F16" s="86">
         <f>POINTS!I35</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G16" s="86">
         <f>POINTS!J35</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H16" s="86">
         <f>POINTS!K35</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I16" s="87">
         <f>POINTS!L35</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J16" s="79"/>
     </row>
@@ -7285,7 +7285,7 @@
   <dimension ref="B2:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B3" sqref="B3:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -7338,7 +7338,7 @@
       </c>
       <c r="D3" s="82">
         <f>AVERAGE(3*E3,F3,G3,H3,I3)</f>
-        <v>1.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E3" s="83">
         <f>POINTS!H22</f>
@@ -7354,11 +7354,11 @@
       </c>
       <c r="H3" s="83">
         <f>POINTS!K22</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" s="84">
         <f>POINTS!L22</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J3" s="78"/>
     </row>
@@ -7373,7 +7373,7 @@
       </c>
       <c r="D4" s="85">
         <f>AVERAGE(3*E4,F4,G4,H4,I4)</f>
-        <v>2.6</v>
+        <v>5.4</v>
       </c>
       <c r="E4" s="86">
         <f>POINTS!H33</f>
@@ -7393,7 +7393,7 @@
       </c>
       <c r="I4" s="87">
         <f>POINTS!L33</f>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J4" s="79"/>
     </row>
@@ -7408,7 +7408,7 @@
       </c>
       <c r="D5" s="85">
         <f>AVERAGE(3*E5,F5,G5,H5,I5)</f>
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="E5" s="86">
         <f>POINTS!H28</f>
@@ -7424,18 +7424,18 @@
       </c>
       <c r="H5" s="86">
         <f>POINTS!K28</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5" s="87">
         <f>POINTS!L28</f>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J5" s="79"/>
     </row>
     <row r="6" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B6" s="92" t="str">
-        <f>POINTS!B8</f>
-        <v>Deflate Deez Nutz</v>
+        <f>POINTS!B13</f>
+        <v>OhNo Romo</v>
       </c>
       <c r="C6" s="71">
         <f>RANK(D6,$D$3:$D$16,1)</f>
@@ -7443,27 +7443,27 @@
       </c>
       <c r="D6" s="85">
         <f>AVERAGE(3*E6,F6,G6,H6,I6)</f>
-        <v>6.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E6" s="86">
-        <f>POINTS!H27</f>
+        <f>POINTS!H32</f>
         <v>4</v>
       </c>
       <c r="F6" s="86">
-        <f>POINTS!I27</f>
+        <f>POINTS!I32</f>
+        <v>6</v>
+      </c>
+      <c r="G6" s="86">
+        <f>POINTS!J32</f>
         <v>5</v>
       </c>
-      <c r="G6" s="86">
-        <f>POINTS!J27</f>
-        <v>6</v>
-      </c>
       <c r="H6" s="86">
-        <f>POINTS!K27</f>
-        <v>6</v>
+        <f>POINTS!K32</f>
+        <v>5</v>
       </c>
       <c r="I6" s="87">
-        <f>POINTS!L27</f>
-        <v>5</v>
+        <f>POINTS!L32</f>
+        <v>16</v>
       </c>
       <c r="J6" s="79"/>
     </row>
@@ -7478,7 +7478,7 @@
       </c>
       <c r="D7" s="85">
         <f>AVERAGE(3*E7,F7,G7,H7,I7)</f>
-        <v>8.1999999999999993</v>
+        <v>9</v>
       </c>
       <c r="E7" s="86">
         <f>POINTS!H35</f>
@@ -7486,26 +7486,26 @@
       </c>
       <c r="F7" s="86">
         <f>POINTS!I35</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G7" s="86">
         <f>POINTS!J35</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H7" s="86">
         <f>POINTS!K35</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I7" s="87">
         <f>POINTS!L35</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J7" s="79"/>
     </row>
     <row r="8" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B8" s="92" t="str">
-        <f>POINTS!B13</f>
-        <v>OhNo Romo</v>
+        <f>POINTS!B10</f>
+        <v>Team Wasserman</v>
       </c>
       <c r="C8" s="71">
         <f>RANK(D8,$D$3:$D$16,1)</f>
@@ -7513,34 +7513,34 @@
       </c>
       <c r="D8" s="85">
         <f>AVERAGE(3*E8,F8,G8,H8,I8)</f>
-        <v>8.4</v>
+        <v>10.4</v>
       </c>
       <c r="E8" s="86">
-        <f>POINTS!H32</f>
+        <f>POINTS!H29</f>
+        <v>8</v>
+      </c>
+      <c r="F8" s="86">
+        <f>POINTS!I29</f>
         <v>4</v>
       </c>
-      <c r="F8" s="86">
-        <f>POINTS!I32</f>
-        <v>6</v>
-      </c>
       <c r="G8" s="86">
-        <f>POINTS!J32</f>
-        <v>5</v>
+        <f>POINTS!J29</f>
+        <v>4</v>
       </c>
       <c r="H8" s="86">
-        <f>POINTS!K32</f>
-        <v>5</v>
+        <f>POINTS!K29</f>
+        <v>4</v>
       </c>
       <c r="I8" s="87">
-        <f>POINTS!L32</f>
-        <v>14</v>
+        <f>POINTS!L29</f>
+        <v>16</v>
       </c>
       <c r="J8" s="79"/>
     </row>
     <row r="9" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B9" s="92" t="str">
-        <f>POINTS!B10</f>
-        <v>Team Wasserman</v>
+        <f>POINTS!B8</f>
+        <v>Deflate Deez Nutz</v>
       </c>
       <c r="C9" s="71">
         <f>RANK(D9,$D$3:$D$16,1)</f>
@@ -7548,34 +7548,34 @@
       </c>
       <c r="D9" s="85">
         <f>AVERAGE(3*E9,F9,G9,H9,I9)</f>
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="E9" s="86">
-        <f>POINTS!H29</f>
-        <v>10</v>
+        <f>POINTS!H27</f>
+        <v>6</v>
       </c>
       <c r="F9" s="86">
-        <f>POINTS!I29</f>
-        <v>4</v>
+        <f>POINTS!I27</f>
+        <v>7</v>
       </c>
       <c r="G9" s="86">
-        <f>POINTS!J29</f>
-        <v>4</v>
+        <f>POINTS!J27</f>
+        <v>7</v>
       </c>
       <c r="H9" s="86">
-        <f>POINTS!K29</f>
-        <v>4</v>
+        <f>POINTS!K27</f>
+        <v>7</v>
       </c>
       <c r="I9" s="87">
-        <f>POINTS!L29</f>
-        <v>6</v>
+        <f>POINTS!L27</f>
+        <v>16</v>
       </c>
       <c r="J9" s="79"/>
     </row>
     <row r="10" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="92" t="str">
-        <f>POINTS!B6</f>
-        <v>Team Thomas</v>
+        <f>POINTS!B15</f>
+        <v>Hebrew Wolves</v>
       </c>
       <c r="C10" s="71">
         <f>RANK(D10,$D$3:$D$16,1)</f>
@@ -7586,59 +7586,59 @@
         <v>12.8</v>
       </c>
       <c r="E10" s="86">
+        <f>POINTS!H34</f>
+        <v>8</v>
+      </c>
+      <c r="F10" s="86">
+        <f>POINTS!I34</f>
+        <v>8</v>
+      </c>
+      <c r="G10" s="86">
+        <f>POINTS!J34</f>
+        <v>8</v>
+      </c>
+      <c r="H10" s="86">
+        <f>POINTS!K34</f>
+        <v>8</v>
+      </c>
+      <c r="I10" s="87">
+        <f>POINTS!L34</f>
+        <v>16</v>
+      </c>
+      <c r="J10" s="79"/>
+    </row>
+    <row r="11" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="92" t="str">
+        <f>POINTS!B6</f>
+        <v>Team Thomas</v>
+      </c>
+      <c r="C11" s="71">
+        <f>RANK(D11,$D$3:$D$16,1)</f>
+        <v>9</v>
+      </c>
+      <c r="D11" s="85">
+        <f>AVERAGE(3*E11,F11,G11,H11,I11)</f>
+        <v>14.2</v>
+      </c>
+      <c r="E11" s="86">
         <f>POINTS!H25</f>
         <v>8</v>
       </c>
-      <c r="F10" s="86">
+      <c r="F11" s="86">
         <f>POINTS!I25</f>
-        <v>8</v>
-      </c>
-      <c r="G10" s="86">
+        <v>9</v>
+      </c>
+      <c r="G11" s="86">
         <f>POINTS!J25</f>
+        <v>12</v>
+      </c>
+      <c r="H11" s="86">
+        <f>POINTS!K25</f>
         <v>10</v>
       </c>
-      <c r="H10" s="86">
-        <f>POINTS!K25</f>
-        <v>9</v>
-      </c>
-      <c r="I10" s="87">
+      <c r="I11" s="87">
         <f>POINTS!L25</f>
-        <v>13</v>
-      </c>
-      <c r="J10" s="79"/>
-    </row>
-    <row r="11" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B11" s="92" t="str">
-        <f>POINTS!B4</f>
-        <v>Little Miss Moffet</v>
-      </c>
-      <c r="C11" s="71">
-        <f>RANK(D11,$D$3:$D$16,1)</f>
-        <v>8</v>
-      </c>
-      <c r="D11" s="85">
-        <f>AVERAGE(3*E11,F11,G11,H11,I11)</f>
-        <v>12.8</v>
-      </c>
-      <c r="E11" s="86">
-        <f>POINTS!H23</f>
-        <v>7</v>
-      </c>
-      <c r="F11" s="86">
-        <f>POINTS!I23</f>
-        <v>13</v>
-      </c>
-      <c r="G11" s="86">
-        <f>POINTS!J23</f>
-        <v>13</v>
-      </c>
-      <c r="H11" s="86">
-        <f>POINTS!K23</f>
-        <v>13</v>
-      </c>
-      <c r="I11" s="87">
-        <f>POINTS!L23</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J11" s="79"/>
     </row>
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D12" s="85">
         <f>AVERAGE(3*E12,F12,G12,H12,I12)</f>
-        <v>13.4</v>
+        <v>14.6</v>
       </c>
       <c r="E12" s="86">
         <f>POINTS!H30</f>
@@ -7665,57 +7665,57 @@
       </c>
       <c r="G12" s="86">
         <f>POINTS!J30</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H12" s="86">
         <f>POINTS!K30</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I12" s="87">
         <f>POINTS!L30</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J12" s="79"/>
     </row>
     <row r="13" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="92" t="str">
-        <f>POINTS!B15</f>
-        <v>Hebrew Wolves</v>
+        <f>POINTS!B4</f>
+        <v>Little Miss Moffet</v>
       </c>
       <c r="C13" s="71">
         <f>RANK(D13,$D$3:$D$16,1)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" s="85">
         <f>AVERAGE(3*E13,F13,G13,H13,I13)</f>
-        <v>13.4</v>
+        <v>15.2</v>
       </c>
       <c r="E13" s="86">
-        <f>POINTS!H34</f>
-        <v>10</v>
+        <f>POINTS!H23</f>
+        <v>7</v>
       </c>
       <c r="F13" s="86">
-        <f>POINTS!I34</f>
-        <v>9</v>
+        <f>POINTS!I23</f>
+        <v>13</v>
       </c>
       <c r="G13" s="86">
-        <f>POINTS!J34</f>
-        <v>11</v>
+        <f>POINTS!J23</f>
+        <v>13</v>
       </c>
       <c r="H13" s="86">
-        <f>POINTS!K34</f>
-        <v>8</v>
+        <f>POINTS!K23</f>
+        <v>13</v>
       </c>
       <c r="I13" s="87">
-        <f>POINTS!L34</f>
-        <v>9</v>
+        <f>POINTS!L23</f>
+        <v>16</v>
       </c>
       <c r="J13" s="79"/>
     </row>
     <row r="14" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="92" t="str">
-        <f>POINTS!B7</f>
-        <v>Gurley Gone Wild</v>
+        <f>POINTS!B12</f>
+        <v>Team Frisch</v>
       </c>
       <c r="C14" s="71">
         <f>RANK(D14,$D$3:$D$16,1)</f>
@@ -7723,34 +7723,34 @@
       </c>
       <c r="D14" s="85">
         <f>AVERAGE(3*E14,F14,G14,H14,I14)</f>
-        <v>14.6</v>
+        <v>16</v>
       </c>
       <c r="E14" s="86">
-        <f>POINTS!H26</f>
+        <f>POINTS!H31</f>
+        <v>12</v>
+      </c>
+      <c r="F14" s="86">
+        <f>POINTS!I31</f>
         <v>10</v>
       </c>
-      <c r="F14" s="86">
-        <f>POINTS!I26</f>
+      <c r="G14" s="86">
+        <f>POINTS!J31</f>
         <v>9</v>
       </c>
-      <c r="G14" s="86">
-        <f>POINTS!J26</f>
-        <v>12</v>
-      </c>
       <c r="H14" s="86">
-        <f>POINTS!K26</f>
-        <v>11</v>
+        <f>POINTS!K31</f>
+        <v>9</v>
       </c>
       <c r="I14" s="87">
-        <f>POINTS!L26</f>
-        <v>11</v>
+        <f>POINTS!L31</f>
+        <v>16</v>
       </c>
       <c r="J14" s="79"/>
     </row>
     <row r="15" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="92" t="str">
-        <f>POINTS!B12</f>
-        <v>Team Frisch</v>
+        <f>POINTS!B7</f>
+        <v>Gurley Gone Wild</v>
       </c>
       <c r="C15" s="71">
         <f>RANK(D15,$D$3:$D$16,1)</f>
@@ -7758,27 +7758,27 @@
       </c>
       <c r="D15" s="85">
         <f>AVERAGE(3*E15,F15,G15,H15,I15)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E15" s="86">
-        <f>POINTS!H31</f>
-        <v>13</v>
+        <f>POINTS!H26</f>
+        <v>12</v>
       </c>
       <c r="F15" s="86">
-        <f>POINTS!I31</f>
+        <f>POINTS!I26</f>
+        <v>10</v>
+      </c>
+      <c r="G15" s="86">
+        <f>POINTS!J26</f>
         <v>11</v>
       </c>
-      <c r="G15" s="86">
-        <f>POINTS!J31</f>
-        <v>8</v>
-      </c>
       <c r="H15" s="86">
-        <f>POINTS!K31</f>
-        <v>10</v>
+        <f>POINTS!K26</f>
+        <v>12</v>
       </c>
       <c r="I15" s="87">
-        <f>POINTS!L31</f>
-        <v>7</v>
+        <f>POINTS!L26</f>
+        <v>16</v>
       </c>
       <c r="J15" s="79"/>
     </row>
@@ -7793,7 +7793,7 @@
       </c>
       <c r="D16" s="88">
         <f>AVERAGE(3*E16,F16,G16,H16,I16)</f>
-        <v>19.2</v>
+        <v>20</v>
       </c>
       <c r="E16" s="89">
         <f>POINTS!H24</f>
@@ -7813,7 +7813,7 @@
       </c>
       <c r="I16" s="90">
         <f>POINTS!L24</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J16" s="80"/>
     </row>
@@ -7885,7 +7885,7 @@
       </c>
       <c r="D3" s="82">
         <f t="shared" ref="D3:D14" si="1">AVERAGE(3*E3,F3,G3,H3,I3)</f>
-        <v>1.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E3" s="83">
         <f>POINTS!H22</f>
@@ -7901,11 +7901,11 @@
       </c>
       <c r="H3" s="83">
         <f>POINTS!K22</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" s="84">
         <f>POINTS!L22</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J3" s="78"/>
     </row>
@@ -7916,11 +7916,11 @@
       </c>
       <c r="C4" s="71">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" s="85">
         <f t="shared" si="1"/>
-        <v>12.8</v>
+        <v>15.2</v>
       </c>
       <c r="E4" s="86">
         <f>POINTS!H23</f>
@@ -7940,7 +7940,7 @@
       </c>
       <c r="I4" s="87">
         <f>POINTS!L23</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J4" s="79"/>
     </row>
@@ -7955,7 +7955,7 @@
       </c>
       <c r="D5" s="85">
         <f t="shared" si="1"/>
-        <v>19.2</v>
+        <v>20</v>
       </c>
       <c r="E5" s="86">
         <f>POINTS!H24</f>
@@ -7975,7 +7975,7 @@
       </c>
       <c r="I5" s="87">
         <f>POINTS!L24</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J5" s="79"/>
     </row>
@@ -7990,7 +7990,7 @@
       </c>
       <c r="D6" s="85">
         <f t="shared" si="1"/>
-        <v>12.8</v>
+        <v>14.2</v>
       </c>
       <c r="E6" s="86">
         <f>POINTS!H25</f>
@@ -7998,19 +7998,19 @@
       </c>
       <c r="F6" s="86">
         <f>POINTS!I25</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" s="86">
         <f>POINTS!J25</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H6" s="86">
         <f>POINTS!K25</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I6" s="87">
         <f>POINTS!L25</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J6" s="79"/>
     </row>
@@ -8021,31 +8021,31 @@
       </c>
       <c r="C7" s="71">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="85">
         <f t="shared" si="1"/>
-        <v>14.6</v>
+        <v>17</v>
       </c>
       <c r="E7" s="86">
         <f>POINTS!H26</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F7" s="86">
         <f>POINTS!I26</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7" s="86">
         <f>POINTS!J26</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="86">
         <f>POINTS!K26</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I7" s="87">
         <f>POINTS!L26</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J7" s="79"/>
     </row>
@@ -8056,31 +8056,31 @@
       </c>
       <c r="C8" s="71">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" s="85">
         <f t="shared" si="1"/>
-        <v>6.8</v>
+        <v>11</v>
       </c>
       <c r="E8" s="86">
         <f>POINTS!H27</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8" s="86">
         <f>POINTS!I27</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G8" s="86">
         <f>POINTS!J27</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H8" s="86">
         <f>POINTS!K27</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I8" s="87">
         <f>POINTS!L27</f>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J8" s="79"/>
     </row>
@@ -8095,7 +8095,7 @@
       </c>
       <c r="D9" s="85">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="E9" s="86">
         <f>POINTS!H28</f>
@@ -8111,11 +8111,11 @@
       </c>
       <c r="H9" s="86">
         <f>POINTS!K28</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" s="87">
         <f>POINTS!L28</f>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J9" s="79"/>
     </row>
@@ -8126,15 +8126,15 @@
       </c>
       <c r="C10" s="71">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="85">
         <f t="shared" si="1"/>
-        <v>9.6</v>
+        <v>10.4</v>
       </c>
       <c r="E10" s="86">
         <f>POINTS!H29</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10" s="86">
         <f>POINTS!I29</f>
@@ -8150,7 +8150,7 @@
       </c>
       <c r="I10" s="87">
         <f>POINTS!L29</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J10" s="79"/>
     </row>
@@ -8161,11 +8161,11 @@
       </c>
       <c r="C11" s="71">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="85">
         <f t="shared" si="1"/>
-        <v>13.4</v>
+        <v>14.6</v>
       </c>
       <c r="E11" s="86">
         <f>POINTS!H30</f>
@@ -8177,15 +8177,15 @@
       </c>
       <c r="G11" s="86">
         <f>POINTS!J30</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H11" s="86">
         <f>POINTS!K30</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I11" s="87">
         <f>POINTS!L30</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J11" s="79"/>
     </row>
@@ -8196,31 +8196,31 @@
       </c>
       <c r="C12" s="71">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="85">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" s="86">
         <f>POINTS!H31</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="86">
         <f>POINTS!I31</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" s="86">
         <f>POINTS!J31</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H12" s="86">
         <f>POINTS!K31</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I12" s="87">
         <f>POINTS!L31</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J12" s="79"/>
     </row>
@@ -8231,11 +8231,11 @@
       </c>
       <c r="C13" s="71">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="85">
         <f t="shared" si="1"/>
-        <v>8.4</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E13" s="86">
         <f>POINTS!H32</f>
@@ -8255,7 +8255,7 @@
       </c>
       <c r="I13" s="87">
         <f>POINTS!L32</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J13" s="79"/>
     </row>
@@ -8270,7 +8270,7 @@
       </c>
       <c r="D14" s="88">
         <f t="shared" si="1"/>
-        <v>2.6</v>
+        <v>5.4</v>
       </c>
       <c r="E14" s="89">
         <f>POINTS!H33</f>
@@ -8290,7 +8290,7 @@
       </c>
       <c r="I14" s="90">
         <f>POINTS!L33</f>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J14" s="80"/>
     </row>
@@ -8362,7 +8362,7 @@
       </c>
       <c r="D3" s="83">
         <f t="shared" ref="D3:D12" si="1">AVERAGE(3*E3,F3,G3,H3,I3)</f>
-        <v>1.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E3" s="83">
         <f>POINTS!H22</f>
@@ -8378,11 +8378,11 @@
       </c>
       <c r="H3" s="83">
         <f>POINTS!K22</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" s="83">
         <f>POINTS!L22</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J3" s="73"/>
     </row>
@@ -8393,11 +8393,11 @@
       </c>
       <c r="C4" s="97">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" s="86">
         <f t="shared" si="1"/>
-        <v>12.8</v>
+        <v>15.2</v>
       </c>
       <c r="E4" s="86">
         <f>POINTS!H23</f>
@@ -8417,7 +8417,7 @@
       </c>
       <c r="I4" s="86">
         <f>POINTS!L23</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J4" s="74"/>
     </row>
@@ -8432,7 +8432,7 @@
       </c>
       <c r="D5" s="86">
         <f t="shared" si="1"/>
-        <v>19.2</v>
+        <v>20</v>
       </c>
       <c r="E5" s="86">
         <f>POINTS!H24</f>
@@ -8452,7 +8452,7 @@
       </c>
       <c r="I5" s="86">
         <f>POINTS!L24</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J5" s="74"/>
     </row>
@@ -8467,7 +8467,7 @@
       </c>
       <c r="D6" s="86">
         <f t="shared" si="1"/>
-        <v>12.8</v>
+        <v>14.2</v>
       </c>
       <c r="E6" s="86">
         <f>POINTS!H25</f>
@@ -8475,19 +8475,19 @@
       </c>
       <c r="F6" s="86">
         <f>POINTS!I25</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" s="86">
         <f>POINTS!J25</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H6" s="86">
         <f>POINTS!K25</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I6" s="86">
         <f>POINTS!L25</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J6" s="74"/>
     </row>
@@ -8498,31 +8498,31 @@
       </c>
       <c r="C7" s="97">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="86">
         <f t="shared" si="1"/>
-        <v>14.6</v>
+        <v>17</v>
       </c>
       <c r="E7" s="86">
         <f>POINTS!H26</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F7" s="86">
         <f>POINTS!I26</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7" s="86">
         <f>POINTS!J26</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="86">
         <f>POINTS!K26</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I7" s="86">
         <f>POINTS!L26</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J7" s="74"/>
     </row>
@@ -8533,31 +8533,31 @@
       </c>
       <c r="C8" s="97">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="86">
         <f t="shared" si="1"/>
-        <v>6.8</v>
+        <v>11</v>
       </c>
       <c r="E8" s="86">
         <f>POINTS!H27</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8" s="86">
         <f>POINTS!I27</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G8" s="86">
         <f>POINTS!J27</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H8" s="86">
         <f>POINTS!K27</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I8" s="86">
         <f>POINTS!L27</f>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J8" s="74"/>
     </row>
@@ -8572,7 +8572,7 @@
       </c>
       <c r="D9" s="86">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="E9" s="86">
         <f>POINTS!H28</f>
@@ -8588,11 +8588,11 @@
       </c>
       <c r="H9" s="86">
         <f>POINTS!K28</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" s="86">
         <f>POINTS!L28</f>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J9" s="74"/>
     </row>
@@ -8603,15 +8603,15 @@
       </c>
       <c r="C10" s="97">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="86">
         <f t="shared" si="1"/>
-        <v>9.6</v>
+        <v>10.4</v>
       </c>
       <c r="E10" s="86">
         <f>POINTS!H29</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10" s="86">
         <f>POINTS!I29</f>
@@ -8627,7 +8627,7 @@
       </c>
       <c r="I10" s="86">
         <f>POINTS!L29</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J10" s="74"/>
     </row>
@@ -8638,11 +8638,11 @@
       </c>
       <c r="C11" s="97">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="86">
         <f t="shared" si="1"/>
-        <v>13.4</v>
+        <v>14.6</v>
       </c>
       <c r="E11" s="86">
         <f>POINTS!H30</f>
@@ -8654,15 +8654,15 @@
       </c>
       <c r="G11" s="86">
         <f>POINTS!J30</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H11" s="86">
         <f>POINTS!K30</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I11" s="86">
         <f>POINTS!L30</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J11" s="74"/>
     </row>
@@ -8673,31 +8673,31 @@
       </c>
       <c r="C12" s="99">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="89">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" s="89">
         <f>POINTS!H31</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="89">
         <f>POINTS!I31</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" s="89">
         <f>POINTS!J31</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H12" s="89">
         <f>POINTS!K31</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I12" s="89">
         <f>POINTS!L31</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J12" s="75"/>
     </row>
@@ -8769,7 +8769,7 @@
       </c>
       <c r="D3" s="82">
         <f t="shared" ref="D3:D10" si="1">AVERAGE(3*E3,F3,G3,H3,I3)</f>
-        <v>1.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E3" s="83">
         <f>POINTS!H22</f>
@@ -8785,11 +8785,11 @@
       </c>
       <c r="H3" s="83">
         <f>POINTS!K22</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" s="84">
         <f>POINTS!L22</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J3" s="78"/>
     </row>
@@ -8800,11 +8800,11 @@
       </c>
       <c r="C4" s="71">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="85">
         <f t="shared" si="1"/>
-        <v>12.8</v>
+        <v>15.2</v>
       </c>
       <c r="E4" s="86">
         <f>POINTS!H23</f>
@@ -8824,7 +8824,7 @@
       </c>
       <c r="I4" s="87">
         <f>POINTS!L23</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J4" s="79"/>
     </row>
@@ -8839,7 +8839,7 @@
       </c>
       <c r="D5" s="85">
         <f t="shared" si="1"/>
-        <v>19.2</v>
+        <v>20</v>
       </c>
       <c r="E5" s="86">
         <f>POINTS!H24</f>
@@ -8859,7 +8859,7 @@
       </c>
       <c r="I5" s="87">
         <f>POINTS!L24</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J5" s="79"/>
     </row>
@@ -8874,7 +8874,7 @@
       </c>
       <c r="D6" s="85">
         <f t="shared" si="1"/>
-        <v>12.8</v>
+        <v>14.2</v>
       </c>
       <c r="E6" s="86">
         <f>POINTS!H25</f>
@@ -8882,19 +8882,19 @@
       </c>
       <c r="F6" s="86">
         <f>POINTS!I25</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" s="86">
         <f>POINTS!J25</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H6" s="86">
         <f>POINTS!K25</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I6" s="87">
         <f>POINTS!L25</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J6" s="79"/>
     </row>
@@ -8909,27 +8909,27 @@
       </c>
       <c r="D7" s="85">
         <f t="shared" si="1"/>
-        <v>14.6</v>
+        <v>17</v>
       </c>
       <c r="E7" s="86">
         <f>POINTS!H26</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F7" s="86">
         <f>POINTS!I26</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7" s="86">
         <f>POINTS!J26</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="86">
         <f>POINTS!K26</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I7" s="87">
         <f>POINTS!L26</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J7" s="79"/>
     </row>
@@ -8940,31 +8940,31 @@
       </c>
       <c r="C8" s="71">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="85">
         <f t="shared" si="1"/>
-        <v>6.8</v>
+        <v>11</v>
       </c>
       <c r="E8" s="86">
         <f>POINTS!H27</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8" s="86">
         <f>POINTS!I27</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G8" s="86">
         <f>POINTS!J27</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H8" s="86">
         <f>POINTS!K27</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I8" s="87">
         <f>POINTS!L27</f>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J8" s="79"/>
     </row>
@@ -8979,7 +8979,7 @@
       </c>
       <c r="D9" s="85">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="E9" s="86">
         <f>POINTS!H28</f>
@@ -8995,11 +8995,11 @@
       </c>
       <c r="H9" s="86">
         <f>POINTS!K28</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" s="87">
         <f>POINTS!L28</f>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J9" s="79"/>
     </row>
@@ -9010,15 +9010,15 @@
       </c>
       <c r="C10" s="72">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="88">
         <f t="shared" si="1"/>
-        <v>9.6</v>
+        <v>10.4</v>
       </c>
       <c r="E10" s="89">
         <f>POINTS!H29</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10" s="89">
         <f>POINTS!I29</f>
@@ -9034,7 +9034,7 @@
       </c>
       <c r="I10" s="90">
         <f>POINTS!L29</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J10" s="80"/>
     </row>
